--- a/C500Hemis/TaiLieu/BangHemis.xlsx
+++ b/C500Hemis/TaiLieu/BangHemis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lap trinh may tinh\Code\C500Hemis\C500Hemis\TaiLieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A42174A-0F4D-43CB-A79A-00500532A2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBF872F-E658-43FD-85B7-BA3694382A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tạo controller-B9" sheetId="2" r:id="rId1"/>
@@ -1619,8 +1619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAAC24BA-3ABC-4D26-8A9F-E20DFBB226DA}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.5"/>
@@ -1762,7 +1762,7 @@
         <v>291</v>
       </c>
       <c r="D9" s="22">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>294</v>
@@ -1815,8 +1815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J234"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:G95"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.5"/>
@@ -6504,10 +6504,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D23458-106E-45B1-B4B0-490116DEE107}">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD50"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.5"/>
@@ -8421,6 +8421,12 @@
         <v>1</v>
       </c>
     </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="E74" s="2">
+        <f>SUM(E1:E73)</f>
+        <v>1872.8075396825377</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{23D23458-106E-45B1-B4B0-490116DEE107}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H73">
@@ -8428,6 +8434,7 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9173,7 +9180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AF3660-7BB6-4B35-A2B5-A126CAAF0875}">
   <dimension ref="A1:C167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/C500Hemis/TaiLieu/BangHemis.xlsx
+++ b/C500Hemis/TaiLieu/BangHemis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lap trinh may tinh\Code\C500Hemis\C500Hemis\TaiLieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBF872F-E658-43FD-85B7-BA3694382A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52245840-5D4A-4950-AE9B-BF0843249083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tạo controller-B9" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="381">
   <si>
     <t>tbHoatDongTaiChinh</t>
   </si>
@@ -922,15 +922,9 @@
     <t>Nhóm 8</t>
   </si>
   <si>
-    <t>Thiếu 2 bảng</t>
-  </si>
-  <si>
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>mới 2/3 bảng</t>
-  </si>
-  <si>
     <t>Điểm</t>
   </si>
   <si>
@@ -1190,6 +1184,9 @@
   </si>
   <si>
     <t>Đổi tối đa</t>
+  </si>
+  <si>
+    <t>Giao diện đẹp</t>
   </si>
 </sst>
 </file>
@@ -1276,7 +1273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1336,6 +1333,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1620,7 +1627,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.5"/>
@@ -1644,10 +1651,10 @@
         <v>282</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
@@ -1663,6 +1670,9 @@
       <c r="D2" s="6">
         <v>10</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="1">
@@ -1677,9 +1687,6 @@
       <c r="D3" s="6">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>292</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" s="1">
@@ -1692,7 +1699,7 @@
         <v>286</v>
       </c>
       <c r="D4" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.5">
@@ -1706,7 +1713,7 @@
         <v>287</v>
       </c>
       <c r="D5" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.5">
@@ -1720,7 +1727,7 @@
         <v>288</v>
       </c>
       <c r="D6" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.5">
@@ -1734,7 +1741,7 @@
         <v>289</v>
       </c>
       <c r="D7" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.5">
@@ -1750,6 +1757,9 @@
       <c r="D8" s="6">
         <v>10</v>
       </c>
+      <c r="E8" s="2" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" s="1">
@@ -1762,10 +1772,7 @@
         <v>291</v>
       </c>
       <c r="D9" s="22">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>294</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.5">
@@ -1778,25 +1785,25 @@
       <c r="C10" s="21"/>
       <c r="D10" s="22"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A11" s="1">
+    <row r="11" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="24">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="D11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A12" s="1">
+      <c r="D11" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="24">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="27">
         <v>0</v>
       </c>
     </row>
@@ -1815,8 +1822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J234"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.5"/>
@@ -1845,7 +1852,7 @@
         <v>247</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="23"/>
@@ -1861,25 +1868,25 @@
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
       <c r="D2" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>297</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>299</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>269</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.5">
@@ -6506,7 +6513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D23458-106E-45B1-B4B0-490116DEE107}">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6531,22 +6538,22 @@
         <v>246</v>
       </c>
       <c r="C1" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>378</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>379</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.5">
@@ -8453,10 +8460,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -9188,18 +9195,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C1" t="s">
         <v>374</v>
-      </c>
-      <c r="B1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C1" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -9210,7 +9217,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -9243,7 +9250,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -9265,7 +9272,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -9276,7 +9283,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -9287,7 +9294,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -9298,7 +9305,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -9320,7 +9327,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -9331,7 +9338,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -9353,7 +9360,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -9364,7 +9371,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -9397,7 +9404,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -9408,7 +9415,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -9419,7 +9426,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -9430,7 +9437,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -9441,7 +9448,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -9452,7 +9459,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -9463,7 +9470,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -9474,7 +9481,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -9485,7 +9492,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -9573,7 +9580,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B36">
         <v>4</v>
@@ -9584,7 +9591,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B37">
         <v>5</v>
@@ -9595,7 +9602,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B38">
         <v>5</v>
@@ -9606,7 +9613,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B39">
         <v>5</v>
@@ -9782,7 +9789,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B55">
         <v>5</v>
@@ -9793,7 +9800,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B56">
         <v>5</v>
@@ -9804,7 +9811,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B57">
         <v>5</v>
@@ -9826,7 +9833,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B59">
         <v>6</v>
@@ -9837,7 +9844,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B60">
         <v>6</v>
@@ -9881,7 +9888,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B64">
         <v>6</v>
@@ -9892,7 +9899,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B65">
         <v>6</v>
@@ -10024,7 +10031,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B77">
         <v>7</v>
@@ -10035,7 +10042,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B78">
         <v>7</v>
@@ -10046,7 +10053,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B79">
         <v>7</v>
@@ -10079,7 +10086,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B82">
         <v>7</v>
@@ -10090,7 +10097,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B83">
         <v>7</v>
@@ -10101,7 +10108,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B84">
         <v>7</v>
@@ -10112,7 +10119,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B85">
         <v>7</v>
@@ -10123,7 +10130,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B86">
         <v>7</v>
@@ -10134,7 +10141,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B87">
         <v>7</v>
@@ -10145,7 +10152,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B88">
         <v>8</v>
@@ -10200,7 +10207,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B93">
         <v>8</v>
@@ -10211,7 +10218,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B94">
         <v>8</v>
@@ -10222,7 +10229,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B95">
         <v>8</v>
@@ -10233,7 +10240,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B96">
         <v>8</v>
@@ -10244,7 +10251,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B97">
         <v>8</v>
@@ -10398,7 +10405,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B111">
         <v>9</v>
@@ -10409,7 +10416,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B112">
         <v>9</v>
@@ -10442,7 +10449,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B115">
         <v>9</v>
@@ -10453,7 +10460,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B116">
         <v>9</v>
@@ -10464,7 +10471,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B117">
         <v>9</v>
@@ -10475,7 +10482,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B118">
         <v>9</v>
@@ -10486,7 +10493,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B119">
         <v>10</v>
@@ -10508,7 +10515,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B121">
         <v>10</v>
@@ -10519,7 +10526,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B122">
         <v>10</v>
@@ -10629,7 +10636,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B132">
         <v>11</v>
@@ -10640,7 +10647,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B133">
         <v>11</v>
@@ -10695,7 +10702,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B138">
         <v>14</v>
@@ -10706,7 +10713,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B139">
         <v>14</v>
@@ -10717,7 +10724,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B140">
         <v>15</v>
@@ -10761,7 +10768,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B144">
         <v>16</v>
@@ -10783,7 +10790,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B146">
         <v>18</v>
@@ -10794,7 +10801,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B147">
         <v>19</v>
@@ -10816,7 +10823,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B149">
         <v>19</v>
@@ -10838,7 +10845,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B151">
         <v>20</v>
@@ -10860,7 +10867,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B153">
         <v>21</v>
@@ -10893,7 +10900,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B156">
         <v>23</v>
@@ -10904,7 +10911,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B157">
         <v>23</v>
@@ -10948,7 +10955,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B161">
         <v>25</v>
@@ -10970,7 +10977,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B163">
         <v>27</v>
@@ -10981,7 +10988,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B164">
         <v>30</v>
@@ -11014,7 +11021,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B167">
         <v>36</v>

--- a/C500Hemis/TaiLieu/BangHemis.xlsx
+++ b/C500Hemis/TaiLieu/BangHemis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lap trinh may tinh\Code\C500Hemis\C500Hemis\TaiLieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52245840-5D4A-4950-AE9B-BF0843249083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA35BD4-4733-4E95-85D1-C7FF0F057FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tạo controller-B9" sheetId="2" r:id="rId1"/>
@@ -1325,15 +1325,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1343,6 +1334,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1768,10 +1768,10 @@
       <c r="B9" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="26">
         <v>8</v>
       </c>
     </row>
@@ -1782,28 +1782,28 @@
       <c r="B10" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-    </row>
-    <row r="11" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="24">
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
+    </row>
+    <row r="11" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="21">
         <v>8</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="D11" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="24">
+      <c r="D11" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="21">
         <v>9</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="24">
         <v>0</v>
       </c>
     </row>
@@ -1822,8 +1822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.5"/>
@@ -1842,31 +1842,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="15" t="s">
         <v>293</v>
       </c>
@@ -9187,11 +9187,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AF3660-7BB6-4B35-A2B5-A126CAAF0875}">
   <dimension ref="A1:C167"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="F160" sqref="F160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="21.86328125" customWidth="1"/>
+    <col min="2" max="2" width="9.796875" customWidth="1"/>
+    <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">

--- a/C500Hemis/TaiLieu/BangHemis.xlsx
+++ b/C500Hemis/TaiLieu/BangHemis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lap trinh may tinh\Code\C500Hemis\C500Hemis\TaiLieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA35BD4-4733-4E95-85D1-C7FF0F057FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABB5EDA-E707-416C-8BE2-DA8991E179AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Đăng ký thi giữa phần'!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">DemTruong!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Triển khai các controller'!$A$2:$C$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1627,7 +1628,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.5"/>
@@ -1822,8 +1823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J234"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView topLeftCell="A206" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B226" sqref="B226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.5"/>
@@ -6513,8 +6514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D23458-106E-45B1-B4B0-490116DEE107}">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.5"/>
@@ -8449,8 +8450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E7C508-4C5E-48AF-9FA8-F826894616CF}">
   <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9187,13 +9188,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AF3660-7BB6-4B35-A2B5-A126CAAF0875}">
   <dimension ref="A1:C167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="F160" sqref="F160"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
     <col min="2" max="2" width="9.796875" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
@@ -9211,10 +9212,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -9222,43 +9223,43 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>339</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>338</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -9266,32 +9267,32 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>336</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -9299,10 +9300,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -9310,76 +9311,76 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>195</v>
+        <v>351</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>307</v>
+        <v>368</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>308</v>
+        <v>369</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>345</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -9387,10 +9388,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>225</v>
+        <v>306</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -9398,10 +9399,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>124</v>
+        <v>335</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -9409,13 +9410,13 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>311</v>
+        <v>362</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
@@ -9431,10 +9432,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -9442,18 +9443,18 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -9464,10 +9465,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -9475,21 +9476,21 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -9497,10 +9498,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -9508,40 +9509,40 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>360</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>236</v>
+        <v>346</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>371</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>191</v>
+        <v>313</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -9552,21 +9553,21 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>329</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>207</v>
+        <v>304</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -9574,7 +9575,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>179</v>
+        <v>319</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -9585,43 +9586,43 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B36">
         <v>4</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="B39">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -9629,10 +9630,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>300</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -9640,32 +9641,32 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="B41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>194</v>
+        <v>315</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>241</v>
+        <v>301</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -9673,32 +9674,32 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>355</v>
       </c>
       <c r="B44">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>182</v>
+        <v>364</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>314</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -9706,21 +9707,21 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>20</v>
+        <v>358</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>303</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -9728,43 +9729,43 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>342</v>
       </c>
       <c r="B49">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>341</v>
       </c>
       <c r="B50">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>232</v>
+        <v>326</v>
       </c>
       <c r="B51">
         <v>5</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>187</v>
+        <v>365</v>
       </c>
       <c r="B52">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -9772,7 +9773,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>325</v>
       </c>
       <c r="B53">
         <v>5</v>
@@ -9783,7 +9784,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="B54">
         <v>5</v>
@@ -9794,10 +9795,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="B55">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -9805,32 +9806,32 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="B56">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="B57">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>308</v>
       </c>
       <c r="B58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -9838,10 +9839,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="B59">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -9849,128 +9850,128 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="B60">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>367</v>
       </c>
       <c r="B61">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>233</v>
+        <v>349</v>
       </c>
       <c r="B62">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>46</v>
+        <v>328</v>
       </c>
       <c r="B63">
         <v>6</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="B64">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="B65">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>82</v>
+        <v>334</v>
       </c>
       <c r="B66">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>361</v>
       </c>
       <c r="B67">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>240</v>
+        <v>366</v>
       </c>
       <c r="B68">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>178</v>
+        <v>310</v>
       </c>
       <c r="B69">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>173</v>
+        <v>309</v>
       </c>
       <c r="B70">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>146</v>
+        <v>327</v>
       </c>
       <c r="B71">
         <v>6</v>
@@ -9981,32 +9982,32 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>190</v>
+        <v>356</v>
       </c>
       <c r="B72">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>203</v>
+        <v>307</v>
       </c>
       <c r="B73">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>237</v>
+        <v>49</v>
       </c>
       <c r="B74">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -10014,10 +10015,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B75">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -10025,10 +10026,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B76">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -10036,10 +10037,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>331</v>
+        <v>133</v>
       </c>
       <c r="B77">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -10047,21 +10048,21 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>332</v>
+        <v>104</v>
       </c>
       <c r="B78">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>333</v>
+        <v>74</v>
       </c>
       <c r="B79">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -10069,21 +10070,21 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>91</v>
+        <v>233</v>
       </c>
       <c r="B80">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B81">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -10091,10 +10092,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>334</v>
+        <v>225</v>
       </c>
       <c r="B82">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -10102,10 +10103,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>335</v>
+        <v>195</v>
       </c>
       <c r="B83">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -10113,21 +10114,21 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>336</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>7</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>337</v>
+        <v>130</v>
       </c>
       <c r="B85">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -10135,109 +10136,109 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>338</v>
+        <v>224</v>
       </c>
       <c r="B86">
+        <v>23</v>
+      </c>
+      <c r="C86">
         <v>7</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>339</v>
+        <v>220</v>
       </c>
       <c r="B87">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>340</v>
+        <v>216</v>
       </c>
       <c r="B88">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="B89">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="B90">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B91">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="B92">
         <v>8</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>341</v>
+        <v>166</v>
       </c>
       <c r="B93">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>342</v>
+        <v>20</v>
       </c>
       <c r="B94">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>343</v>
+        <v>161</v>
       </c>
       <c r="B95">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -10245,43 +10246,43 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>344</v>
+        <v>88</v>
       </c>
       <c r="B96">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>345</v>
+        <v>10</v>
       </c>
       <c r="B97">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>158</v>
+        <v>5</v>
       </c>
       <c r="B98">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="B99">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -10289,10 +10290,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B100">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -10300,109 +10301,109 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>228</v>
+        <v>65</v>
       </c>
       <c r="B101">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>208</v>
+        <v>62</v>
       </c>
       <c r="B102">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="B103">
         <v>8</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B104">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="B105">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B106">
         <v>8</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="B107">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="B108">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>115</v>
+        <v>240</v>
       </c>
       <c r="B109">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>149</v>
+        <v>236</v>
       </c>
       <c r="B110">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -10410,10 +10411,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>346</v>
+        <v>82</v>
       </c>
       <c r="B111">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -10421,21 +10422,21 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>347</v>
+        <v>121</v>
       </c>
       <c r="B112">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="B113">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -10443,21 +10444,21 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="B114">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>348</v>
+        <v>232</v>
       </c>
       <c r="B115">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -10465,21 +10466,21 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>349</v>
+        <v>43</v>
       </c>
       <c r="B116">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>350</v>
+        <v>208</v>
       </c>
       <c r="B117">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -10487,10 +10488,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>351</v>
+        <v>228</v>
       </c>
       <c r="B118">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C118">
         <v>2</v>
@@ -10498,32 +10499,32 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>352</v>
+        <v>59</v>
       </c>
       <c r="B119">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C119">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="B120">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>353</v>
+        <v>11</v>
       </c>
       <c r="B121">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -10531,10 +10532,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>354</v>
+        <v>7</v>
       </c>
       <c r="B122">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -10542,10 +10543,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B123">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -10553,10 +10554,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B124">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C124">
         <v>3</v>
@@ -10575,7 +10576,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>10</v>
+        <v>215</v>
       </c>
       <c r="B126">
         <v>10</v>
@@ -10586,21 +10587,21 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="B127">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>62</v>
+        <v>204</v>
       </c>
       <c r="B128">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -10608,65 +10609,65 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>223</v>
+        <v>0</v>
       </c>
       <c r="B129">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C129">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
       <c r="B130">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C130">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="B131">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C131">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>355</v>
+        <v>115</v>
       </c>
       <c r="B132">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>356</v>
+        <v>211</v>
       </c>
       <c r="B133">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="B134">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -10674,10 +10675,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
       <c r="B135">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -10685,10 +10686,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="B136">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -10696,10 +10697,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="B137">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -10707,32 +10708,32 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>357</v>
+        <v>203</v>
       </c>
       <c r="B138">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>358</v>
+        <v>37</v>
       </c>
       <c r="B139">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>359</v>
+        <v>198</v>
       </c>
       <c r="B140">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C140">
         <v>3</v>
@@ -10740,10 +10741,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="B141">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -10751,76 +10752,76 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="B142">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C142">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B143">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>360</v>
+        <v>112</v>
       </c>
       <c r="B144">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C144">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="B145">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C145">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>361</v>
+        <v>108</v>
       </c>
       <c r="B146">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>362</v>
+        <v>32</v>
       </c>
       <c r="B147">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C147">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="B148">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -10828,21 +10829,21 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>363</v>
+        <v>33</v>
       </c>
       <c r="B149">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B150">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C150">
         <v>3</v>
@@ -10850,21 +10851,21 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>364</v>
+        <v>199</v>
       </c>
       <c r="B151">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C151">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="B152">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -10872,10 +10873,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>365</v>
+        <v>186</v>
       </c>
       <c r="B153">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -10883,10 +10884,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="B154">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -10894,46 +10895,46 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>224</v>
+        <v>23</v>
       </c>
       <c r="B155">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C155">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>366</v>
+        <v>52</v>
       </c>
       <c r="B156">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>367</v>
+        <v>18</v>
       </c>
       <c r="B157">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C157">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="B158">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C158">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.45">
@@ -10949,65 +10950,65 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
       <c r="B160">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C160">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>368</v>
+        <v>24</v>
       </c>
       <c r="B161">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C161">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>164</v>
+        <v>241</v>
       </c>
       <c r="B162">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C162">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>369</v>
+        <v>237</v>
       </c>
       <c r="B163">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C163">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>370</v>
+        <v>173</v>
       </c>
       <c r="B164">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C164">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="B165">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C165">
         <v>4</v>
@@ -11015,27 +11016,32 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="B166">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C166">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>371</v>
+        <v>94</v>
       </c>
       <c r="B167">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="C167">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{05AF3660-7BB6-4B35-A2B5-A126CAAF0875}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C167">
+      <sortCondition descending="1" ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/C500Hemis/TaiLieu/BangHemis.xlsx
+++ b/C500Hemis/TaiLieu/BangHemis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lap trinh may tinh\Code\C500Hemis\C500Hemis\TaiLieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABB5EDA-E707-416C-8BE2-DA8991E179AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1B82E9-DFFB-4BA0-B443-C58FB05FF2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tạo controller-B9" sheetId="2" r:id="rId1"/>
@@ -18,11 +18,13 @@
     <sheet name="Đăng ký thi giữa phần" sheetId="5" r:id="rId3"/>
     <sheet name="SoKhoaNgoai" sheetId="3" r:id="rId4"/>
     <sheet name="DemTruong" sheetId="4" r:id="rId5"/>
+    <sheet name="View" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Đăng ký thi giữa phần'!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">DemTruong!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Triển khai các controller'!$A$2:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">View!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="458">
   <si>
     <t>tbHoatDongTaiChinh</t>
   </si>
@@ -1188,13 +1190,244 @@
   </si>
   <si>
     <t>Giao diện đẹp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE VIEW dbo.vNguoi  AS  SELECT dbo.tbNguoi.IdNguoi, dbo.tbNguoi.Ho, dbo.tbNguoi.Ten, dbo.tbNguoi.IdQuocTich, DM.dmQuocTich.TenNuoc, dbo.tbNguoi.SoCCCD, dbo.tbNguoi.NgaySinh, dbo.tbNguoi.IdDanToc, DM.dmDanToc.DanToc, dbo.tbNguoi.IdTonGiao,                     DM.dmTonGiao.TonGiao, dbo.tbNguoi.NgayVaoDang, dbo.tbNguoi.NgayVaoDangChinhThuc, dbo.tbNguoi.NgayNhapNgu, dbo.tbNguoi.NgayXuatNgu, dbo.tbNguoi.IdThuongBinhHang, DM.dmHangThuongBinh.HangThuongBinh,                     dbo.tbNguoi.IdGiaDinhChinhSach, DM.dmHoGiaDinhChinhSach.HoGiaDinhChinhSach, dbo.tbNguoi.IdChucDanhKhoaHoc, DM.dmChucDanhKhoaHoc.ChucDanhKhoaHoc, dbo.tbNguoi.IdTrinhDoDaoTao,                     DM.dmTrinhDoDaoTao.TrinhDoDaoTao, dbo.tbNguoi.IdChuyenMonDaoTao, DM.dmNganhDaoTao.NganhDaoTao, dbo.tbNguoi.IdNgoaiNgu, DM.dmNgoaiNgu.NgoaiNgu, dbo.tbNguoi.IdKhungNangLucNgoaiNguc,                     DM.dmKhungNangLucNgoaiNgu.TenKhungNangLucNgoaiNgu, dbo.tbNguoi.IdTrinhDoLyLuanChinhTri, DM.dmTrinhDoLyLuanChinhTri.TenTrinhDoLyLuanChinhTri, dbo.tbNguoi.IdTrinhDoQuanLyNhaNuoc,                     DM.dmTrinhDoQuanLyNhaNuoc.TrinhDoQuanLyNhaNuoc, dbo.tbNguoi.IdTrinhDoTinHoc, DM.dmTrinhDoTinHoc.TrinhDoTinHoc, DM.dmGioiTinh.GioiTinh AS Expr1  FROM     dbo.tbNguoi INNER JOIN                    DM.dmDanToc ON dbo.tbNguoi.IdDanToc = DM.dmDanToc.IdDanToc AND dbo.tbNguoi.IdDanToc = DM.dmDanToc.IdDanToc AND dbo.tbNguoi.IdDanToc = DM.dmDanToc.IdDanToc AND dbo.tbNguoi.IdDanToc = DM.dmDanToc.IdDanToc AND                     dbo.tbNguoi.IdDanToc = DM.dmDanToc.IdDanToc AND dbo.tbNguoi.IdDanToc = DM.dmDanToc.IdDanToc INNER JOIN                    DM.dmTonGiao ON dbo.tbNguoi.IdDanToc = DM.dmTonGiao.IdTonGiao AND dbo.tbNguoi.IdDanToc = DM.dmTonGiao.IdTonGiao AND dbo.tbNguoi.IdDanToc = DM.dmTonGiao.IdTonGiao AND                     dbo.tbNguoi.IdDanToc = DM.dmTonGiao.IdTonGiao AND dbo.tbNguoi.IdDanToc = DM.dmTonGiao.IdTonGiao AND dbo.tbNguoi.IdDanToc = DM.dmTonGiao.IdTonGiao INNER JOIN                    DM.dmQuocTich ON dbo.tbNguoi.IdQuocTich = DM.dmQuocTich.IdQuocTich AND dbo.tbNguoi.IdQuocTich = DM.dmQuocTich.IdQuocTich AND dbo.tbNguoi.IdQuocTich = DM.dmQuocTich.IdQuocTich AND                     dbo.tbNguoi.IdQuocTich = DM.dmQuocTich.IdQuocTich AND dbo.tbNguoi.IdQuocTich = DM.dmQuocTich.IdQuocTich AND dbo.tbNguoi.IdQuocTich = DM.dmQuocTich.IdQuocTich INNER JOIN                    DM.dmHoGiaDinhChinhSach ON dbo.tbNguoi.IdGiaDinhChinhSach = DM.dmHoGiaDinhChinhSach.IdHoGiaDinhChinhSach AND dbo.tbNguoi.IdGiaDinhChinhSach = DM.dmHoGiaDinhChinhSach.IdHoGiaDinhChinhSach AND                     dbo.tbNguoi.IdGiaDinhChinhSach = DM.dmHoGiaDinhChinhSach.IdHoGiaDinhChinhSach AND dbo.tbNguoi.IdGiaDinhChinhSach = DM.dmHoGiaDinhChinhSach.IdHoGiaDinhChinhSach AND                     dbo.tbNguoi.IdGiaDinhChinhSach = DM.dmHoGiaDinhChinhSach.IdHoGiaDinhChinhSach AND dbo.tbNguoi.IdGiaDinhChinhSach = DM.dmHoGiaDinhChinhSach.IdHoGiaDinhChinhSach INNER JOIN                    DM.dmHangThuongBinh ON dbo.tbNguoi.IdThuongBinhHang = DM.dmHangThuongBinh.IdHangThuongBinh AND dbo.tbNguoi.IdThuongBinhHang = DM.dmHangThuongBinh.IdHangThuongBinh AND                     dbo.tbNguoi.IdThuongBinhHang = DM.dmHangThuongBinh.IdHangThuongBinh AND dbo.tbNguoi.IdThuongBinhHang = DM.dmHangThuongBinh.IdHangThuongBinh AND                     dbo.tbNguoi.IdThuongBinhHang = DM.dmHangThuongBinh.IdHangThuongBinh AND dbo.tbNguoi.IdThuongBinhHang = DM.dmHangThuongBinh.IdHangThuongBinh INNER JOIN                    DM.dmChucDanhKhoaHoc ON dbo.tbNguoi.IdChucDanhKhoaHoc = DM.dmChucDanhKhoaHoc.IdChucDanhKhoaHoc AND dbo.tbNguoi.IdChucDanhKhoaHoc = DM.dmChucDanhKhoaHoc.IdChucDanhKhoaHoc AND                     dbo.tbNguoi.IdChucDanhKhoaHoc = DM.dmChucDanhKhoaHoc.IdChucDanhKhoaHoc AND dbo.tbNguoi.IdChucDanhKhoaHoc = DM.dmChucDanhKhoaHoc.IdChucDanhKhoaHoc AND                     dbo.tbNguoi.IdChucDanhKhoaHoc = DM.dmChucDanhKhoaHoc.IdChucDanhKhoaHoc AND dbo.tbNguoi.IdChucDanhKhoaHoc = DM.dmChucDanhKhoaHoc.IdChucDanhKhoaHoc INNER JOIN          </t>
+  </si>
+  <si>
+    <t>CREATE VIEW [CSGD].vCoCauToChuc  AS  SELECT CSGD.tbCoCauToChuc.MaPhongBanDonVi, DM.dmLoaiPhongBan.LoaiPhongBan, CSGD.tbCoCauToChuc.MaPhongBanDonViCha, CSGD.tbCoCauToChuc.TenPhongBanDonVi, CSGD.tbCoCauToChuc.SoQuyetDinhThanhLap,                     CSGD.tbCoCauToChuc.NgayRaQuyetDinh, DM.dmTrangThaiCoSoGD.TrangThaiCoSoGD  FROM     DM.dmLoaiPhongBan INNER JOIN                    CSGD.tbCoCauToChuc ON DM.dmLoaiPhongBan.IdLoaiPhongBan = CSGD.tbCoCauToChuc.IdLoaiPhongBan INNER JOIN                    DM.dmTrangThaiCoSoGD ON CSGD.tbCoCauToChuc.IdTrangThai = DM.dmTrangThaiCoSoGD.IdTrangThaiCoSoGD</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [CSGD].vCoSoGiaoDuc  AS  SELECT CSGD.tbCoSoGiaoDuc.MaDonVi, CSGD.tbCoSoGiaoDuc.TenDonVi, CSGD.tbCoSoGiaoDuc.TenTiengAnh, DM.dmHinhThucThanhLap.HinhThucThanhLap, DM.dmLoaiHinhTruong.LoaiHinhTruong,                     CSGD.tbCoSoGiaoDuc.SoQuyetDinhChuyenDoiLoaiHinh, CSGD.tbCoSoGiaoDuc.NgayKyQuyetDinhChuyenDoiLoaiHinh, CSGD.tbCoSoGiaoDuc.TenDaiHocTrucThuoc, CSGD.tbCoSoGiaoDuc.SoDienThoai, CSGD.tbCoSoGiaoDuc.Fax,                     CSGD.tbCoSoGiaoDuc.Email, CSGD.tbCoSoGiaoDuc.DiaChiWebsite, DM.dmCoQuanChuQuan.CoQuanChuQuan, CSGD.tbCoSoGiaoDuc.SoQuyetDinhThanhLap, CSGD.tbCoSoGiaoDuc.NgayKyQuyetDinhThanhLap,                     CSGD.tbCoSoGiaoDuc.DiaChi, DM.dmTinh.TenTinh, DM.dmHuyen.TenHuyen, DM.dmXa.TenXa, DM.dmTuyChon.TuyChon AS HoatDongKhongLoiNhuan, CSGD.tbCoSoGiaoDuc.SoQuyetDinhCapPhepHoatDong,                     CSGD.tbCoSoGiaoDuc.NgayDuocCapPhepHoatDong, DM.dmLoaiHinhCoSoDaoTao.LoaiHinhCoSoDaoTao, CSGD.tbCoSoGiaoDuc.SoGiaoVienGDTC, DM.dmPhanLoaiCoSo.PhanLoaiCoSo, dmTuyChon_1.TuyChon AS TuChuGiaoDucQPAN,                     CSGD.tbCoSoGiaoDuc.SoQuyetDinhGiaoTuChu, CSGD.tbCoSoGiaoDuc.DaoTaoSVGDQPAN_1Nam, CSGD.tbCoSoGiaoDuc.SoQuyetDinhBanHanhQuyCheTaiChinh,                     CSGD.tbCoSoGiaoDuc.NgayKyQuyetDinhBanHanhQuyCheTaiChinh  FROM     CSGD.tbCoSoGiaoDuc INNER JOIN                    DM.dmHinhThucThanhLap ON CSGD.tbCoSoGiaoDuc.IdHinhThucThanhLap = DM.dmHinhThucThanhLap.IdHinhThucThanhLap INNER JOIN                    DM.dmLoaiHinhTruong ON CSGD.tbCoSoGiaoDuc.IdLoaiHinhTruong = DM.dmLoaiHinhTruong.IdLoaiHinhTruong INNER JOIN                    DM.dmCoQuanChuQuan ON CSGD.tbCoSoGiaoDuc.IdCoQuanChuQuan = DM.dmCoQuanChuQuan.IdCoQuanChuQuan INNER JOIN                    DM.dmTinh ON CSGD.tbCoSoGiaoDuc.IdTinh = DM.dmTinh.IdTinh INNER JOIN                    DM.dmHuyen ON CSGD.tbCoSoGiaoDuc.IdHuyen = DM.dmHuyen.IdHuyen AND DM.dmTinh.IdTinh = DM.dmHuyen.IdTinh INNER JOIN                    DM.dmXa ON CSGD.tbCoSoGiaoDuc.IdXa = DM.dmXa.IdXa AND DM.dmHuyen.IdHuyen = DM.dmXa.IdHuyen INNER JOIN                    DM.dmTuyChon ON CSGD.tbCoSoGiaoDuc.HoatDongKhongLoiNhuan = DM.dmTuyChon.IdTuyChon INNER JOIN                    DM.dmLoaiHinhCoSoDaoTao ON CSGD.tbCoSoGiaoDuc.IdLoaiHinhCoSoDaoTao = DM.dmLoaiHinhCoSoDaoTao.IdLoaiHinhCoSoDaoTao INNER JOIN                    DM.dmPhanLoaiCoSo ON CSGD.tbCoSoGiaoDuc.IdPhanLoaiCoSo = DM.dmPhanLoaiCoSo.IdPhanLoaiCoSo INNER JOIN                    DM.dmTuyChon AS dmTuyChon_1 ON CSGD.tbCoSoGiaoDuc.TuChuGiaoDucQPAN = dmTuyChon_1.IdTuyChon</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [CSGD].vDanhHieuThiDuaGiaiThuongKhenThuongCuaCoSoGD  AS  SELECT DM.dmThiDuaGiaiThuongKhenThuong.ThiDuaGiaiThuongKhenThuong, DM.dmLoaiDanhHieuThiDuaGiaiThuongKhenThuong.LoaiDanhHieuThiDuaGiaiThuongKhenThuong,                     CSGD.tbDanhHieuThiDuaGiaiThuongKhenThuongCuaCoSoGD.SoQuyetDinhKhenThuong, DM.dmPhuongThucKhenThuong.PhuongThucKhenThuong, CSGD.tbDanhHieuThiDuaGiaiThuongKhenThuongCuaCoSoGD.NamKhenThuong,                     DM.dmCapKhenThuong.CapKhenThuong  FROM     DM.dmLoaiDanhHieuThiDuaGiaiThuongKhenThuong INNER JOIN                    CSGD.tbDanhHieuThiDuaGiaiThuongKhenThuongCuaCoSoGD ON                     DM.dmLoaiDanhHieuThiDuaGiaiThuongKhenThuong.IdLoaiDanhHieuThiDuaGiaiThuongKhenThuong = CSGD.tbDanhHieuThiDuaGiaiThuongKhenThuongCuaCoSoGD.IdLoaiDanhHieuThiDuaGiaiThuongKhenThuong INNER JOIN                    DM.dmThiDuaGiaiThuongKhenThuong ON                     CSGD.tbDanhHieuThiDuaGiaiThuongKhenThuongCuaCoSoGD.IdDanhHieuThiDuaGiaiThuongKhenThuongCuaCoSoGD = DM.dmThiDuaGiaiThuongKhenThuong.IdThiDuaGiaiThuongKhenThuong INNER JOIN                    DM.dmPhuongThucKhenThuong ON CSGD.tbDanhHieuThiDuaGiaiThuongKhenThuongCuaCoSoGD.IdPhuongThucKhenThuong = DM.dmPhuongThucKhenThuong.IdPhuongThucKhenThuong INNER JOIN                    DM.dmCapKhenThuong ON CSGD.tbDanhHieuThiDuaGiaiThuongKhenThuongCuaCoSoGD.IdCapKhenThuong = DM.dmCapKhenThuong.IdCapKhenThuong</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [CSGD].vDauMoiLienHe  AS  SELECT DM.dmDauMoiLienHe.DauMoiLienHe, CSGD.tbDauMoiLienHe.SoDienThoai, CSGD.tbDauMoiLienHe.Email  FROM     DM.dmDauMoiLienHe INNER JOIN                    CSGD.tbDauMoiLienHe ON DM.dmDauMoiLienHe.IdDauMoiLienHe = CSGD.tbDauMoiLienHe.IdLoaiDauMoiLienHe</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [CSGD].vDonViLienKetDaoTaoGiaoDuc  AS  SELECT CSGD.tbCoSoGiaoDuc.MaDonVi, CSGD.tbCoSoGiaoDuc.TenDonVi, CSGD.tbDonViLienKetDaoTaoGiaoDuc.DiaChi, CSGD.tbDonViLienKetDaoTaoGiaoDuc.DienThoai, DM.dmLoaiLienKet.LoaiLienKet  FROM     DM.dmLoaiLienKet INNER JOIN                    CSGD.tbDonViLienKetDaoTaoGiaoDuc ON DM.dmLoaiLienKet.IdLoaiLienKet = CSGD.tbDonViLienKetDaoTaoGiaoDuc.IdLoaiLienKet INNER JOIN                    CSGD.tbCoSoGiaoDuc ON CSGD.tbDonViLienKetDaoTaoGiaoDuc.IdCoSoGiaoDuc = CSGD.tbCoSoGiaoDuc.IdCoSoGiaoDuc AND CSGD.tbDonViLienKetDaoTaoGiaoDuc.IdCoSoGiaoDuc = CSGD.tbCoSoGiaoDuc.IdCoSoGiaoDuc</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [CSGD].vKhoaHoc  AS  SELECT TuNam, DenNam  FROM     CSGD.tbKhoaHoc</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [CSGD].vLichSuDoiTenTruong  AS  SELECT TenTruongCu, TenTruongCuTiengAnh, SoQuyetDinhDoiTen, NgayKyQuyetDinhDoiTen  FROM     CSGD.tbLichSuDoiTenTruong</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [CSGD].vToChucKiemDinh  AS  SELECT DM.dmToChucKiemDinh.ToChucKiemDinh, DM.dmKetQuaKiemDinh.KetQuaKiemDinh, CSGD.tbToChucKiemDinh.SoQuyetDinhKiemDinh, CSGD.tbToChucKiemDinh.NgayCapChungNhanKiemDinh,                     CSGD.tbToChucKiemDinh.ThoiHanKiemDinh  FROM     CSGD.tbToChucKiemDinh INNER JOIN                    DM.dmKetQuaKiemDinh ON CSGD.tbToChucKiemDinh.IdKetQua = DM.dmKetQuaKiemDinh.IdKetQuaKiemDinh INNER JOIN                    DM.dmToChucKiemDinh ON CSGD.tbToChucKiemDinh.IdToChucKiemDinh = DM.dmToChucKiemDinh.IdToChucKiemDinh</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [CSGD].vVanBanTuChu  AS  SELECT LoaiVanBan, NoiDungVanBan, QuyetDinhBanHanh, CoQuanQuyetDinhBanHanh  FROM     CSGD.tbVanBanTuChu</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [CSVC].vCongTrinhCoSoVatChat  AS  SELECT CSVC.tbCongTrinhCoSoVatChat.MaCongTrinh, CSVC.tbCongTrinhCoSoVatChat.TenCongTrinh, DM.dmLoaiCongTrinhCoSoVatChat.LoaiCongTrinhCoSoVatChat, DM.dmMucDichSuDungCSVC.MucDichSuDungCSVC,                     CSVC.tbCongTrinhCoSoVatChat.DoiTuongSuDung, CSVC.tbCongTrinhCoSoVatChat.DienTichSanXayDung, CSVC.tbCongTrinhCoSoVatChat.VonBanDau, CSVC.tbCongTrinhCoSoVatChat.VonDauTu,                     DM.dmTinhTrangCoSoVatChat.TinhTrangCoSoVatChat, DM.dmHinhThucSoHuu.HinhThucSoHuu, DM.dmTuyChon.TuyChon AS CongTrinhCSVCTrongNha, CSVC.tbCongTrinhCoSoVatChat.SoPhongOCongVu,                     CSVC.tbCongTrinhCoSoVatChat.SoChoOChoCanBoGiangDay, CSVC.tbCongTrinhCoSoVatChat.NamDuaVaoSuDung  FROM     DM.dmHinhThucSoHuu INNER JOIN                    CSVC.tbCongTrinhCoSoVatChat ON DM.dmHinhThucSoHuu.IdHinhThucSoHuu = CSVC.tbCongTrinhCoSoVatChat.IdHinhThucSoHuu INNER JOIN                    DM.dmLoaiCongTrinhCoSoVatChat ON CSVC.tbCongTrinhCoSoVatChat.IdLoaiCongTrinh = DM.dmLoaiCongTrinhCoSoVatChat.IdLoaiCongTrinhCoSoVatChat INNER JOIN                    DM.dmMucDichSuDungCSVC ON CSVC.tbCongTrinhCoSoVatChat.IdMucDichSuDung = DM.dmMucDichSuDungCSVC.IdMucDichSuDungCSVC INNER JOIN                    DM.dmTinhTrangCoSoVatChat ON CSVC.tbCongTrinhCoSoVatChat.IdTinhTrangCSVC = DM.dmTinhTrangCoSoVatChat.IdTinhTrangCoSoVatChat INNER JOIN                    DM.dmTuyChon ON CSVC.tbCongTrinhCoSoVatChat.CongTrinhCSVCTrongNha = DM.dmTuyChon.IdTuyChon</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [CSVC].vDatDai  AS  SELECT CSVC.tbDatDai.MaGiayChungNhanQuyenSoHuu, CSVC.tbDatDai.DienTichDat, DM.dmHinhThucSoHuu.HinhThucSoHuu, CSVC.tbDatDai.TenDonViSoHuu, CSVC.tbDatDai.MinhChungQuyenSoHuuDatDai, CSVC.tbDatDai.MucDichSuDungDat,                     CSVC.tbDatDai.NamBatDauSuDungDat, CSVC.tbDatDai.ThoiGianSuDungDat, CSVC.tbDatDai.DienTichDatDaSuDung  FROM     DM.dmHinhThucSoHuu INNER JOIN                    CSVC.tbDatDai ON DM.dmHinhThucSoHuu.IdHinhThucSoHuu = CSVC.tbDatDai.IdHinhThucSoHuu</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [CSVC].vKiTucXa  AS  SELECT CSVC.tbKiTucXa.MaKyTucxa, DM.dmHinhThucSoHuu.HinhThucSoHuu, CSVC.tbKiTucXa.TongChoO, CSVC.tbKiTucXa.TongDienTich, DM.dmTinhTrangCoSoVatChat.TinhTrangCoSoVatChat, CSVC.tbKiTucXa.SoPhong,                     CSVC.tbKiTucXa.NamDuaVaoSuDung  FROM     CSVC.tbKiTucXa INNER JOIN                    DM.dmTinhTrangCoSoVatChat ON CSVC.tbKiTucXa.IdTinhTrangCSVC = DM.dmTinhTrangCoSoVatChat.IdTinhTrangCoSoVatChat INNER JOIN                    DM.dmHinhThucSoHuu ON CSVC.tbKiTucXa.IdHinhThucSoHuu = DM.dmHinhThucSoHuu.IdHinhThucSoHuu</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [CSVC].vPhongHocGiangDuongHoiTruong  AS  SELECT CSVC.tbPhongHocGiangDuongHoiTruong.MaPhongHocGiangDuongHoiTruong, CSVC.tbPhongHocGiangDuongHoiTruong.TenPhongHocGiangDuongHoiTruong, CSVC.tbPhongHocGiangDuongHoiTruong.DienTich,                     DM.dmHinhThucSoHuu.HinhThucSoHuu, CSVC.tbPhongHocGiangDuongHoiTruong.QuyMoChoNgoi, DM.dmTinhTrangCoSoVatChat.TinhTrangCoSoVatChat, DM.dmPhanLoaiCSVC.PhanLoaiCSVC, DM.dmLoaiPhongHoc.LoaiPhongHoc,                     DM.dmLoaiDeAnChuongTrinh.LoaiDeAnChuongTrinh, CSVC.tbPhongHocGiangDuongHoiTruong.NamDuaVaoSuDung  FROM     DM.dmHinhThucSoHuu INNER JOIN                    CSVC.tbPhongHocGiangDuongHoiTruong ON DM.dmHinhThucSoHuu.IdHinhThucSoHuu = CSVC.tbPhongHocGiangDuongHoiTruong.IdHinhThucSoHuu INNER JOIN                    DM.dmPhanLoaiCSVC ON CSVC.tbPhongHocGiangDuongHoiTruong.IdPhanLoaiCSVC = DM.dmPhanLoaiCSVC.IdPhanLoaiCSVC INNER JOIN                    DM.dmLoaiPhongHoc ON CSVC.tbPhongHocGiangDuongHoiTruong.IdLoaiPhongHoc = DM.dmLoaiPhongHoc.IdLoaiPhongHoc INNER JOIN                    DM.dmLoaiDeAnChuongTrinh ON CSVC.tbPhongHocGiangDuongHoiTruong.IdLoaiDeAn = DM.dmLoaiDeAnChuongTrinh.IdLoaiDeAnChuongTrinh INNER JOIN                    DM.dmTinhTrangCoSoVatChat ON CSVC.tbPhongHocGiangDuongHoiTruong.IdTinhTrangCoSoVatChat = DM.dmTinhTrangCoSoVatChat.IdTinhTrangCoSoVatChat</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [CSVC].vPhongThiNghiem  AS  SELECT CSVC.tbCongTrinhCoSoVatChat.MaCongTrinh, DM.dmLoaiPhongThiNghiem.LoaiPhongThiNghiem, DM.dmLinhVucNghienCuu.LinhVucNghienCuu, CSVC.tbPhongThiNghiem.MucDoDapUngNhuCauNCKH,                     CSVC.tbPhongThiNghiem.NamDuaVaoSuDung  FROM     DM.dmLoaiPhongThiNghiem INNER JOIN                    CSVC.tbPhongThiNghiem ON DM.dmLoaiPhongThiNghiem.IdLoaiPhongThiNghiem = CSVC.tbPhongThiNghiem.IdLoaiPhongThiNghiem INNER JOIN                    DM.dmLinhVucNghienCuu ON CSVC.tbPhongThiNghiem.IdLinhVuc = DM.dmLinhVucNghienCuu.IdLinhVucNghienCuu INNER JOIN                    CSVC.tbCongTrinhCoSoVatChat ON CSVC.tbPhongThiNghiem.IdCongTrinhCSVC = CSVC.tbCongTrinhCoSoVatChat.IdCongTrinhCoSoVatChat</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [CSVC].vPhongThucHanh  AS  SELECT CSVC.tbCongTrinhCoSoVatChat.MaCongTrinh, DM.dmLinhVucNghienCuu.LinhVucNghienCuu, CSVC.tbPhongThucHanh.MucDoDapUngNhuCauNCKH, CSVC.tbPhongThucHanh.NamDuaVaoSuDung  FROM     DM.dmLinhVucNghienCuu INNER JOIN                    CSVC.tbPhongThucHanh ON DM.dmLinhVucNghienCuu.IdLinhVucNghienCuu = CSVC.tbPhongThucHanh.IdLinhVuc INNER JOIN                    CSVC.tbCongTrinhCoSoVatChat ON CSVC.tbPhongThucHanh.IdCongTrinhCSVC = CSVC.tbCongTrinhCoSoVatChat.IdCongTrinhCoSoVatChat</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [CSVC].vThietBiPTN_THTren500Tr  AS  SELECT CSVC.tbThietBiPTN_THTren500Tr.MaThietBi, CSVC.tbCongTrinhCoSoVatChat.MaCongTrinh, CSVC.tbThietBiPTN_THTren500Tr.TenThietBi, CSVC.tbThietBiPTN_THTren500Tr.NamSanXuat, DM.dmQuocTich.TenNuoc,                     CSVC.tbThietBiPTN_THTren500Tr.HangSanXuat, CSVC.tbThietBiPTN_THTren500Tr.SoLuongThietBiCungLoai, CSVC.tbThietBiPTN_THTren500Tr.NamDuaVaoSuDung  FROM     DM.dmQuocTich INNER JOIN                    CSVC.tbThietBiPTN_THTren500Tr ON DM.dmQuocTich.IdQuocTich = CSVC.tbThietBiPTN_THTren500Tr.IdQuocGiaXuatXu INNER JOIN                    CSVC.tbCongTrinhCoSoVatChat ON CSVC.tbThietBiPTN_THTren500Tr.IdCongTrinhCSVC = CSVC.tbCongTrinhCoSoVatChat.IdCongTrinhCoSoVatChat</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [CSVC].vThuVienTrungTamHocLieu  AS  SELECT CSVC.tbThuVienTrungTamHocLieu.MaThuVienTrungTamHocLieu, CSVC.tbThuVienTrungTamHocLieu.TenThuVienTrungTamHocLieu, CSVC.tbThuVienTrungTamHocLieu.NamDuaVaoSuDung, CSVC.tbThuVienTrungTamHocLieu.DienTich,                     CSVC.tbThuVienTrungTamHocLieu.DienTichPhongDoc, CSVC.tbThuVienTrungTamHocLieu.SoPhongDoc, CSVC.tbThuVienTrungTamHocLieu.SoLuongMayTinh, CSVC.tbThuVienTrungTamHocLieu.SoLuongChoNgoi,                     CSVC.tbThuVienTrungTamHocLieu.SoLuongSach, CSVC.tbThuVienTrungTamHocLieu.SoLuongTapChi, CSVC.tbThuVienTrungTamHocLieu.SoLuongSachDienTu, CSVC.tbThuVienTrungTamHocLieu.SoLuongTapChiDienTu,                     CSVC.tbThuVienTrungTamHocLieu.SoLuonngThuVienDienTuLienKetNN, DM.dmTinhTrangCoSoVatChat.TinhTrangCoSoVatChat, DM.dmHinhThucSoHuu.HinhThucSoHuu, CSVC.tbThuVienTrungTamHocLieu.SoLuongDauSach,                     CSVC.tbThuVienTrungTamHocLieu.SoLuongDauTapChi, CSVC.tbThuVienTrungTamHocLieu.SoLuongDauSachDienTu, CSVC.tbThuVienTrungTamHocLieu.SoLuongDauTapChiDienTu  FROM     DM.dmHinhThucSoHuu INNER JOIN                    CSVC.tbThuVienTrungTamHocLieu ON DM.dmHinhThucSoHuu.IdHinhThucSoHuu = CSVC.tbThuVienTrungTamHocLieu.IdHinhThucSoHuu INNER JOIN                    DM.dmTinhTrangCoSoVatChat ON CSVC.tbThuVienTrungTamHocLieu.IdTinhTrangCSVC = DM.dmTinhTrangCoSoVatChat.IdTinhTrangCoSoVatChat</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [CTDT].vChuongTrinhDaoTao  AS  SELECT DM.dmNganhDaoTao.NganhDaoTao, CTDT.tbChuongTrinhDaoTao.MaChuongTrinhDaoTao, CTDT.tbChuongTrinhDaoTao.TenChuongTrinh, CTDT.tbChuongTrinhDaoTao.TenChuongTrinhBangTiengAnh,                     CTDT.tbChuongTrinhDaoTao.NamBatDauTuyenSinh, CTDT.tbChuongTrinhDaoTao.TenCoSoDaoTaoNuocNgoai, DM.dmLoaiChuongTrinhDaoTao.LoaiChuongTrinhDaoTao,                     DM.dmLoaiChuongTrinhLienKetDaoTao.LoaiChuongTrinhLienKetDaoTao, CTDT.tbChuongTrinhDaoTao.DiaDiemDaoTao, DM.dmHocCheDaoTao.HocCheDaoTao, DM.dmQuocTich.TenNuoc,                     CTDT.tbChuongTrinhDaoTao.NgayBanHanhChuanDauRa, DM.dmTrinhDoDaoTao.TrinhDoDaoTao, CTDT.tbChuongTrinhDaoTao.ThoiGianDaoTaoChuan, CTDT.tbChuongTrinhDaoTao.ChuanDauRa, DM.dmDonViCapBang.DonViCapBang,                     CTDT.tbChuongTrinhDaoTao.LoaiChungChiDuocChapThuan, CTDT.tbChuongTrinhDaoTao.DonViThucHienChuongTrinh, DM.dmTrangThaiChuongTrinhDaoTao.TrangThaiChuongTrinhDaoTao,                     CTDT.tbChuongTrinhDaoTao.ChuanDauRaVeNgoaiNgu, CTDT.tbChuongTrinhDaoTao.ChuanDauRaVeTinHoc, CTDT.tbChuongTrinhDaoTao.HocPhiTaiVietNam, CTDT.tbChuongTrinhDaoTao.HocPhiTaiNuocNgoai  FROM     DM.dmNganhDaoTao INNER JOIN                    CTDT.tbChuongTrinhDaoTao ON DM.dmNganhDaoTao.IdNganhDaoTao = CTDT.tbChuongTrinhDaoTao.IdNganhDaoTao INNER JOIN                    DM.dmLoaiChuongTrinhDaoTao ON CTDT.tbChuongTrinhDaoTao.IdLoaiChuongTrinhDaoTao = DM.dmLoaiChuongTrinhDaoTao.IdLoaiChuongTrinhDaoTao INNER JOIN                    DM.dmLoaiChuongTrinhLienKetDaoTao ON CTDT.tbChuongTrinhDaoTao.IdLoaiChuongTrinhLienKetDaoTao = DM.dmLoaiChuongTrinhLienKetDaoTao.IdLoaiChuongTrinhLienKetDaoTao INNER JOIN                    DM.dmHocCheDaoTao ON CTDT.tbChuongTrinhDaoTao.IdHocCheDaoTao = DM.dmHocCheDaoTao.IdHocCheDaoTao INNER JOIN                    DM.dmQuocTich ON CTDT.tbChuongTrinhDaoTao.IdQuocGiaCuaTruSoChinh = DM.dmQuocTich.IdQuocTich INNER JOIN                    DM.dmTrinhDoDaoTao ON CTDT.tbChuongTrinhDaoTao.IdTrinhDoDaoTao = DM.dmTrinhDoDaoTao.IdTrinhDoDaoTao INNER JOIN                    DM.dmDonViCapBang ON CTDT.tbChuongTrinhDaoTao.IdDonViCapBang = DM.dmDonViCapBang.IdDonViCapBang INNER JOIN                    DM.dmTrangThaiChuongTrinhDaoTao ON CTDT.tbChuongTrinhDaoTao.IdTrangThaiCuaChuongTrinh = DM.dmTrangThaiChuongTrinhDaoTao.IdTrangThaiChuongTrinhDaoTao</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [CTDT].vGiaHanChuongTrinhDaoTao  AS  SELECT CTDT.tbChuongTrinhDaoTao.TenChuongTrinh, CTDT.tbChuongTrinhDaoTao.MaChuongTrinhDaoTao, CTDT.tbGiaHanChuongTrinhDaoTao.SoQuyetDinhGiaHan, CTDT.tbGiaHanChuongTrinhDaoTao.NgayBanHanhVanBanGiaHan,                     CTDT.tbGiaHanChuongTrinhDaoTao.GiaHanLanThu  FROM     CTDT.tbChuongTrinhDaoTao INNER JOIN                    CTDT.tbGiaHanChuongTrinhDaoTao ON CTDT.tbChuongTrinhDaoTao.IdChuongTrinhDaoTao = CTDT.tbGiaHanChuongTrinhDaoTao.IdChuongTrinhDaoTao</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [CTDT].vNamApdungChuongTrinh  AS  SELECT CTDT.tbChuongTrinhDaoTao.TenChuongTrinh, CTDT.tbChuongTrinhDaoTao.MaChuongTrinhDaoTao, CTDT.tbNamApDungChuongTrinh.SoTinChiToiThieuDeTotNghiep, CTDT.tbNamApDungChuongTrinh.TongHocPhiToanKhoa,                     CTDT.tbNamApDungChuongTrinh.NamApDung, CTDT.tbNamApDungChuongTrinh.ChiTieuTuyenSinhHangNam  FROM     CTDT.tbNamApDungChuongTrinh INNER JOIN                    CTDT.tbChuongTrinhDaoTao ON CTDT.tbNamApDungChuongTrinh.IdChuongTrinhDaoTao = CTDT.tbChuongTrinhDaoTao.IdChuongTrinhDaoTao</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [CTDT].vNgonNguGiangDay  AS  SELECT CTDT.tbChuongTrinhDaoTao.TenChuongTrinh, CTDT.tbChuongTrinhDaoTao.MaChuongTrinhDaoTao, DM.dmNgoaiNgu.NgoaiNgu, DM.dmKhungNangLucNgoaiNgu.TenKhungNangLucNgoaiNgu  FROM     CTDT.tbChuongTrinhDaoTao INNER JOIN                    CTDT.tbNgonNguGiangDay ON CTDT.tbChuongTrinhDaoTao.IdChuongTrinhDaoTao = CTDT.tbNgonNguGiangDay.IdChuongTrinhDaoTao INNER JOIN                    DM.dmKhungNangLucNgoaiNgu ON CTDT.tbNgonNguGiangDay.IdTrinhDoNgonNguDauVao = DM.dmKhungNangLucNgoaiNgu.IdKhungNangLucNgoaiNgu INNER JOIN                    DM.dmNgoaiNgu ON CTDT.tbNgonNguGiangDay.IdNgonNgu = DM.dmNgoaiNgu.IdNgoaiNgu</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [CTDT].vQuyetDinhCapPhepChuongTrinhDungChoChuongTrinhNuocNgoai  AS  SELECT CTDT.tbChuongTrinhDaoTao.TenChuongTrinh, CTDT.tbChuongTrinhDaoTao.MaChuongTrinhDaoTao, DM.dmLoaiQuyetDinh.LoaiQuyetDinh, CTDT.tbQuyetDinhCapPhepChuongTrinhDungChoChuongTrinhNuocNgoai.SoQuyetDinh,                     CTDT.tbQuyetDinhCapPhepChuongTrinhDungChoChuongTrinhNuocNgoai.NgayBanHanhQuyetDinh, DM.dmHinhThucDaoTao.HinhThucDaoTao  FROM     CTDT.tbChuongTrinhDaoTao INNER JOIN                    CTDT.tbQuyetDinhCapPhepChuongTrinhDungChoChuongTrinhNuocNgoai ON                     CTDT.tbChuongTrinhDaoTao.IdChuongTrinhDaoTao = CTDT.tbQuyetDinhCapPhepChuongTrinhDungChoChuongTrinhNuocNgoai.IdChuongTrinhDaoTao INNER JOIN                    DM.dmLoaiQuyetDinh ON CTDT.tbQuyetDinhCapPhepChuongTrinhDungChoChuongTrinhNuocNgoai.IdLoaiQuyetDinh = DM.dmLoaiQuyetDinh.IdLoaiQuyetDinh INNER JOIN                    DM.dmHinhThucDaoTao ON CTDT.tbQuyetDinhCapPhepChuongTrinhDungChoChuongTrinhNuocNgoai.IdHinhThucDaoTao = DM.dmHinhThucDaoTao.IdHinhThucDaoTao</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [CTDT].vThongTinKiemDinhCuaChuongTrinh  AS  SELECT CTDT.tbChuongTrinhDaoTao.TenChuongTrinh, CTDT.tbChuongTrinhDaoTao.MaChuongTrinhDaoTao, DM.dmToChucKiemDinh.ToChucKiemDinh, DM.dmKetQuaKiemDinh.KetQuaKiemDinh,                     CTDT.tbThongTinKiemDinhCuaChuongTrinh.SoQuyetDinh, CTDT.tbThongTinKiemDinhCuaChuongTrinh.NgayCapChungNhanKiemDinh, CTDT.tbThongTinKiemDinhCuaChuongTrinh.ThoiHanKiemDinh  FROM     CTDT.tbChuongTrinhDaoTao INNER JOIN                    CTDT.tbThongTinKiemDinhCuaChuongTrinh ON CTDT.tbChuongTrinhDaoTao.IdChuongTrinhDaoTao = CTDT.tbThongTinKiemDinhCuaChuongTrinh.IdChuongTrinhDaoTao INNER JOIN                    DM.dmToChucKiemDinh ON CTDT.tbThongTinKiemDinhCuaChuongTrinh.IdToChucKiemDinh = DM.dmToChucKiemDinh.IdToChucKiemDinh INNER JOIN                    DM.dmKetQuaKiemDinh ON CTDT.tbThongTinKiemDinhCuaChuongTrinh.IdKetQuaKiemDinh = DM.dmKetQuaKiemDinh.IdKetQuaKiemDinh</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [HTDN].vToChucHopTacDoanhNghiep  AS  SELECT HTDN.tbToChucHopTacDoanhNghiep.MaToChucHopTacDoanhNghiep, HTDN.tbToChucHopTacDoanhNghiep.TenToChucHopTacDoanhNghiep, HTDN.tbToChucHopTacDoanhNghiep.NoiDungHopTac,                     HTDN.tbToChucHopTacDoanhNghiep.NgayKyKet, HTDN.tbToChucHopTacDoanhNghiep.KetQuaHopTac, DM.dmLoaiDeAnChuongTrinh.LoaiDeAnChuongTrinh, HTDN.tbToChucHopTacDoanhNghiep.GiaTriGiaoDichCuaThiTruong  FROM     DM.dmLoaiDeAnChuongTrinh INNER JOIN                    HTDN.tbToChucHopTacDoanhNghiep ON DM.dmLoaiDeAnChuongTrinh.IdLoaiDeAnChuongTrinh = HTDN.tbToChucHopTacDoanhNghiep.IdLoaiDeAn</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [HTQT].vDeAnDuAnChuongTrinh  AS  SELECT HTQT.tbDeAnDuAnChuongTrinh.MaDeAnDuAnChuongTrinh, HTQT.tbDeAnDuAnChuongTrinh.TenDeAnDuAnChuongTrinh, HTQT.tbDeAnDuAnChuongTrinh.NoiDungTomTat, HTQT.tbDeAnDuAnChuongTrinh.MucTieu,                     HTQT.tbDeAnDuAnChuongTrinh.ThoiGianHopTacTu, HTQT.tbDeAnDuAnChuongTrinh.ThoiGianHopTacDen, HTQT.tbDeAnDuAnChuongTrinh.TongKinhPhi, DM.dmNguonKinhPhiChoDeAn.NguonKinhPhiChoDeAn  FROM     DM.dmNguonKinhPhiChoDeAn INNER JOIN                    HTQT.tbDeAnDuAnChuongTrinh ON DM.dmNguonKinhPhiChoDeAn.IdNguonKinhPhiChoDeAn = HTQT.tbDeAnDuAnChuongTrinh.IdNguonKinhPhiDeAnDuAnChuongTrinh</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [HTQT].vDoanCongTac  AS  SELECT HTQT.tbDoanCongTac.MaDoanCongTac, DM.dmPhanLoaiDoanRaDoanVao.PhanLoaiDoanRaDoanVao, HTQT.tbDoanCongTac.TenDoanCongTac, HTQT.tbDoanCongTac.SoQuyetDinh, HTQT.tbDoanCongTac.NgayQuyetDinh,                     DM.dmQuocTich.TenNuoc, HTQT.tbDoanCongTac.ThoiGianBatDau, HTQT.tbDoanCongTac.ThoiGianketThuc, HTQT.tbDoanCongTac.MucDichCongTac, HTQT.tbDoanCongTac.KetQuaCongTac  FROM     DM.dmPhanLoaiDoanRaDoanVao INNER JOIN                    HTQT.tbDoanCongTac ON DM.dmPhanLoaiDoanRaDoanVao.IdPhanLoaiDoanRaDoanVao = HTQT.tbDoanCongTac.IdPhanLoaiDoanRaDoanVao INNER JOIN                    DM.dmQuocTich ON HTQT.tbDoanCongTac.IdQuocGiaDoan = DM.dmQuocTich.IdQuocTich</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [HTQT].vGVDuocCuDiDaoTao  AS  SELECT CB.tbCanBo.MaCanBo, DM.dmHinhThucThamGiaGVDuocCuDiDaoTao.HinhThucThamGiaGVDuocCuDiDaoTao, DM.dmQuocTich.TenNuoc, HTQT.tbGVDuocCuDiDaoTao.TenCoSoGiaoDucThamGiaONN,                     HTQT.tbGVDuocCuDiDaoTao.ThoiGianBatDau, HTQT.tbGVDuocCuDiDaoTao.ThoiGianKetThuc, DM.dmTinhTrangGiangVienDuocCuDiDaoTao.TinhTrangGiangVienDuocCuDiDaoTao,                     DM.dmNguonKinhPhiCuaGVDuocCuDiDaoTao.NguonKinhPhiCuaGVDuocCuDiDaoTao  FROM     DM.dmHinhThucThamGiaGVDuocCuDiDaoTao INNER JOIN                    HTQT.tbGVDuocCuDiDaoTao ON DM.dmHinhThucThamGiaGVDuocCuDiDaoTao.IdHinhThucThamGiaGVDuocCuDiDaoTao = HTQT.tbGVDuocCuDiDaoTao.IdHinhThucThamGiaGVDuocCuDiDaoTao INNER JOIN                    DM.dmQuocTich ON HTQT.tbGVDuocCuDiDaoTao.IdQuocGiaDen = DM.dmQuocTich.IdQuocTich INNER JOIN                    CB.tbCanBo ON HTQT.tbGVDuocCuDiDaoTao.IdCanBo = CB.tbCanBo.IdCanBo INNER JOIN                    DM.dmNguonKinhPhiCuaGVDuocCuDiDaoTao ON HTQT.tbGVDuocCuDiDaoTao.IdNguonKinhPhiCuaGV = DM.dmNguonKinhPhiCuaGVDuocCuDiDaoTao.IdNguonKinhPhiCuaGVDuocCuDiDaoTao INNER JOIN                    DM.dmTinhTrangGiangVienDuocCuDiDaoTao ON HTQT.tbGVDuocCuDiDaoTao.IdTinhTrangGVDuocCuDiDaoTao = DM.dmTinhTrangGiangVienDuocCuDiDaoTao.IdTinhTrangGiangVienDuocCuDiDaoTao</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [HTQT].vHoiThaoHoiNghi  AS  SELECT HTQT.tbHoiThaoHoiNghi.MaHoiThaoHoiNghi, HTQT.tbHoiThaoHoiNghi.TenHoiThaoHoiNghi, HTQT.tbHoiThaoHoiNghi.CoQuanCoThamQuyenCapPhep, HTQT.tbHoiThaoHoiNghi.MucTieu, HTQT.tbHoiThaoHoiNghi.NoiDung,                     HTQT.tbHoiThaoHoiNghi.SoLuongDaiBieuThamDu, HTQT.tbHoiThaoHoiNghi.SoLuongDaiBieuQuocTeThamDu, HTQT.tbHoiThaoHoiNghi.ThoiGianToChuc, HTQT.tbHoiThaoHoiNghi.DiaDiemToChuc, DM.dmNguonKinhPhi.NguonKinhPhi,                     HTQT.tbHoiThaoHoiNghi.DonViChuTri  FROM     DM.dmNguonKinhPhi INNER JOIN                    HTQT.tbHoiThaoHoiNghi ON DM.dmNguonKinhPhi.IdNguonKinhPhi = HTQT.tbHoiThaoHoiNghi.IdNguonKinhPhiHoiThao</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [HTQT].vLuuHocSinhSinhVienNN  AS  SELECT HTQT.tbLuuHocSinhSinhVienNN.IdNguoiHoc, DM.dmNguonKinhPhiChoLuuHocSinh.NguonKinhPhiChoLuuHocSinh, DM.dmLoaiLuuHocSinh.LoaiLuuHocSinh  FROM     DM.dmNguonKinhPhiChoLuuHocSinh INNER JOIN                    HTQT.tbLuuHocSinhSinhVienNN ON DM.dmNguonKinhPhiChoLuuHocSinh.IdNguonKinhPhiChoLuuHocSinh = HTQT.tbLuuHocSinhSinhVienNN.IdNguonKinhPhiLuuHocSinh INNER JOIN                    DM.dmLoaiLuuHocSinh ON HTQT.tbLuuHocSinhSinhVienNN.IdLoaiLuuHocSinh = DM.dmLoaiLuuHocSinh.IdLoaiLuuHocSinh</t>
+  </si>
+  <si>
+    <t>sys</t>
+  </si>
+  <si>
+    <t>database_firewall_rules</t>
+  </si>
+  <si>
+    <t>CREATE VIEW sys.database_firewall_rules AS SELECT id, name, start_ip_address, end_ip_address, create_date, modify_date FROM sys.database_firewall_rules_table</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [HTQT].vThanhPhanThamGiaDoanCongTac  AS  SELECT HTQT.tbDoanCongTac.MaDoanCongTac, CB.tbCanBo.MaCanBo, DM.dmVaiTroThamGia.VaiTroThamGia  FROM     DM.dmVaiTroThamGia INNER JOIN                    HTQT.tbThanhPhanThamGiaDoanCongTac ON DM.dmVaiTroThamGia.IdVaiTroThamGia = HTQT.tbThanhPhanThamGiaDoanCongTac.IdVaiTroThamGia INNER JOIN                    CB.tbCanBo ON HTQT.tbThanhPhanThamGiaDoanCongTac.IdCanBo = CB.tbCanBo.IdCanBo INNER JOIN                    HTQT.tbDoanCongTac ON HTQT.tbThanhPhanThamGiaDoanCongTac.IdDoanCongTac = HTQT.tbDoanCongTac.IdDoanCongTac</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [HTQT].vThoaThuanHopTacQuocTe  AS  SELECT HTQT.tbThoaThuanHopTacQuocTe.MaThoaThuan, HTQT.tbThoaThuanHopTacQuocTe.TenThoaThuan, HTQT.tbThoaThuanHopTacQuocTe.NoiDungTomTat, HTQT.tbThoaThuanHopTacQuocTe.TenToChuc,                     HTQT.tbThoaThuanHopTacQuocTe.NgayKyKet, HTQT.tbThoaThuanHopTacQuocTe.SoVanBanKyKet, DM.dmQuocTich.TenNuoc, HTQT.tbThoaThuanHopTacQuocTe.NgayHetHan  FROM     DM.dmQuocTich INNER JOIN                    HTQT.tbThoaThuanHopTacQuocTe ON DM.dmQuocTich.IdQuocTich = HTQT.tbThoaThuanHopTacQuocTe.IdQuocGia</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [HTQT].vThongTinHopTac  AS  SELECT HTQT.tbToChucHopTacQuocTe.MaHopTac, HTQT.tbThongTinHopTac.ThoiGianHopTacTu, HTQT.tbThongTinHopTac.ThoiGianHopTacDen, HTQT.tbThongTinHopTac.TenThoaThuan, HTQT.tbThongTinHopTac.ThongTinLienHeDoiTac,                     HTQT.tbThongTinHopTac.MucTieu, HTQT.tbThongTinHopTac.DonViTrienKhai, DM.dmHinhThucHopTac.HinhThucHopTac, HTQT.tbThongTinHopTac.SanPhamChinh  FROM     DM.dmHinhThucHopTac INNER JOIN                    HTQT.tbThongTinHopTac ON DM.dmHinhThucHopTac.IdHinhThucHopTac = HTQT.tbThongTinHopTac.IdHinhThucHopTac INNER JOIN                    HTQT.tbToChucHopTacQuocTe ON HTQT.tbThongTinHopTac.IdToChucHopTac = HTQT.tbToChucHopTacQuocTe.IdToChucHopTacQuocTe</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [HTQT].vToChucHopTacQuocTe  AS  SELECT HTQT.tbToChucHopTacQuocTe.MaHopTac, HTQT.tbToChucHopTacQuocTe.TenToChuc, DM.dmQuocTich.TenNuoc, HTQT.tbToChucHopTacQuocTe.NoiDung, HTQT.tbToChucHopTacQuocTe.ThoiGianKyKet,                     HTQT.tbToChucHopTacQuocTe.KetQuaHopTac, HTQT.tbToChucHopTacQuocTe.LoaiToChuc  FROM     HTQT.tbToChucHopTacQuocTe INNER JOIN                    DM.dmQuocTich ON HTQT.tbToChucHopTacQuocTe.IdQuocGia = DM.dmQuocTich.IdQuocTich</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [KHCN].vBaiBaoKHDaCongBo  AS  SELECT KHCN.tbNhiemVuKHCN.MaNhiemVu, KHCN.tbBaiBaoKHDaCongBo.MaBaiBaoKH, KHCN.tbBaiBaoKHDaCongBo.TenBaiBaoKH, KHCN.tbBaiBaoKHDaCongBo.TenTapChi, DM.dmTapChiTrongNuoc.TapChiTrongNuoc,                     DM.dmTapChiKhoaHocQuocTe.TapChiKhoaHocQuocTe, DM.dmXepHangQ.XepHangQ, KHCN.tbBaiBaoKHDaCongBo.GhiChuDuongDanBaiBao, KHCN.tbBaiBaoKHDaCongBo.TapSo, KHCN.tbBaiBaoKHDaCongBo.Trang,                     KHCN.tbBaiBaoKHDaCongBo.NamCongBo  FROM     DM.dmTapChiKhoaHocQuocTe INNER JOIN                    KHCN.tbBaiBaoKHDaCongBo ON DM.dmTapChiKhoaHocQuocTe.IdTapChiKhoaHocQuocTe = KHCN.tbBaiBaoKHDaCongBo.IdTapChiQuocTe INNER JOIN                    DM.dmTapChiTrongNuoc ON KHCN.tbBaiBaoKHDaCongBo.IdTapChiTrongNuoc = DM.dmTapChiTrongNuoc.IdTapChiTrongNuoc INNER JOIN                    DM.dmXepHangQ ON KHCN.tbBaiBaoKHDaCongBo.IdXepHangQ = DM.dmXepHangQ.IdXepHangQ INNER JOIN                    KHCN.tbNhiemVuKHCN ON KHCN.tbBaiBaoKHDaCongBo.IdNhiemVuKHCN = KHCN.tbNhiemVuKHCN.IdNhiemVuKHCN</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [KHCN].vChuyenGiaoCongNgheVaDaoTao  AS  SELECT KHCN.tbNhiemVuKHCN.MaNhiemVu, KHCN.tbChuyenGiaoCongNgheVaDaoTao.MaSoHopDong, KHCN.tbChuyenGiaoCongNgheVaDaoTao.Ten, KHCN.tbChuyenGiaoCongNgheVaDaoTao.TongChiPhiThucHien,                     KHCN.tbChuyenGiaoCongNgheVaDaoTao.TongThoiGianThucHien, DM.dmHinhThucChuyenGiaoCongNghe.HinhThucChuyenGiaoCongNghe, KHCN.tbChuyenGiaoCongNgheVaDaoTao.PhuongThucChuyenGiaoCongNghe,                     KHCN.tbChuyenGiaoCongNgheVaDaoTao.ChuSoHuu, KHCN.tbChuyenGiaoCongNgheVaDaoTao.DonViChuTri, KHCN.tbChuyenGiaoCongNgheVaDaoTao.DonViPhoiHop, KHCN.tbChuyenGiaoCongNgheVaDaoTao.DonViNhanChuyenGiao,                     KHCN.tbChuyenGiaoCongNgheVaDaoTao.TomTat, KHCN.tbChuyenGiaoCongNgheVaDaoTao.TenDuAn, KHCN.tbChuyenGiaoCongNgheVaDaoTao.GiaTriHopDong, DM.dmNganhKinhTe.NganhKinhTe,                     DM.dmTrangThaiHopDong.TrangThaiHopDong, KHCN.tbChuyenGiaoCongNgheVaDaoTao.SoNguoiDuocDaoTaoChuyenGiaoCN, DM.dmLinhVucNghienCuu.LinhVucNghienCuu  FROM     DM.dmHinhThucChuyenGiaoCongNghe INNER JOIN                    KHCN.tbChuyenGiaoCongNgheVaDaoTao ON DM.dmHinhThucChuyenGiaoCongNghe.IdHinhThucChuyenGiaoCongNghe = KHCN.tbChuyenGiaoCongNgheVaDaoTao.IdHinhThucChuyenGiaoCongNghe INNER JOIN                    DM.dmLinhVucNghienCuu ON KHCN.tbChuyenGiaoCongNgheVaDaoTao.IdLinhVucNghienCuu = DM.dmLinhVucNghienCuu.IdLinhVucNghienCuu INNER JOIN                    DM.dmNganhKinhTe ON KHCN.tbChuyenGiaoCongNgheVaDaoTao.IdNganhKinhTe = DM.dmNganhKinhTe.IdNganhKinhTe INNER JOIN                    DM.dmTrangThaiHopDong ON KHCN.tbChuyenGiaoCongNgheVaDaoTao.IdTrangThaiHopDong = DM.dmTrangThaiHopDong.IdTrangThaiHopDong INNER JOIN                    KHCN.tbNhiemVuKHCN ON KHCN.tbChuyenGiaoCongNgheVaDaoTao.IdNhiemVuKHCN = KHCN.tbNhiemVuKHCN.IdNhiemVuKHCN AND DM.dmLinhVucNghienCuu.IdLinhVucNghienCuu = KHCN.tbNhiemVuKHCN.IdLinhVucNghienCuu</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [KHCN].vDoanhNghiepKHCN  AS  SELECT KHCN.tbDoanhNghiepKHCN.MaDoanhNghiep, KHCN.tbDoanhNghiepKHCN.TenDoanhNghiep, DM.dmHinhThucDoanhNghiepKHCN.HinhThucDoanhNghiepKHCN, KHCN.tbDoanhNghiepKHCN.DiaDiemThanhLap,                     KHCN.tbDoanhNghiepKHCN.QuyMoDauTu, KHCN.tbDoanhNghiepKHCN.KinhPhiGopVonTuTaiSanTriTue, KHCN.tbDoanhNghiepKHCN.TyLeGopVonCuaCSGDDH  FROM     DM.dmHinhThucDoanhNghiepKHCN INNER JOIN                    KHCN.tbDoanhNghiepKHCN ON DM.dmHinhThucDoanhNghiepKHCN.IdHinhThucDoanhNghiepKHCN = KHCN.tbDoanhNghiepKHCN.IdHinhThucDoanhNghiepKHCN</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [KHCN].vDoiTuongThamGia  AS  SELECT DM.dmLoaiThamGia.LoaiThamGia, KHCN.tbDoiTuongThamGia.MaLoaiThamGia, dbo.tbNguoi.SoCCCD, DM.dmVaiTroThamGia.VaiTroThamGia, DM.dmPhanLoaiDoiNguNguoiHoc.PhanLoaiDoiNguNguoiHoc  FROM     DM.dmLoaiThamGia INNER JOIN                    KHCN.tbDoiTuongThamGia ON DM.dmLoaiThamGia.IdLoaiThamGia = KHCN.tbDoiTuongThamGia.IdLoaiThamGia INNER JOIN                    DM.dmVaiTroThamGia ON KHCN.tbDoiTuongThamGia.IdVaiTro = DM.dmVaiTroThamGia.IdVaiTroThamGia INNER JOIN                    DM.dmPhanLoaiDoiNguNguoiHoc ON KHCN.tbDoiTuongThamGia.IdPhanLoai = DM.dmPhanLoaiDoiNguNguoiHoc.IdPhanLoaiDoiNguNguoiHoc INNER JOIN                    dbo.tbNguoi ON KHCN.tbDoiTuongThamGia.IdNguoi = dbo.tbNguoi.IdNguoi</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [KHCN].vGiaiThuongKhoaHoc  AS  SELECT KHCN.tbGiaiThuongKhoaHoc.MaGiaiThuong, DM.dmLoaiGiaiThuongKHCN.LoaiGiaiThuongKHCN, KHCN.tbGiaiThuongKhoaHoc.CoQuanToChucGiaiThuong, KHCN.tbGiaiThuongKhoaHoc.TenDeTaiDuocTraoGiai,                     KHCN.tbGiaiThuongKhoaHoc.TenDonViDuocTraoGiai, DM.dmMucGiaiThuong.MucGiaiThuong, KHCN.tbGiaiThuongKhoaHoc.QuyetDinhCapBangKhen, KHCN.tbGiaiThuongKhoaHoc.CoQuanBanHanhQuyetDinh  FROM     DM.dmLoaiGiaiThuongKHCN INNER JOIN                    KHCN.tbGiaiThuongKhoaHoc ON DM.dmLoaiGiaiThuongKHCN.IdLoaiGiaiThuongKHCN = KHCN.tbGiaiThuongKhoaHoc.IdLoaiGiaiThuong INNER JOIN                    DM.dmMucGiaiThuong ON KHCN.tbGiaiThuongKhoaHoc.IdMucGiaiThuong = DM.dmMucGiaiThuong.IdMucGiaiThuong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE VIEW [KHCN].vHoatDongBaoVeMoiTruong  AS  SELECT KHCN.tbNhiemVuKHCN.MaNhiemVu, KHCN.tbHoatDongBaoVeMoiTruong.TenNhiemVuBVMT, DM.dmPhanCapNhiemVu.PhanCapNhiemVu, DM.dmCoQuanChuQuan.CoQuanChuQuan, KHCN.tbHoatDongBaoVeMoiTruong.CoQuanChuTri,                     DM.dmLoaiNhiemVuBaoVeMoiTruong.LoaiNhiemVuBaoVeMoiTruong, KHCN.tbHoatDongBaoVeMoiTruong.TongKinhPhiCuaNhiemVu, DM.dmNguonKinhPhi.NguonKinhPhi, KHCN.tbHoatDongBaoVeMoiTruong.ThoiGianBatDau,                     KHCN.tbHoatDongBaoVeMoiTruong.ThoiGianKetThuc, KHCN.tbHoatDongBaoVeMoiTruong.DanhGiaKetQuaNhiemVu, KHCN.tbHoatDongBaoVeMoiTruong.SanPhamChinhCuaNhiemVu,                     KHCN.tbHoatDongBaoVeMoiTruong.DonViThucHienLuuTruSanPham, DM.dmTinhTrangNhiemVu.TinhTrangNhiemVu  FROM     DM.dmCoQuanChuQuan INNER JOIN                    KHCN.tbHoatDongBaoVeMoiTruong ON DM.dmCoQuanChuQuan.IdCoQuanChuQuan = KHCN.tbHoatDongBaoVeMoiTruong.IdCoQuanChuQuan INNER JOIN                    DM.dmLoaiNhiemVuBaoVeMoiTruong ON KHCN.tbHoatDongBaoVeMoiTruong.IdLoaiNhiemVuBaoVeMoiTruong = DM.dmLoaiNhiemVuBaoVeMoiTruong.IdLoaiNhiemVuBaoVeMoiTruong INNER JOIN                    DM.dmNguonKinhPhi ON KHCN.tbHoatDongBaoVeMoiTruong.IdNguonKinhPhi = DM.dmNguonKinhPhi.IdNguonKinhPhi INNER JOIN                    DM.dmPhanCapNhiemVu ON KHCN.tbHoatDongBaoVeMoiTruong.IdCapQuanLyNhiemVu = DM.dmPhanCapNhiemVu.IdPhanCapNhiemVu INNER JOIN                    DM.dmTinhTrangNhiemVu ON KHCN.tbHoatDongBaoVeMoiTruong.IdTinhTrangNhiemVu = DM.dmTinhTrangNhiemVu.IdTinhTrangNhiemVu INNER JOIN                    KHCN.tbNhiemVuKHCN ON DM.dmCoQuanChuQuan.IdCoQuanChuQuan = KHCN.tbNhiemVuKHCN.IdCoQuanChuQuan AND DM.dmCoQuanChuQuan.IdCoQuanChuQuan = KHCN.tbNhiemVuKHCN.IdCoQuanChuQuan AND                     DM.dmCoQuanChuQuan.IdCoQuanChuQuan = KHCN.tbNhiemVuKHCN.IdCoQuanChuQuan AND DM.dmCoQuanChuQuan.IdCoQuanChuQuan = KHCN.tbNhiemVuKHCN.IdCoQuanChuQuan AND                     DM.dmCoQuanChuQuan.IdCoQuanChuQuan = KHCN.tbNhiemVuKHCN.IdCoQuanChuQuan AND DM.dmCoQuanChuQuan.IdCoQuanChuQuan = KHCN.tbNhiemVuKHCN.IdCoQuanChuQuan AND                     DM.dmCoQuanChuQuan.IdCoQuanChuQuan = KHCN.tbNhiemVuKHCN.IdCoQuanChuQuan AND DM.dmCoQuanChuQuan.IdCoQuanChuQuan = KHCN.tbNhiemVuKHCN.IdCoQuanChuQuan AND                     KHCN.tbHoatDongBaoVeMoiTruong.IdNhiemVuKHCN = KHCN.tbNhiemVuKHCN.IdNhiemVuKHCN AND DM.dmNguonKinhPhi.IdNguonKinhPhi = KHCN.tbNhiemVuKHCN.IdNguonKinhPhi AND                     DM.dmNguonKinhPhi.IdNguonKinhPhi = KHCN.tbNhiemVuKHCN.IdNguonKinhPhi AND DM.dmNguonKinhPhi.IdNguonKinhPhi = KHCN.tbNhiemVuKHCN.IdNguonKinhPhi AND                     DM.dmNguonKinhPhi.IdNguonKinhPhi = KHCN.tbNhiemVuKHCN.IdNguonKinhPhi AND DM.dmNguonKinhPhi.IdNguonKinhPhi = KHCN.tbNhiemVuKHCN.IdNguonKinhPhi AND                     DM.dmNguonKinhPhi.IdNguonKinhPhi = KHCN.tbNhiemVuKHCN.IdNguonKinhPhi AND DM.dmNguonKinhPhi.IdNguonKinhPhi = KHCN.tbNhiemVuKHCN.IdNguonKinhPhi AND                     DM.dmNguonKinhPhi.IdNguonKinhPhi = KHCN.tbNhiemVuKHCN.IdNguonKinhPhi AND DM.dmNguonKinhPhi.IdNguonKinhPhi = KHCN.tbNhiemVuKHCN.IdNguonKinhPhi AND                     DM.dmPhanCapNhiemVu.IdPhanCapNhiemVu = KHCN.tbNhiemVuKHCN.IdCapQuanLyNhiemVu AND DM.dmPhanCapNhiemVu.IdPhanCapNhiemVu = KHCN.tbNhiemVuKHCN.IdCapQuanLyNhiemVu AND                     DM.dmPhanCapNhiemVu.IdPhanCapNhiemVu = KHCN.tbNhiemVuKHCN.IdCapQuanLyNhiemVu AND DM.dmPhanCapNhiemVu.IdPhanCapNhiemVu = KHCN.tbNhiemVuKHCN.IdCapQuanLyNhiemVu AND                     DM.dmPhanCapNhiemVu.IdPhanCapNhiemVu = KHCN.tbNhiemVuKHCN.IdCapQuanLyNhiemVu AND DM.dmPhanCapNhiemVu.IdPhanCapNhiemVu = KHCN.tbNhiemVuKHCN.IdCapQuanLyNhiemVu AND                     DM.dmPhanCapNhiemVu.IdPhanCapNhiemVu = KHCN.tbNhiemVuKHCN.IdCapQuanLyNhiemVu AND DM.dmPhanCapNhiemVu.IdPhanCapNhiemVu = KHCN.tbNhiemVuKHCN.IdCapQuanLyNhiemVu AND                     DM.dmPhanCapNhiemVu.IdPhanCapNhiemVu = KHCN.tbNhiemVuKHCN.IdCapQuanLyNhiemVu AND DM.dmTinhTrangNhiemVu.IdTinhTrangNhiemVu = KHCN.tbNhiemVuKHCN.IdTinhTrangNhiemVu AND      </t>
+  </si>
+  <si>
+    <t>CREATE VIEW [KHCN].vNhiemVuKHCN  AS  SELECT KHCN.tbNhiemVuKHCN.MaNhiemVu, KHCN.tbNhiemVuKHCN.TenNhiemVu, DM.dmPhanCapNhiemVu.PhanCapNhiemVu, DM.dmCoQuanChuQuan.CoQuanChuQuan, KHCN.tbNhiemVuKHCN.CoQuanChuTri,                     KHCN.tbNhiemVuKHCN.NguoiChuTri, DM.dmLoaiNhiemVu.LoaiNhiemVu, KHCN.tbNhiemVuKHCN.ThuocNhiemVu, DM.dmLinhVucNghienCuu.LinhVucNghienCuu, KHCN.tbNhiemVuKHCN.TongKinhPhiCuaNhiemVu,                     DM.dmNguonKinhPhi.NguonKinhPhi, KHCN.tbNhiemVuKHCN.ThoiGianBatDau, KHCN.tbNhiemVuKHCN.ThoiGianKetThuc, KHCN.tbNhiemVuKHCN.DanhGiaKetQuaNhiemVu, KHCN.tbNhiemVuKHCN.SanPhamChinhCuaNhiemVu,                     DM.dmTinhTrangNhiemVu.TinhTrangNhiemVu  FROM     DM.dmPhanCapNhiemVu INNER JOIN                    KHCN.tbNhiemVuKHCN ON DM.dmPhanCapNhiemVu.IdPhanCapNhiemVu = KHCN.tbNhiemVuKHCN.IdCapQuanLyNhiemVu INNER JOIN                    DM.dmCoQuanChuQuan ON KHCN.tbNhiemVuKHCN.IdCoQuanChuQuan = DM.dmCoQuanChuQuan.IdCoQuanChuQuan INNER JOIN                    DM.dmLoaiNhiemVu ON KHCN.tbNhiemVuKHCN.IdPhanLoaiNhiemVu = DM.dmLoaiNhiemVu.IdLoaiNhiemVu INNER JOIN                    DM.dmLinhVucNghienCuu ON KHCN.tbNhiemVuKHCN.IdLinhVucNghienCuu = DM.dmLinhVucNghienCuu.IdLinhVucNghienCuu INNER JOIN                    DM.dmNguonKinhPhi ON KHCN.tbNhiemVuKHCN.IdNguonKinhPhi = DM.dmNguonKinhPhi.IdNguonKinhPhi INNER JOIN                    DM.dmTinhTrangNhiemVu ON KHCN.tbNhiemVuKHCN.IdTinhTrangNhiemVu = DM.dmTinhTrangNhiemVu.IdTinhTrangNhiemVu</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [KHCN].vNhomNghienCuuManh  AS  SELECT MaNhomNghienCuuManh, TenNhomNghienCuuManh, SoQuyetDinhThanhLap, ToChucBanHanhQuyetDinh, NgayQuyetDinh, CacNhiemVuNCKH, TomTatKetQuaDatDuoc  FROM     KHCN.tbNhomNghienCuuManh</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [KHCN].vSachDaXuatBan  AS  SELECT KHCN.tbNhiemVuKHCN.MaNhiemVu, KHCN.tbSachDaXuatBan.MaSach, KHCN.tbSachDaXuatBan.TenSach, DM.dmLoaiSachTapChi.LoaiSachTapChi, KHCN.tbSachDaXuatBan.MaChuanISBN, KHCN.tbSachDaXuatBan.SoTrang,                     KHCN.tbSachDaXuatBan.NXB, KHCN.tbSachDaXuatBan.NamXuatBan, KHCN.tbSachDaXuatBan.NamViet, DM.dmDangTaiLieu.DangTaiLieu  FROM     DM.dmDangTaiLieu INNER JOIN                    KHCN.tbSachDaXuatBan ON DM.dmDangTaiLieu.IdDangTaiLieu = KHCN.tbSachDaXuatBan.IdDangTaiLieu INNER JOIN                    DM.dmLoaiSachTapChi ON KHCN.tbSachDaXuatBan.IdLoaiSachTapChi = DM.dmLoaiSachTapChi.IdLoaiSachTapChi INNER JOIN                    KHCN.tbNhiemVuKHCN ON KHCN.tbSachDaXuatBan.IdNhiemVuKHCN = KHCN.tbNhiemVuKHCN.IdNhiemVuKHCN</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [KHCN].vTaiSanTriTue  AS  SELECT KHCN.tbNhiemVuKHCN.MaNhiemVu, KHCN.tbTaiSanTriTue.MaGiaiPhapSangChe, KHCN.tbTaiSanTriTue.TenTaiSanTriTue, KHCN.tbTaiSanTriTue.ToChucCapBangGiayChungNhan, DM.dmLoaiTaiSanTriTue.LoaiTaiSanTriTue,                     KHCN.tbTaiSanTriTue.NgayCapBangGiayChungNhan, KHCN.tbTaiSanTriTue.ToChucCapBang, KHCN.tbTaiSanTriTue.SoBang, KHCN.tbTaiSanTriTue.NgayCap, KHCN.tbTaiSanTriTue.SoDon, KHCN.tbTaiSanTriTue.NgayNopDon,                     KHCN.tbTaiSanTriTue.QuyetDinhCapBangGiayChungNhan, KHCN.tbTaiSanTriTue.CongBoBang, KHCN.tbTaiSanTriTue.IPC, KHCN.tbTaiSanTriTue.ChuSoHuu, KHCN.tbTaiSanTriTue.TacGiaSangCheGiaiPhap,                     KHCN.tbTaiSanTriTue.TomTatNoiDungTaiSanTriTue, KHCN.tbTaiSanTriTue.NguoiChuTri, KHCN.tbTaiSanTriTue.NamDuocChapNhanDonHopLe  FROM     DM.dmLoaiTaiSanTriTue INNER JOIN                    KHCN.tbTaiSanTriTue ON DM.dmLoaiTaiSanTriTue.IdLoaiTaiSanTriTue = KHCN.tbTaiSanTriTue.IdLoaiTaiSanTriTue INNER JOIN                    KHCN.tbNhiemVuKHCN ON KHCN.tbTaiSanTriTue.IdNhiemVuKHCN = KHCN.tbNhiemVuKHCN.IdNhiemVuKHCN</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [KHCN].vTapChiKhoaHoc  AS  SELECT KHCN.tbTapChiKhoaHoc.MaTapChi, KHCN.tbTapChiKhoaHoc.TenTapChiTiengViet, KHCN.tbTapChiKhoaHoc.TenTapChiTiengAnh, KHCN.tbTapChiKhoaHoc.MaChuanISSN, DM.dmLinhVucNghienCuu.LinhVucNghienCuu,                     DM.dmTapChiTrongNuoc.TapChiTrongNuoc, KHCN.tbTapChiKhoaHoc.SoBaiBao1Nam  FROM     DM.dmLinhVucNghienCuu INNER JOIN                    KHCN.tbTapChiKhoaHoc ON DM.dmLinhVucNghienCuu.IdLinhVucNghienCuu = KHCN.tbTapChiKhoaHoc.IdLinhVucXuatBan INNER JOIN                    DM.dmTapChiTrongNuoc ON KHCN.tbTapChiKhoaHoc.IdXepLoaiTapChi = DM.dmTapChiTrongNuoc.IdTapChiTrongNuoc</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [NDT].vDanhSachNganhDaoTao  AS  SELECT NDT.tbDanhSachNganhDaoTao.IdNganhDaoTao, NDT.tbDanhSachNganhDaoTao.SoQuyetDinhChoPhepMoNganh, NDT.tbDanhSachNganhDaoTao.NgayBanHanhVanBanQuyetDinhMoNganh,                     NDT.tbDanhSachNganhDaoTao.MaNganhMoLanDau, NDT.tbDanhSachNganhDaoTao.TenNganhMoLanDau, NDT.tbDanhSachNganhDaoTao.CoQuanBanHanh, NDT.tbDanhSachNganhDaoTao.NguoiKy,                     NDT.tbDanhSachNganhDaoTao.SoQuyetDinhChoPhepDoiTenNganh, NDT.tbDanhSachNganhDaoTao.NgayBanHanhVanBanQuyetDinhDoiTenNganh, DM.dmTuyChon.TuyChon AS HinhThucDaoTaoTheoChuyenNgu,                     NDT.tbDanhSachNganhDaoTao.NamBatDauDaoTao, DM.dmQuyetDinhTuChu.QuyetDinhTuChu, DM.dmTuChuMoNganh.TuChuMoNganh, NDT.tbDanhSachNganhDaoTao.SoNamDaoTaoThSTS,                     NDT.tbDanhSachNganhDaoTao.NamTuyenSinhVaDaoTaoGanNhat, NDT.tbDanhSachNganhDaoTao.TongSoNamDaoTaoCuaNganh, dmTuyChon_1.TuyChon AS UuTienDaoTaoNhanLucDuLichCNTT,                     NDT.tbDanhSachNganhDaoTao.NamBatDauThucHienUuTienDaoTaoNhanLucDuLichCNTT, NDT.tbDanhSachNganhDaoTao.SoQuyetDinhDaoTaoTuXa, NDT.tbDanhSachNganhDaoTao.NgayQuyetDinhDaoTaoTuXa,                     NDT.tbDanhSachNganhDaoTao.NamBatDauDaoTaoTuXa, dmTuyChon_2.TuyChon AS NganhDaoTaoLienKetNuocNgoai, DM.dmTrangThaiDaoTao.TrangThaiDaoTao  FROM     NDT.tbDanhSachNganhDaoTao INNER JOIN                    DM.dmTuyChon ON DM.dmTuyChon.IdTuyChon = NDT.tbDanhSachNganhDaoTao.HinhThucDaoTaoTheoChuyenNgu INNER JOIN                    DM.dmTuyChon AS dmTuyChon_2 ON NDT.tbDanhSachNganhDaoTao.NganhDaoTaoLienKetNuocNgoai = dmTuyChon_2.IdTuyChon INNER JOIN                    DM.dmTuyChon AS dmTuyChon_1 ON NDT.tbDanhSachNganhDaoTao.NganhDaoTaoLienKetNuocNgoai = dmTuyChon_1.IdTuyChon INNER JOIN                    DM.dmNganhDaoTao ON DM.dmNganhDaoTao.IdNganhDaoTao = NDT.tbDanhSachNganhDaoTao.IdNganhDaoTao INNER JOIN                    DM.dmQuyetDinhTuChu ON NDT.tbDanhSachNganhDaoTao.IdQuyetDinhTuChu = DM.dmQuyetDinhTuChu.IdQuyetDinhTuChu INNER JOIN                    DM.dmTuChuMoNganh ON DM.dmTuChuMoNganh.IdTuChuMoNganh = NDT.tbDanhSachNganhDaoTao.IdTuChuMoNganh INNER JOIN                    DM.dmTrangThaiDaoTao ON NDT.tbDanhSachNganhDaoTao.IdTrangThaiDaoTao = DM.dmTrangThaiDaoTao.IdTrangThaiDaoTao</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [NDT].vHinhThucDaoTaoCuaNganh  AS  SELECT DM.dmNganhDaoTao.NganhDaoTao, DM.dmHinhThucDaoTao.HinhThucDaoTao, NDT.tbHinhThucDaoTaoCuaNganh.SoNamDaoTao  FROM     DM.dmNganhDaoTao INNER JOIN                    NDT.tbHinhThucDaoTaoCuaNganh ON DM.dmNganhDaoTao.IdNganhDaoTao = NDT.tbHinhThucDaoTaoCuaNganh.IdNganhDaoTao INNER JOIN                    DM.dmHinhThucDaoTao ON NDT.tbHinhThucDaoTaoCuaNganh.IdHinhThucDaoTao = DM.dmHinhThucDaoTao.IdHinhThucDaoTao</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [NDT].vKhoiNganhDaoTao  AS  SELECT KhoiNganhDaoTao  FROM     NDT.tbKhoiNganhDaoTao</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [NDT].vLoaiHinhDaoTaoKhacDuocChoPhepMoNganh  AS  SELECT DM.dmNganhDaoTao.NganhDaoTao, DM.dmLoaiHinhDaoTao.LoaiHinhDaoTao, NDT.tbLoaiHinhDaoTaoKhacDuocChoPhepMoNganh.SoQuyetDinhChoPhep,                     NDT.tbLoaiHinhDaoTaoKhacDuocChoPhepMoNganh.NgayBanHanhQuyetDinhChoPhep  FROM     DM.dmLoaiHinhDaoTao INNER JOIN                    NDT.tbLoaiHinhDaoTaoKhacDuocChoPhepMoNganh ON DM.dmLoaiHinhDaoTao.IdLoaiHinhDaoTao = NDT.tbLoaiHinhDaoTaoKhacDuocChoPhepMoNganh.IdLoaiHinhDaoTao INNER JOIN                    DM.dmNganhDaoTao ON NDT.tbLoaiHinhDaoTaoKhacDuocChoPhepMoNganh.IdNganhDaoTao = DM.dmNganhDaoTao.IdNganhDaoTao</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [NDT].vNhomNganhDaoTao  AS  SELECT DM.dmLinhVucDaoTao.LinhVucDaoTao, DM.dmNhomNganh.NhomNganh, DM.dmNganhDaoTao.NganhDaoTao  FROM     NDT.tbNhomNganhDaoTao INNER JOIN                    DM.dmLinhVucDaoTao ON NDT.tbNhomNganhDaoTao.IdLinhVucDaoTao = DM.dmLinhVucDaoTao.IdLinhVucDaoTao INNER JOIN                    DM.dmNganhDaoTao ON NDT.tbNhomNganhDaoTao.IdNganhDaoTao = DM.dmNganhDaoTao.IdNganhDaoTao INNER JOIN                    DM.dmNhomNganh ON NDT.tbNhomNganhDaoTao.IdNhomNganh = DM.dmNhomNganh.IdNhomNganh</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [NDT].vThongTinLinhVucDaoTao  AS  SELECT NDT.tbKhoiNganhDaoTao.KhoiNganhDaoTao, DM.dmLinhVucDaoTao.LinhVucDaoTao  FROM     NDT.tbThongTinLinhVucDaoTao INNER JOIN                    NDT.tbKhoiNganhDaoTao ON NDT.tbThongTinLinhVucDaoTao.IdKhoiNganh = NDT.tbKhoiNganhDaoTao.IdKhoiNganhDaoTao INNER JOIN                    DM.dmLinhVucDaoTao ON NDT.tbThongTinLinhVucDaoTao.IdLinhVucDaoTao = DM.dmLinhVucDaoTao.IdLinhVucDaoTao</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [NH].vDanhHieuThiDuaGiaiThuongKhenThuongNguoiHoc  AS  SELECT dbo.tbNguoi.Ho, dbo.tbNguoi.Ten, dbo.tbNguoi.SoCCCD, DM.dmLoaiDanhHieuThiDuaGiaiThuongKhenThuong.LoaiDanhHieuThiDuaGiaiThuongKhenThuong, DM.dmThiDuaGiaiThuongKhenThuong.ThiDuaGiaiThuongKhenThuong,                     NH.tbDanhHieuThiDuaGiaiThuongKhenThuongNguoiHoc.SoQuyetDinhKhenThuong, DM.dmPhuongThucKhenThuong.PhuongThucKhenThuong, NH.tbDanhHieuThiDuaGiaiThuongKhenThuongNguoiHoc.NamKhenThuong,                     DM.dmCapKhenThuong.CapKhenThuong  FROM     DM.dmThiDuaGiaiThuongKhenThuong INNER JOIN                    DM.dmCapKhenThuong INNER JOIN                    dbo.tbNguoi INNER JOIN                    NH.tbHocVien ON dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND                     dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND                     dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND                     dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND                     dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi INNER JOIN                    NH.tbDanhHieuThiDuaGiaiThuongKhenThuongNguoiHoc ON NH.tbHocVien.IdHocVien = NH.tbDanhHieuThiDuaGiaiThuongKhenThuongNguoiHoc.IdHocVien ON                     DM.dmCapKhenThuong.IdCapKhenThuong = NH.tbDanhHieuThiDuaGiaiThuongKhenThuongNguoiHoc.IdCapKhenThuong INNER JOIN                    DM.dmLoaiDanhHieuThiDuaGiaiThuongKhenThuong ON                     NH.tbDanhHieuThiDuaGiaiThuongKhenThuongNguoiHoc.IdLoaiDanhHieuThiDuaGiaiThuongKhenThuong = DM.dmLoaiDanhHieuThiDuaGiaiThuongKhenThuong.IdLoaiDanhHieuThiDuaGiaiThuongKhenThuong INNER JOIN                    DM.dmPhuongThucKhenThuong ON NH.tbDanhHieuThiDuaGiaiThuongKhenThuongNguoiHoc.IdPhuongThucKhenThuong = DM.dmPhuongThucKhenThuong.IdPhuongThucKhenThuong ON                     DM.dmThiDuaGiaiThuongKhenThuong.IdThiDuaGiaiThuongKhenThuong = NH.tbDanhHieuThiDuaGiaiThuongKhenThuongNguoiHoc.IdDanhHieuThiDuaGiaiThuongKhenThuong</t>
+  </si>
+  <si>
+    <t>CREATE VIEW NH.vHocVien  AS  SELECT dbo.tbNguoi.Ho, dbo.tbNguoi.Ten, dbo.tbNguoi.NgaySinh, DM.dmGioiTinh.GioiTinh, NH.tbHocVien.Email, NH.tbHocVien.Sdt, dbo.tbNguoi.SoCCCD, NH.tbHocVien.SoSoBaoHiem, DM.dmQuocTich.TenNuoc, DM.dmDanToc.DanToc,                     DM.dmTonGiao.TonGiao, DM.dmLoaiKhuyetTat.LoaiKhuyetTat, DM.dmTinh.TenTinh, DM.dmHuyen.TenHuyen, DM.dmXa.TenXa, NH.tbHocVien.NoiSinh, NH.tbHocVien.QueQuan, dbo.tbNguoi.NgayVaoDoan, dbo.tbNguoi.NgayVaoDang,                     dbo.tbNguoi.NgayVaoDangChinhThuc  FROM     DM.dmHuyen INNER JOIN                    NH.tbHocVien ON DM.dmHuyen.IdHuyen = NH.tbHocVien.IdHuyen AND DM.dmHuyen.IdHuyen = NH.tbHocVien.IdHuyen AND DM.dmHuyen.IdHuyen = NH.tbHocVien.IdHuyen AND DM.dmHuyen.IdHuyen = NH.tbHocVien.IdHuyen AND                     DM.dmHuyen.IdHuyen = NH.tbHocVien.IdHuyen AND DM.dmHuyen.IdHuyen = NH.tbHocVien.IdHuyen AND DM.dmHuyen.IdHuyen = NH.tbHocVien.IdHuyen INNER JOIN                    DM.dmXa ON NH.tbHocVien.IdXa = DM.dmXa.IdXa AND NH.tbHocVien.IdXa = DM.dmXa.IdXa AND NH.tbHocVien.IdXa = DM.dmXa.IdXa AND NH.tbHocVien.IdXa = DM.dmXa.IdXa AND NH.tbHocVien.IdXa = DM.dmXa.IdXa AND                     NH.tbHocVien.IdXa = DM.dmXa.IdXa AND NH.tbHocVien.IdXa = DM.dmXa.IdXa INNER JOIN                    DM.dmTinh ON NH.tbHocVien.IdTinh = DM.dmTinh.IdTinh AND NH.tbHocVien.IdTinh = DM.dmTinh.IdTinh AND NH.tbHocVien.IdTinh = DM.dmTinh.IdTinh AND NH.tbHocVien.IdTinh = DM.dmTinh.IdTinh AND                     NH.tbHocVien.IdTinh = DM.dmTinh.IdTinh AND NH.tbHocVien.IdTinh = DM.dmTinh.IdTinh AND NH.tbHocVien.IdTinh = DM.dmTinh.IdTinh INNER JOIN                    DM.dmDanToc INNER JOIN                    dbo.tbNguoi ON DM.dmDanToc.IdDanToc = dbo.tbNguoi.IdDanToc AND DM.dmDanToc.IdDanToc = dbo.tbNguoi.IdDanToc AND DM.dmDanToc.IdDanToc = dbo.tbNguoi.IdDanToc AND DM.dmDanToc.IdDanToc = dbo.tbNguoi.IdDanToc AND                     DM.dmDanToc.IdDanToc = dbo.tbNguoi.IdDanToc AND DM.dmDanToc.IdDanToc = dbo.tbNguoi.IdDanToc AND DM.dmDanToc.IdDanToc = dbo.tbNguoi.IdDanToc AND DM.dmDanToc.IdDanToc = dbo.tbNguoi.IdDanToc AND                     DM.dmDanToc.IdDanToc = dbo.tbNguoi.IdDanToc AND DM.dmDanToc.IdDanToc = dbo.tbNguoi.IdDanToc AND DM.dmDanToc.IdDanToc = dbo.tbNguoi.IdDanToc AND DM.dmDanToc.IdDanToc = dbo.tbNguoi.IdDanToc INNER JOIN                    DM.dmGioiTinh ON dbo.tbNguoi.IdGioiTinh = DM.dmGioiTinh.IdGioiTinh AND dbo.tbNguoi.IdGioiTinh = DM.dmGioiTinh.IdGioiTinh AND dbo.tbNguoi.IdGioiTinh = DM.dmGioiTinh.IdGioiTinh AND                     dbo.tbNguoi.IdGioiTinh = DM.dmGioiTinh.IdGioiTinh AND dbo.tbNguoi.IdGioiTinh = DM.dmGioiTinh.IdGioiTinh AND dbo.tbNguoi.IdGioiTinh = DM.dmGioiTinh.IdGioiTinh AND dbo.tbNguoi.IdGioiTinh = DM.dmGioiTinh.IdGioiTinh AND                     dbo.tbNguoi.IdGioiTinh = DM.dmGioiTinh.IdGioiTinh AND dbo.tbNguoi.IdGioiTinh = DM.dmGioiTinh.IdGioiTinh AND dbo.tbNguoi.IdGioiTinh = DM.dmGioiTinh.IdGioiTinh AND dbo.tbNguoi.IdGioiTinh = DM.dmGioiTinh.IdGioiTinh AND                     dbo.tbNguoi.IdGioiTinh = DM.dmGioiTinh.IdGioiTinh INNER JOIN                    DM.dmQuocTich ON dbo.tbNguoi.IdQuocTich = DM.dmQuocTich.IdQuocTich AND dbo.tbNguoi.IdQuocTich = DM.dmQuocTich.IdQuocTich AND dbo.tbNguoi.IdQuocTich = DM.dmQuocTich.IdQuocTich AND                     dbo.tbNguoi.IdQuocTich = DM.dmQuocTich.IdQuocTich AND dbo.tbNguoi.IdQuocTich = DM.dmQuocTich.IdQuocTich AND dbo.tbNguoi.IdQuocTich = DM.dmQuocTich.IdQuocTich AND                     dbo.tbNguoi.IdQuocTich = DM.dmQuocTich.IdQuocTich AND dbo.tbNguoi.IdQuocTich = DM.dmQuocTich.IdQuocTich AND dbo.tbNguoi.IdQuocTich = DM.dmQuocTich.IdQuocTich AND                     dbo.tbNguoi.IdQuocTich = DM.dmQuocTich.IdQuocTich AND dbo.tbNguoi.IdQuocTich = DM.dmQuocTich.IdQuocTich AND dbo.tbNguoi.IdQuocTich = DM.dmQuocTich.IdQuocTich AND                     dbo.tbNguoi.IdQuocTich = DM.dmQuocTich.IdQuocTich INNER JOIN                    DM.dmTonGiao ON dbo.tbNguoi.IdDanToc = DM.dmTonGiao.IdTonGiao AND dbo.tbNguoi.IdDanToc = DM.dm</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [NH].vKyLuatNguoiHoc  AS  SELECT dbo.tbNguoi.Ho, dbo.tbNguoi.Ten, dbo.tbNguoi.SoCCCD, DM.dmLoaiKyLuat.LoaiKyLuat, NH.tbKyLuatNguoiHoc.LyDo, DM.dmCapKhenThuong.CapKhenThuong AS CapQuyetDinh, NH.tbKyLuatNguoiHoc.SoQuyetDinh,                     NH.tbKyLuatNguoiHoc.NgayQuyetDinh, NH.tbKyLuatNguoiHoc.NamBiKyLuat  FROM     DM.dmLoaiKyLuat INNER JOIN                    DM.dmCapKhenThuong INNER JOIN                    dbo.tbNguoi INNER JOIN                    NH.tbHocVien ON dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND                     dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND                     dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND                     dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND                     dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND                     dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi INNER JOIN                    NH.tbKyLuatNguoiHoc ON NH.tbHocVien.IdHocVien = NH.tbKyLuatNguoiHoc.IdHocVien ON DM.dmCapKhenThuong.IdCapKhenThuong = NH.tbKyLuatNguoiHoc.IdCapQuyetDinh ON                     DM.dmLoaiKyLuat.IdLoaiKyLuat = NH.tbKyLuatNguoiHoc.IdLoaiKyLuat</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [NH].vNguoiHocVayTinDung  AS  SELECT dbo.tbNguoi.Ho, dbo.tbNguoi.Ten, dbo.tbNguoi.SoCCCD, NH.tbNguoiHocVayTinDung.SoTienDuocVay, NH.tbNguoiHocVayTinDung.TenToChucTinDung, NH.tbNguoiHocVayTinDung.NgayVay, NH.tbNguoiHocVayTinDung.DiaChi,                     NH.tbNguoiHocVayTinDung.ThoiHanVay, DM.dmTuyChon.TuyChon AS TinhTrangVay  FROM     DM.dmTuyChon INNER JOIN                    NH.tbNguoiHocVayTinDung ON DM.dmTuyChon.IdTuyChon = NH.tbNguoiHocVayTinDung.TinhTrangVay INNER JOIN                    NH.tbHocVien ON NH.tbNguoiHocVayTinDung.IdHocVien = NH.tbHocVien.IdHocVien AND NH.tbNguoiHocVayTinDung.IdHocVien = NH.tbHocVien.IdHocVien INNER JOIN                    dbo.tbNguoi ON NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND                     NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND                     NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND                     NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND                     NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND                     NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [NH].vThongTinHocBong  AS  SELECT dbo.tbNguoi.Ho, dbo.tbNguoi.Ten, dbo.tbNguoi.SoCCCD, NH.tbThongTinHocBong.TenHocBong, NH.tbThongTinHocBong.DonViTaiTro, NH.tbThongTinHocBong.ThoiGianTraoTangHocBong, DM.dmLoaiHocBong.LoaiHocBong,                     NH.tbThongTinHocBong.GiaTriHocBong  FROM     dbo.tbNguoi INNER JOIN                    NH.tbHocVien ON dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND                     dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND                     dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND                     dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi INNER JOIN                    NH.tbThongTinHocBong ON NH.tbHocVien.IdHocVien = NH.tbThongTinHocBong.IdHocVien INNER JOIN                    DM.dmLoaiHocBong ON NH.tbThongTinHocBong.IdLoaiHocBong = DM.dmLoaiHocBong.IdLoaiHocBong</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [NH].vThongTinHocTapNghienCuuSinh  AS  SELECT dbo.tbNguoi.Ho, dbo.tbNguoi.Ten, dbo.tbNguoi.SoCCCD, NH.tbHocVien.MaHocVien, DM.dmDoiTuongDauVao.DoiTuongDauVao, DM.dmSinhVienNam.SinhVienNam, DM.dmChuongTrinhDaoTao.ChuongTrinhDaoTao,                     DM.dmLoaiHinhDaoTao.LoaiHinhDaoTao, NH.tbThongTinHocTapNghienCuuSinh.DaoTaoTuNam, NH.tbThongTinHocTapNghienCuuSinh.DaoTaoDenNam, NH.tbThongTinHocTapNghienCuuSinh.NgayNhapHoc,                     DM.dmTrangThaiHoc.TrangThaiHoc, NH.tbThongTinHocTapNghienCuuSinh.NgayChuyenTrangThai, NH.tbThongTinHocTapNghienCuuSinh.SoQuyetDinhThoiHoc, NH.tbThongTinHocTapNghienCuuSinh.TenLuanVan,                     NH.tbThongTinHocTapNghienCuuSinh.NgayBaoVeCapTruong, NH.tbThongTinHocTapNghienCuuSinh.NgayBaoVeCapCoSo, NH.tbThongTinHocTapNghienCuuSinh.QuyChuanNguoiHuongDan, CB.tbCanBo.MaCanBo,                     tbCanBo_1.MaCanBo AS Expr1, NH.tbThongTinHocTapNghienCuuSinh.SoQuyetDinhCongNhan, NH.tbThongTinHocTapNghienCuuSinh.NgayQuyetDinhCongNhan, DM.dmLoaiTotNghiep.LoaiTotNghiep,                     NH.tbThongTinHocTapNghienCuuSinh.SoQuyetDinhThanhLapHoiDongBaoVeCapCoSo, NH.tbThongTinHocTapNghienCuuSinh.NgayQuyetDinhThanhLapHoiDongBaoVeCapCoSo,                     NH.tbThongTinHocTapNghienCuuSinh.SoQuyetDinhThanhLapHoiDongBaoVeCapTruong, NH.tbThongTinHocTapNghienCuuSinh.NgayQuyetDinhThanhLapHoiDongBaoVeCapTruong  FROM     DM.dmSinhVienNam INNER JOIN                    DM.dmDoiTuongDauVao INNER JOIN                    dbo.tbNguoi INNER JOIN                    NH.tbHocVien ON dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND                     dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND                     dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi INNER JOIN                    NH.tbThongTinHocTapNghienCuuSinh ON NH.tbHocVien.IdHocVien = NH.tbThongTinHocTapNghienCuuSinh.IdHocVien ON                     DM.dmDoiTuongDauVao.IdDoiTuongDauVao = NH.tbThongTinHocTapNghienCuuSinh.IdDoiTuongDauVao INNER JOIN                    DM.dmChuongTrinhDaoTao ON NH.tbThongTinHocTapNghienCuuSinh.IdChuongTrinhDaoTao = DM.dmChuongTrinhDaoTao.IdChuongTrinhDaoTao INNER JOIN                    DM.dmLoaiHinhDaoTao ON NH.tbThongTinHocTapNghienCuuSinh.IdLoaiHinhDaoTao = DM.dmLoaiHinhDaoTao.IdLoaiHinhDaoTao INNER JOIN                    DM.dmLoaiTotNghiep ON NH.tbThongTinHocTapNghienCuuSinh.IdLoaiTotNghiep = DM.dmLoaiTotNghiep.IdLoaiTotNghiep INNER JOIN                    DM.dmTrangThaiHoc ON NH.tbThongTinHocTapNghienCuuSinh.IdTrangThaiHoc = DM.dmTrangThaiHoc.IdTrangThaiHoc ON DM.dmSinhVienNam.IdSinhVienNam = NH.tbThongTinHocTapNghienCuuSinh.IdSinhVienNam INNER JOIN                    CB.tbCanBo ON NH.tbThongTinHocTapNghienCuuSinh.IdNguoiHuongDanChinh = CB.tbCanBo.IdCanBo INNER JOIN                    CB.tbCanBo AS tbCanBo_1 ON NH.tbThongTinHocTapNghienCuuSinh.IdNguoiHuongDanPhu = tbCanBo_1.IdCanBo</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [NH].vThongTinHocTapSinhVien  AS  SELECT dbo.tbNguoi.Ho, dbo.tbNguoi.Ten, dbo.tbNguoi.SoCCCD, NH.tbHocVien.MaHocVien, DM.dmDoiTuongDauVao.DoiTuongDauVao, NH.tbThongTinHocTapSinhVien.SoQuyetDinhTrungTuyen,                     NH.tbThongTinHocTapSinhVien.NgayKyQuyetDinhTrungTuyen, DM.dmSinhVienNam.SinhVienNam, NH.tbThongTinHocTapSinhVien.KetQuaTuyenSinh, DM.dmChuongTrinhDaoTao.ChuongTrinhDaoTao,                     DM.dmLoaiHinhDaoTao.LoaiHinhDaoTao, NH.tbThongTinHocTapSinhVien.DaoTaoTuNam, NH.tbThongTinHocTapSinhVien.DaoTaoDenNam, NH.tbThongTinHocTapSinhVien.Khoa, NH.tbThongTinHocTapSinhVien.Lop,                     DM.dmTuyChon.TuyChon AS BangTotNghiepLienThong, dmTuyChon_1.TuyChon AS DangONoiTru, NH.tbThongTinHocTapSinhVien.NgayNhapHoc, DM.dmTrangThaiHoc.TrangThaiHoc,                     NH.tbThongTinHocTapSinhVien.NgayChuyenTrangThai, NH.tbThongTinHocTapSinhVien.SoQuyetDinhThoiHoc, NH.tbThongTinHocTapSinhVien.ThoiGianTotNghiep, DM.dmLoaiTotNghiep.LoaiTotNghiep,                     NH.tbThongTinHocTapSinhVien.SoQuyetDinhTotNghiep, NH.tbThongTinHocTapSinhVien.NgayQuyetDinhCongNhanTotNghiep  FROM     DM.dmDoiTuongDauVao INNER JOIN                    NH.tbThongTinHocTapSinhVien ON DM.dmDoiTuongDauVao.IdDoiTuongDauVao = NH.tbThongTinHocTapSinhVien.IdDoiTuongDauVao INNER JOIN                    DM.dmLoaiHinhDaoTao ON NH.tbThongTinHocTapSinhVien.IdLoaiHinhDaoTao = DM.dmLoaiHinhDaoTao.IdLoaiHinhDaoTao INNER JOIN                    DM.dmLoaiTotNghiep ON NH.tbThongTinHocTapSinhVien.IdLoaiTotNghiep = DM.dmLoaiTotNghiep.IdLoaiTotNghiep INNER JOIN                    DM.dmChuongTrinhDaoTao ON NH.tbThongTinHocTapSinhVien.IdChuongTrinhDaoTao = DM.dmChuongTrinhDaoTao.IdChuongTrinhDaoTao INNER JOIN                    DM.dmTrangThaiHoc ON NH.tbThongTinHocTapSinhVien.IdTrangThaiHoc = DM.dmTrangThaiHoc.IdTrangThaiHoc INNER JOIN                    DM.dmTuyChon ON NH.tbThongTinHocTapSinhVien.BangTotNghiepLienThong = DM.dmTuyChon.IdTuyChon INNER JOIN                    DM.dmSinhVienNam ON NH.tbThongTinHocTapSinhVien.IdSinhVienNam = DM.dmSinhVienNam.IdSinhVienNam INNER JOIN                    NH.tbHocVien ON NH.tbThongTinHocTapSinhVien.IdHocVien = NH.tbHocVien.IdHocVien INNER JOIN                    DM.dmTuyChon AS dmTuyChon_1 ON NH.tbThongTinHocTapSinhVien.DangONoiTru = dmTuyChon_1.IdTuyChon INNER JOIN                    dbo.tbNguoi ON NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND                     NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [NH].vThongTinNguoiHocGDTC  AS  SELECT dbo.tbNguoi.Ho, dbo.tbNguoi.Ten, dbo.tbNguoi.SoCCCD, NH.tbThongTinNguoiHocGDTC.KetQuaHocTap, NH.tbThongTinNguoiHocGDTC.TieuChuanDanhGiaXepLoaiTheLuc  FROM     NH.tbHocVien INNER JOIN                    dbo.tbNguoi ON NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND                     NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND                     NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi INNER JOIN                    NH.tbThongTinNguoiHocGDTC ON NH.tbHocVien.IdHocVien = NH.tbThongTinNguoiHocGDTC.IdHocVien</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [NH].vThongTinViecLamSauTotNghiep  AS  SELECT dbo.tbNguoi.Ho, dbo.tbNguoi.Ten, dbo.tbNguoi.SoCCCD, NH.tbThongTinViecLamSauTotNghiep.TenDonViCapBang, NH.tbThongTinViecLamSauTotNghiep.DonViTuyenDung, DM.dmHinhThucTuyenDung.HinhThucTuyenDung,                     NH.tbThongTinViecLamSauTotNghiep.ThoiGianTuyenDung, DM.dmViTriViecLam.ViTriViecLam, NH.tbThongTinViecLamSauTotNghiep.MucLuongKhoiDiem  FROM     DM.dmViTriViecLam INNER JOIN                    DM.dmHinhThucTuyenDung INNER JOIN                    NH.tbHocVien INNER JOIN                    dbo.tbNguoi ON NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND                     NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND                     NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND                     NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi AND NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi INNER JOIN                    NH.tbThongTinViecLamSauTotNghiep ON NH.tbHocVien.IdHocVien = NH.tbThongTinViecLamSauTotNghiep.IdHocVien ON                     DM.dmHinhThucTuyenDung.IdHinhThucTuyenDung = NH.tbThongTinViecLamSauTotNghiep.IdHinhThucTuyenDung AND                     DM.dmHinhThucTuyenDung.IdHinhThucTuyenDung = NH.tbThongTinViecLamSauTotNghiep.IdHinhThucTuyenDung ON DM.dmViTriViecLam.IdViTriViecLam = NH.tbThongTinViecLamSauTotNghiep.IdViTriViecLam AND                     DM.dmViTriViecLam.IdViTriViecLam = NH.tbThongTinViecLamSauTotNghiep.IdViTriViecLam</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [NH].vThongTinViPham  AS  SELECT dbo.tbNguoi.Ho, dbo.tbNguoi.Ten, dbo.tbNguoi.SoCCCD, NH.tbThongTinViPham.ThoiGianViPham, NH.tbThongTinViPham.NoiDungViPham, NH.tbThongTinViPham.HinhThucXuLy, DM.dmLoaiViPham.LoaiViPham  FROM     dbo.tbNguoi INNER JOIN                    NH.tbHocVien ON dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND                     dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND                     dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi AND                     dbo.tbNguoi.IdNguoi = NH.tbHocVien.IdNguoi INNER JOIN                    NH.tbThongTinViPham ON NH.tbHocVien.IdHocVien = NH.tbThongTinViPham.IdHocVien INNER JOIN                    DM.dmLoaiViPham ON NH.tbThongTinViPham.IdLoaiViPham = DM.dmLoaiViPham.IdLoaiViPham</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [TCTS].vChiTietTaiSanDonVi  AS  SELECT TCTS.tbTaiSanDonVi.MaLoaiTaiSan, TCTS.tbChiTietTaiSanDonVi.MaTaiSan, TCTS.tbChiTietTaiSanDonVi.TenTaiSan, TCTS.tbChiTietTaiSanDonVi.NguyenGia, DM.dmTinhTrangThietBi.TinhTrangThietBi, DM.dmChuSoHuu.ChuSoHuu  FROM     DM.dmChuSoHuu INNER JOIN                    TCTS.tbChiTietTaiSanDonVi ON DM.dmChuSoHuu.IdChuSoHuu = TCTS.tbChiTietTaiSanDonVi.IdChuSoHuu INNER JOIN                    DM.dmTinhTrangThietBi ON TCTS.tbChiTietTaiSanDonVi.IdTinhTrangThietBi = DM.dmTinhTrangThietBi.IdTinhTrangThietBi INNER JOIN                    TCTS.tbTaiSanDonVi ON TCTS.tbChiTietTaiSanDonVi.IdTaiSanDonVi = TCTS.tbTaiSanDonVi.IdTaiSanDonVi</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [TCTS].vChiTietThuChi  AS  SELECT TCTS.tbLoaiThuChi.MaLoaiThuChi, TCTS.tbChiTietThuChi.TenKhoanThuChi, TCTS.tbChiTietThuChi.NamTaiChinh, TCTS.tbChiTietThuChi.SoTien  FROM     TCTS.tbChiTietThuChi INNER JOIN                    TCTS.tbLoaiThuChi ON TCTS.tbChiTietThuChi.IdLoaiThuChi = TCTS.tbLoaiThuChi.IdLoaiThuChi</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [TCTS].vHoatDongTaiChinh  AS  SELECT DM.dmHoatDongTaiChinh.HoatDongTaiChinh, TCTS.tbHoatDongTaiChinh.NamTaiChinh, TCTS.tbHoatDongTaiChinh.KinhPhi, TCTS.tbHoatDongTaiChinh.NoiDung  FROM     DM.dmHoatDongTaiChinh INNER JOIN                    TCTS.tbHoatDongTaiChinh ON DM.dmHoatDongTaiChinh.IdHoatDongTaiChinh = TCTS.tbHoatDongTaiChinh.IdLoaiHoatDongTaiChinh</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [TCTS].vKhoanNopNganSach  AS  SELECT MaKhoanNop, TenKhoanNopNganSach, SoTien, NamTaiChinh  FROM     TCTS.tbKhoanNopNganSach</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [TCTS].vKhoanTrichLapQuy  AS  SELECT MaKhoanTrichLapQuy, TenKhoanTrichLapQuy, NamTaiChinh, SoTien  FROM     TCTS.tbKhoanTrichLapQuy</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [TCTS].vLoaiThuChi  AS  SELECT TCTS.tbLoaiThuChi.MaLoaiThuChi, DM.dmPhanLoaiThuChi.PhanLoaiThuChi, TCTS.tbLoaiThuChi.TenLoaiThuChi, TCTS.tbLoaiThuChi.MoTa  FROM     DM.dmPhanLoaiThuChi INNER JOIN                    TCTS.tbLoaiThuChi ON DM.dmPhanLoaiThuChi.IdPhanLoaiThuChi = TCTS.tbLoaiThuChi.IdPhanLoaiThuChi</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [TCTS].vTaiSanDonVi  AS  SELECT MaLoaiTaiSan, TenLoaiTaiSan, MoTa, NamTaiChinh  FROM     TCTS.tbTaiSanDonVi</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [TS].vChiTieuTuyenSinhTheoNganh  AS  SELECT DM.dmLoaiHinhDaoTao.LoaiHinhDaoTao, DM.dmNganhDaoTao.NganhDaoTao, TS.tbChiTieuTuyenSinhTheoNganh.Nam, TS.tbChiTieuTuyenSinhTheoNganh.ChiTieu  FROM     DM.dmLoaiHinhDaoTao INNER JOIN                    TS.tbChiTieuTuyenSinhTheoNganh ON DM.dmLoaiHinhDaoTao.IdLoaiHinhDaoTao = TS.tbChiTieuTuyenSinhTheoNganh.IdLoaiHinhDaoTao INNER JOIN                    DM.dmNganhDaoTao ON TS.tbChiTieuTuyenSinhTheoNganh.IdNganhDaoTao = DM.dmNganhDaoTao.IdNganhDaoTao</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [TS].vDuLieuTrungTuyen  AS  SELECT TS.tbDuLieuTrungTuyen.CCCD, TS.tbDuLieuTrungTuyen.HoVaTen, TS.tbDuLieuTrungTuyen.MaTuyenSinh, TS.tbDuLieuTrungTuyen.KhoaDaoTaoTrungTuyen, DM.dmDoiTuongDauVao.DoiTuongDauVao,                     DM.dmDoiTuongUuTien.DoiTuongUuTien, DM.dmHinhThucTuyenSinh.HinhThucTuyenSinh, DM.dmKhuVuc.KhuVuc, TS.tbDuLieuTrungTuyen.TruongTHPT, TS.tbDuLieuTrungTuyen.ToHopMonTrungTuyen,                     TS.tbDuLieuTrungTuyen.DiemMon1, TS.tbDuLieuTrungTuyen.DiemMon2, TS.tbDuLieuTrungTuyen.DiemMon3, TS.tbDuLieuTrungTuyen.DiemUuTien, TS.tbDuLieuTrungTuyen.TongDiemXetTuyen,                     TS.tbDuLieuTrungTuyen.SoQuyetDinhTrungTuyen, TS.tbDuLieuTrungTuyen.NgayBanHanhQuyetDinhTrungTuyen, TS.tbDuLieuTrungTuyen.ChuongTrinhDaoTaoDaTotNghiepTrinhDoDaiHoc,                     TS.tbDuLieuTrungTuyen.NganhDaTotNghiepTrinhDoDaiHoc, TS.tbDuLieuTrungTuyen.ChuongTrinhDaoTaoDaTotNghiepTrinhDoThacSi, TS.tbDuLieuTrungTuyen.NganhDaTotNghiepTrinhDoThacSi  FROM     DM.dmDoiTuongDauVao INNER JOIN                    TS.tbDuLieuTrungTuyen ON DM.dmDoiTuongDauVao.IdDoiTuongDauVao = TS.tbDuLieuTrungTuyen.IdDoiTuongDauVao INNER JOIN                    DM.dmDoiTuongUuTien ON TS.tbDuLieuTrungTuyen.IdDoiTuongUuTien = DM.dmDoiTuongUuTien.IdDoiTuongUuTien INNER JOIN                    DM.dmHinhThucTuyenSinh ON TS.tbDuLieuTrungTuyen.IdHinhThucTuyenSinh = DM.dmHinhThucTuyenSinh.IdHinhThucTuyenSinh INNER JOIN                    DM.dmKhuVuc ON TS.tbDuLieuTrungTuyen.IdKhuVuc = DM.dmKhuVuc.IdKhuVuc</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [VB].vDanhSachVanBangChungChi  AS  SELECT dbo.tbNguoi.SoCCCD, dbo.tbNguoi.Ho, dbo.tbNguoi.Ten, VB.tbDanhSachVanBangChungChi.TenVanBang, DM.dmChuongTrinhDaoTao.ChuongTrinhDaoTao, VB.tbDanhSachVanBangChungChi.TenDonViBangCap,                     VB.tbDanhSachVanBangChungChi.NgayCap, VB.tbDanhSachVanBangChungChi.NamTotNghiep, DM.dmLoaiTotNghiep.LoaiTotNghiep, VB.tbDanhSachVanBangChungChi.SoQuyetDinhCongNhanTotNghiep,                     VB.tbDanhSachVanBangChungChi.NgayQuyetDinhCongNhanTotNghiep, VB.tbDanhSachVanBangChungChi.SoHieuVanBang, VB.tbDanhSachVanBangChungChi.SoVaoSoGocCapVanBang,                     VB.tbDanhSachVanBangChungChi.SoQuyetDinhThanhLapHoiDongDanhGiaLuanVan, VB.tbDanhSachVanBangChungChi.NgayBaoVe  FROM     NH.tbHocVien INNER JOIN                    dbo.tbNguoi ON NH.tbHocVien.IdNguoi = dbo.tbNguoi.IdNguoi INNER JOIN                    VB.tbDanhSachVanBangChungChi ON NH.tbHocVien.IdHocVien = VB.tbDanhSachVanBangChungChi.IdHocVien INNER JOIN                    DM.dmLoaiTotNghiep ON VB.tbDanhSachVanBangChungChi.IdLoaiTotNghiep = DM.dmLoaiTotNghiep.IdLoaiTotNghiep AND VB.tbDanhSachVanBangChungChi.IdLoaiTotNghiep = DM.dmLoaiTotNghiep.IdLoaiTotNghiep INNER JOIN                    DM.dmChuongTrinhDaoTao ON VB.tbDanhSachVanBangChungChi.IdChuongTrinhDaoTao = DM.dmChuongTrinhDaoTao.IdChuongTrinhDaoTao</t>
+  </si>
+  <si>
+    <t>schema</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>define</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1238,6 +1471,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1274,7 +1515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1344,6 +1585,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9188,7 +9432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AF3660-7BB6-4B35-A2B5-A126CAAF0875}">
   <dimension ref="A1:C167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -11044,4 +11288,833 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C87645-A414-4C17-8A6C-82C75FCFAF15}">
+  <dimension ref="A1:C73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.06640625" customWidth="1"/>
+    <col min="2" max="2" width="56.796875" customWidth="1"/>
+    <col min="3" max="3" width="28.796875" customWidth="1"/>
+    <col min="4" max="4" width="95.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="28" t="s">
+        <v>455</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>456</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>357</v>
+      </c>
+      <c r="C11" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>348</v>
+      </c>
+      <c r="C12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>332</v>
+      </c>
+      <c r="C13" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>353</v>
+      </c>
+      <c r="C14" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>323</v>
+      </c>
+      <c r="C15" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>311</v>
+      </c>
+      <c r="C16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>343</v>
+      </c>
+      <c r="C17" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>363</v>
+      </c>
+      <c r="C18" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
+        <v>366</v>
+      </c>
+      <c r="C19" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s">
+        <v>326</v>
+      </c>
+      <c r="C20" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
+        <v>329</v>
+      </c>
+      <c r="C21" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" t="s">
+        <v>313</v>
+      </c>
+      <c r="C22" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" t="s">
+        <v>330</v>
+      </c>
+      <c r="C23" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="s">
+        <v>337</v>
+      </c>
+      <c r="C24" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" t="s">
+        <v>371</v>
+      </c>
+      <c r="C25" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" t="s">
+        <v>338</v>
+      </c>
+      <c r="C26" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" t="s">
+        <v>340</v>
+      </c>
+      <c r="C27" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" t="s">
+        <v>352</v>
+      </c>
+      <c r="C28" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" t="s">
+        <v>342</v>
+      </c>
+      <c r="C29" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" t="s">
+        <v>355</v>
+      </c>
+      <c r="C30" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" t="s">
+        <v>304</v>
+      </c>
+      <c r="C31" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" t="s">
+        <v>306</v>
+      </c>
+      <c r="C32" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" t="s">
+        <v>344</v>
+      </c>
+      <c r="C33" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" t="s">
+        <v>351</v>
+      </c>
+      <c r="C34" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" t="s">
+        <v>339</v>
+      </c>
+      <c r="C35" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" t="s">
+        <v>356</v>
+      </c>
+      <c r="C36" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" t="s">
+        <v>361</v>
+      </c>
+      <c r="C37" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" t="s">
+        <v>333</v>
+      </c>
+      <c r="C38" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>137</v>
+      </c>
+      <c r="B39" t="s">
+        <v>324</v>
+      </c>
+      <c r="C39" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>137</v>
+      </c>
+      <c r="B40" t="s">
+        <v>341</v>
+      </c>
+      <c r="C40" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" t="s">
+        <v>358</v>
+      </c>
+      <c r="C41" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" t="s">
+        <v>360</v>
+      </c>
+      <c r="C42" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" t="s">
+        <v>331</v>
+      </c>
+      <c r="C43" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" t="s">
+        <v>354</v>
+      </c>
+      <c r="C44" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>137</v>
+      </c>
+      <c r="B45" t="s">
+        <v>362</v>
+      </c>
+      <c r="C45" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" t="s">
+        <v>335</v>
+      </c>
+      <c r="C46" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>175</v>
+      </c>
+      <c r="B47" t="s">
+        <v>367</v>
+      </c>
+      <c r="C47" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>175</v>
+      </c>
+      <c r="B48" t="s">
+        <v>303</v>
+      </c>
+      <c r="C48" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>175</v>
+      </c>
+      <c r="B49" t="s">
+        <v>300</v>
+      </c>
+      <c r="C49" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>175</v>
+      </c>
+      <c r="B50" t="s">
+        <v>318</v>
+      </c>
+      <c r="C50" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>175</v>
+      </c>
+      <c r="B51" t="s">
+        <v>305</v>
+      </c>
+      <c r="C51" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>175</v>
+      </c>
+      <c r="B52" t="s">
+        <v>302</v>
+      </c>
+      <c r="C52" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53" t="s">
+        <v>349</v>
+      </c>
+      <c r="C53" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>200</v>
+      </c>
+      <c r="B54" t="s">
+        <v>364</v>
+      </c>
+      <c r="C54" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>200</v>
+      </c>
+      <c r="B55" t="s">
+        <v>347</v>
+      </c>
+      <c r="C55" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>200</v>
+      </c>
+      <c r="B56" t="s">
+        <v>346</v>
+      </c>
+      <c r="C56" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>200</v>
+      </c>
+      <c r="B57" t="s">
+        <v>345</v>
+      </c>
+      <c r="C57" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>200</v>
+      </c>
+      <c r="B58" t="s">
+        <v>369</v>
+      </c>
+      <c r="C58" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>200</v>
+      </c>
+      <c r="B59" t="s">
+        <v>368</v>
+      </c>
+      <c r="C59" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>200</v>
+      </c>
+      <c r="B60" t="s">
+        <v>322</v>
+      </c>
+      <c r="C60" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>200</v>
+      </c>
+      <c r="B61" t="s">
+        <v>350</v>
+      </c>
+      <c r="C61" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>200</v>
+      </c>
+      <c r="B62" t="s">
+        <v>336</v>
+      </c>
+      <c r="C62" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>411</v>
+      </c>
+      <c r="B63" t="s">
+        <v>412</v>
+      </c>
+      <c r="C63" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>327</v>
+      </c>
+      <c r="C64" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>309</v>
+      </c>
+      <c r="C65" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>314</v>
+      </c>
+      <c r="C66" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
+        <v>315</v>
+      </c>
+      <c r="C67" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
+        <v>316</v>
+      </c>
+      <c r="C68" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
+        <v>319</v>
+      </c>
+      <c r="C69" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" t="s">
+        <v>312</v>
+      </c>
+      <c r="C70" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71" t="s">
+        <v>310</v>
+      </c>
+      <c r="C71" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>25</v>
+      </c>
+      <c r="B72" t="s">
+        <v>365</v>
+      </c>
+      <c r="C72" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>34</v>
+      </c>
+      <c r="B73" t="s">
+        <v>359</v>
+      </c>
+      <c r="C73" t="s">
+        <v>454</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{A0C87645-A414-4C17-8A6C-82C75FCFAF15}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F73">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/C500Hemis/TaiLieu/BangHemis.xlsx
+++ b/C500Hemis/TaiLieu/BangHemis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lap trinh may tinh\Code\C500Hemis\C500Hemis\TaiLieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1B82E9-DFFB-4BA0-B443-C58FB05FF2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C5D0EE-9E4D-4DF3-BCA5-04D964773748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tạo controller-B9" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="SoKhoaNgoai" sheetId="3" r:id="rId4"/>
     <sheet name="DemTruong" sheetId="4" r:id="rId5"/>
     <sheet name="View" sheetId="6" r:id="rId6"/>
+    <sheet name="DM" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Đăng ký thi giữa phần'!$A$1:$H$1</definedName>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="458">
   <si>
     <t>tbHoatDongTaiChinh</t>
   </si>
@@ -1577,6 +1578,9 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1585,9 +1589,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2013,10 +2014,10 @@
       <c r="B9" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="27">
         <v>8</v>
       </c>
     </row>
@@ -2027,8 +2028,8 @@
       <c r="B10" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A11" s="21">
@@ -2067,8 +2068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J234"/>
   <sheetViews>
-    <sheetView topLeftCell="A206" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B226" sqref="B226"/>
+    <sheetView topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.5"/>
@@ -2087,31 +2088,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>375</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="15" t="s">
         <v>293</v>
       </c>
@@ -11294,7 +11295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C87645-A414-4C17-8A6C-82C75FCFAF15}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
@@ -11306,14 +11307,14 @@
     <col min="4" max="4" width="95.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="25" t="s">
         <v>455</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="25" t="s">
         <v>456</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="25" t="s">
         <v>457</v>
       </c>
     </row>
@@ -12117,4 +12118,4064 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC7CEC7-B6AF-4CC3-BFC3-94657CAAD66A}">
+  <dimension ref="A1:M139"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="6.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="55" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.59765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="3.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.9296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.06640625" style="2"/>
+    <col min="13" max="13" width="20.1328125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.06640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A1" s="1">
+        <v>94</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f>CONCATENATE(D1,"Controller")</f>
+        <v>TapChiTrongNuocController</v>
+      </c>
+      <c r="D1" s="2" t="str">
+        <f>RIGHT(B1,E1-2)</f>
+        <v>TapChiTrongNuoc</v>
+      </c>
+      <c r="E1" s="2">
+        <f>LEN(B1)</f>
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="1">
+        <v>95</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f t="shared" ref="C2:C65" si="0">CONCATENATE(D2,"Controller")</f>
+        <v>KetQuaKiemDinhController</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f t="shared" ref="D2:D65" si="1">RIGHT(B2,E2-2)</f>
+        <v>KetQuaKiemDinh</v>
+      </c>
+      <c r="E2" s="2">
+        <f t="shared" ref="E2:E65" si="2">LEN(B2)</f>
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="1">
+        <v>96</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ThiDuaGiaiThuongKhenThuongController</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ThiDuaGiaiThuongKhenThuong</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="1">
+        <v>97</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>KhoiNganhLinhVucDaoTaoController</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>KhoiNganhLinhVucDaoTao</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="1">
+        <v>98</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TiengDanTocController</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>TiengDanToc</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="1">
+        <v>99</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>KhungNangLucNgoaiNguController</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>KhungNangLucNgoaiNgu</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="1">
+        <v>100</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TinhController</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Tinh</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="1">
+        <v>101</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>KhuVucController</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>KhuVuc</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="1">
+        <v>102</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TinhTrangCoSoVatChatController</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>TinhTrangCoSoVatChat</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="1">
+        <v>103</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LinhVucDaoTaoController</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>LinhVucDaoTao</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="1">
+        <v>104</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TinhTrangGiangVienDuocCuDiDaoTaoController</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>TinhTrangGiangVienDuocCuDiDaoTao</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="1">
+        <v>105</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LinhVucNghienCuuController</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>LinhVucNghienCuu</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="1">
+        <v>106</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TinhTrangHopDongController</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>TinhTrangHopDong</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="1">
+        <v>107</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LinhVucNhomNganhController</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>LinhVucNhomNganh</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="1">
+        <v>108</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TinhTrangNhiemVuController</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>TinhTrangNhiemVu</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="1">
+        <v>109</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LoaiBoiDuongController</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>LoaiBoiDuong</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="1">
+        <v>110</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TinhTrangThietBiController</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>TinhTrangThietBi</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="1">
+        <v>111</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LoaiChuongTrinhDaoTaoController</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>LoaiChuongTrinhDaoTao</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="1">
+        <v>112</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ToChucKiemDinhController</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ToChucKiemDinh</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="1">
+        <v>113</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LoaiChuongTrinhLienKetDaoTaoController</v>
+      </c>
+      <c r="D20" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>LoaiChuongTrinhLienKetDaoTao</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="1">
+        <v>114</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TonGiaoController</v>
+      </c>
+      <c r="D21" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>TonGiao</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="1">
+        <v>115</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LoaiCongTrinhCoSoVatChatController</v>
+      </c>
+      <c r="D22" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>LoaiCongTrinhCoSoVatChat</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="1">
+        <v>116</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TrangThaiCanBoController</v>
+      </c>
+      <c r="D23" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>TrangThaiCanBo</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="1">
+        <v>117</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LoaiDanhHieuThiDuaGiaiThuongKhenThuongController</v>
+      </c>
+      <c r="D24" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>LoaiDanhHieuThiDuaGiaiThuongKhenThuong</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="1">
+        <v>118</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TrangThaiChuongTrinhDaoTaoController</v>
+      </c>
+      <c r="D25" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>TrangThaiChuongTrinhDaoTao</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="1">
+        <v>119</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LoaiDeAnChuongTrinhController</v>
+      </c>
+      <c r="D26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>LoaiDeAnChuongTrinh</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="1">
+        <v>120</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TrangThaiCoSoGDController</v>
+      </c>
+      <c r="D27" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>TrangThaiCoSoGD</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="1">
+        <v>121</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LoaiDeTaiController</v>
+      </c>
+      <c r="D28" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>LoaiDeTai</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="1">
+        <v>122</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TrangThaiDaoTaoController</v>
+      </c>
+      <c r="D29" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>TrangThaiDaoTao</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="1">
+        <v>123</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LoaiGiaiThuongKHCNController</v>
+      </c>
+      <c r="D30" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>LoaiGiaiThuongKHCN</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="1">
+        <v>124</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TrangThaiHocController</v>
+      </c>
+      <c r="D31" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>TrangThaiHoc</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="1">
+        <v>125</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LoaiGiangVienQuocPhongController</v>
+      </c>
+      <c r="D32" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>LoaiGiangVienQuocPhong</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="1">
+        <v>126</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TrangThaiHopDongController</v>
+      </c>
+      <c r="D33" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>TrangThaiHopDong</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="1">
+        <v>127</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LoaiHinhCoSoDaoTaoController</v>
+      </c>
+      <c r="D34" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>LoaiHinhCoSoDaoTao</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="1">
+        <v>128</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TrangThaiThucHienController</v>
+      </c>
+      <c r="D35" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>TrangThaiThucHien</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="1">
+        <v>129</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LoaiHinhDaoTaoController</v>
+      </c>
+      <c r="D36" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>LoaiHinhDaoTao</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="1">
+        <v>130</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TrinhDoController</v>
+      </c>
+      <c r="D37" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>TrinhDo</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="1">
+        <v>131</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LoaiHinhTruongController</v>
+      </c>
+      <c r="D38" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>LoaiHinhTruong</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="1">
+        <v>132</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TrinhDoDaoTaoController</v>
+      </c>
+      <c r="D39" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>TrinhDoDaoTao</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="1">
+        <v>133</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LoaiHocBongController</v>
+      </c>
+      <c r="D40" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>LoaiHocBong</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="1">
+        <v>134</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TrinhDoLyLuanChinhTriController</v>
+      </c>
+      <c r="D41" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>TrinhDoLyLuanChinhTri</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="6"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A42" s="1">
+        <v>135</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LoaiHocVienController</v>
+      </c>
+      <c r="D42" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>LoaiHocVien</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="1">
+        <v>136</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TrinhDoQuanLyNhaNuocController</v>
+      </c>
+      <c r="D43" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>TrinhDoQuanLyNhaNuoc</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="6"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="1">
+        <v>137</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LoaiHopDongController</v>
+      </c>
+      <c r="D44" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>LoaiHopDong</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="6"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A45" s="1">
+        <v>138</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TrinhDoTinHocController</v>
+      </c>
+      <c r="D45" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>TrinhDoTinHoc</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="6"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+    </row>
+    <row r="46" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A46" s="1">
+        <v>139</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LoaiKhuyetTatController</v>
+      </c>
+      <c r="D46" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>LoaiKhuyetTat</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="6"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+    </row>
+    <row r="47" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A47" s="1">
+        <v>140</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TuChuMoNganhController</v>
+      </c>
+      <c r="D47" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>TuChuMoNganh</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="6"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+    </row>
+    <row r="48" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="1">
+        <v>141</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LoaiKyLuatController</v>
+      </c>
+      <c r="D48" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>LoaiKyLuat</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+    </row>
+    <row r="49" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="1">
+        <v>142</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TuyChonController</v>
+      </c>
+      <c r="D49" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>TuyChon</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="6"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+    </row>
+    <row r="50" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A50" s="1">
+        <v>143</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LoaiLienKetController</v>
+      </c>
+      <c r="D50" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>LoaiLienKet</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" s="6"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+    </row>
+    <row r="51" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A51" s="1">
+        <v>144</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>VaiTroThamGiaController</v>
+      </c>
+      <c r="D51" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>VaiTroThamGia</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51" s="6"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+    </row>
+    <row r="52" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A52" s="1">
+        <v>145</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LoaiLuuHocSinhController</v>
+      </c>
+      <c r="D52" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>LoaiLuuHocSinh</v>
+      </c>
+      <c r="E52" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="6"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+    </row>
+    <row r="53" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A53" s="1">
+        <v>146</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>BacLuongController</v>
+      </c>
+      <c r="D53" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>BacLuong</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" s="6"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+    </row>
+    <row r="54" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A54" s="1">
+        <v>147</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ViTriViecLamController</v>
+      </c>
+      <c r="D54" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ViTriViecLam</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="6"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+    </row>
+    <row r="55" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A55" s="1">
+        <v>148</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LoaiNhiemVuController</v>
+      </c>
+      <c r="D55" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>LoaiNhiemVu</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55" s="6"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+    </row>
+    <row r="56" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="1">
+        <v>149</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CapHoiNghiController</v>
+      </c>
+      <c r="D56" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CapHoiNghi</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" s="6"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+    </row>
+    <row r="57" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="1">
+        <v>150</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>XaController</v>
+      </c>
+      <c r="D57" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Xa</v>
+      </c>
+      <c r="E57" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="6"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+    </row>
+    <row r="58" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="1">
+        <v>151</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LoaiNhiemVuBaoVeMoiTruongController</v>
+      </c>
+      <c r="D58" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>LoaiNhiemVuBaoVeMoiTruong</v>
+      </c>
+      <c r="E58" s="2">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="6"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+    </row>
+    <row r="59" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="1">
+        <v>152</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CapKhenThuongController</v>
+      </c>
+      <c r="D59" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CapKhenThuong</v>
+      </c>
+      <c r="E59" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="6"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+    </row>
+    <row r="60" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="1">
+        <v>153</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>XepHangQController</v>
+      </c>
+      <c r="D60" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>XepHangQ</v>
+      </c>
+      <c r="E60" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" s="6"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+    </row>
+    <row r="61" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="1">
+        <v>154</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LoaiPhongBanController</v>
+      </c>
+      <c r="D61" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>LoaiPhongBan</v>
+      </c>
+      <c r="E61" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61" s="6"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+    </row>
+    <row r="62" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A62" s="1">
+        <v>155</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ChucDanhGiangVienController</v>
+      </c>
+      <c r="D62" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ChucDanhGiangVien</v>
+      </c>
+      <c r="E62" s="2">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="6"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+    </row>
+    <row r="63" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A63" s="1">
+        <v>156</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C63" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LoaiPhongHocController</v>
+      </c>
+      <c r="D63" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>LoaiPhongHoc</v>
+      </c>
+      <c r="E63" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G63" s="6"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+    </row>
+    <row r="64" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A64" s="1">
+        <v>157</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ChucDanhHoiDongController</v>
+      </c>
+      <c r="D64" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ChucDanhHoiDong</v>
+      </c>
+      <c r="E64" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G64" s="6"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+    </row>
+    <row r="65" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A65" s="1">
+        <v>158</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LoaiPhongThiNghiemController</v>
+      </c>
+      <c r="D65" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>LoaiPhongThiNghiem</v>
+      </c>
+      <c r="E65" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65" s="6"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+    </row>
+    <row r="66" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A66" s="1">
+        <v>159</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C66" s="2" t="str">
+        <f t="shared" ref="C66:C129" si="3">CONCATENATE(D66,"Controller")</f>
+        <v>ChucDanhKhoaHocController</v>
+      </c>
+      <c r="D66" s="2" t="str">
+        <f t="shared" ref="D66:D129" si="4">RIGHT(B66,E66-2)</f>
+        <v>ChucDanhKhoaHoc</v>
+      </c>
+      <c r="E66" s="2">
+        <f t="shared" ref="E66:E129" si="5">LEN(B66)</f>
+        <v>17</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" s="6"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+    </row>
+    <row r="67" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A67" s="1">
+        <v>160</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>LoaiQuyetDinhController</v>
+      </c>
+      <c r="D67" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>LoaiQuyetDinh</v>
+      </c>
+      <c r="E67" s="2">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G67" s="6"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+    </row>
+    <row r="68" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A68" s="1">
+        <v>161</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C68" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ChucDanhNCKHController</v>
+      </c>
+      <c r="D68" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ChucDanhNCKH</v>
+      </c>
+      <c r="E68" s="2">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G68" s="6"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+    </row>
+    <row r="69" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A69" s="1">
+        <v>162</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C69" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>LoaiSachTapChiController</v>
+      </c>
+      <c r="D69" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>LoaiSachTapChi</v>
+      </c>
+      <c r="E69" s="2">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G69" s="6"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+    </row>
+    <row r="70" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A70" s="1">
+        <v>163</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C70" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ChucDanhNgheNghiepController</v>
+      </c>
+      <c r="D70" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ChucDanhNgheNghiep</v>
+      </c>
+      <c r="E70" s="2">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G70" s="6"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+    </row>
+    <row r="71" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A71" s="1">
+        <v>164</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C71" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>LoaiTaiSanTriTueController</v>
+      </c>
+      <c r="D71" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>LoaiTaiSanTriTue</v>
+      </c>
+      <c r="E71" s="2">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71" s="6"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+    </row>
+    <row r="72" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A72" s="1">
+        <v>165</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C72" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ChucDanhPhongBanController</v>
+      </c>
+      <c r="D72" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ChucDanhPhongBan</v>
+      </c>
+      <c r="E72" s="2">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="6"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+    </row>
+    <row r="73" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A73" s="1">
+        <v>166</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>LoaiThamGiaController</v>
+      </c>
+      <c r="D73" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>LoaiThamGia</v>
+      </c>
+      <c r="E73" s="2">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G73" s="6"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+    </row>
+    <row r="74" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A74" s="1">
+        <v>167</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C74" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ChucVuController</v>
+      </c>
+      <c r="D74" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ChucVu</v>
+      </c>
+      <c r="E74" s="2">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G74" s="6"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+    </row>
+    <row r="75" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A75" s="1">
+        <v>168</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C75" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>LoaiToChucController</v>
+      </c>
+      <c r="D75" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>LoaiToChuc</v>
+      </c>
+      <c r="E75" s="2">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G75" s="6"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+    </row>
+    <row r="76" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A76" s="1">
+        <v>169</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C76" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ChuongTrinhDaoTaoController</v>
+      </c>
+      <c r="D76" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ChuongTrinhDaoTao</v>
+      </c>
+      <c r="E76" s="2">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G76" s="6"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+    </row>
+    <row r="77" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A77" s="1">
+        <v>170</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C77" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>LoaiTotNghiepController</v>
+      </c>
+      <c r="D77" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>LoaiTotNghiep</v>
+      </c>
+      <c r="E77" s="2">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G77" s="6"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+    </row>
+    <row r="78" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A78" s="1">
+        <v>171</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C78" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ChuSoHuuController</v>
+      </c>
+      <c r="D78" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ChuSoHuu</v>
+      </c>
+      <c r="E78" s="2">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G78" s="6"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+    </row>
+    <row r="79" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A79" s="1">
+        <v>172</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C79" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>LoaiViPhamController</v>
+      </c>
+      <c r="D79" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>LoaiViPham</v>
+      </c>
+      <c r="E79" s="2">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G79" s="6"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+    </row>
+    <row r="80" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A80" s="1">
+        <v>173</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C80" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CoQuanBanHanhController</v>
+      </c>
+      <c r="D80" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>CoQuanBanHanh</v>
+      </c>
+      <c r="E80" s="2">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G80" s="6"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A81" s="1">
+        <v>174</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C81" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>MucDichSuDungCSVCController</v>
+      </c>
+      <c r="D81" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>MucDichSuDungCSVC</v>
+      </c>
+      <c r="E81" s="2">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G81" s="6"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+    </row>
+    <row r="82" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A82" s="1">
+        <v>175</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C82" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CoQuanChuQuanController</v>
+      </c>
+      <c r="D82" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>CoQuanChuQuan</v>
+      </c>
+      <c r="E82" s="2">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G82" s="6"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+    </row>
+    <row r="83" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A83" s="1">
+        <v>176</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C83" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>MucGiaiThuongController</v>
+      </c>
+      <c r="D83" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>MucGiaiThuong</v>
+      </c>
+      <c r="E83" s="2">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="6"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+    </row>
+    <row r="84" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A84" s="1">
+        <v>177</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C84" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>DangTaiLieuController</v>
+      </c>
+      <c r="D84" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>DangTaiLieu</v>
+      </c>
+      <c r="E84" s="2">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G84" s="6"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+    </row>
+    <row r="85" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A85" s="1">
+        <v>178</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C85" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>MucTieuNhiemVuController</v>
+      </c>
+      <c r="D85" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>MucTieuNhiemVu</v>
+      </c>
+      <c r="E85" s="2">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G85" s="6"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+    </row>
+    <row r="86" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A86" s="1">
+        <v>179</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C86" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>DanhGiaCongChucVienChucController</v>
+      </c>
+      <c r="D86" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>DanhGiaCongChucVienChuc</v>
+      </c>
+      <c r="E86" s="2">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G86" s="6"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+    </row>
+    <row r="87" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A87" s="1">
+        <v>180</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C87" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>NgachController</v>
+      </c>
+      <c r="D87" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Ngach</v>
+      </c>
+      <c r="E87" s="2">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G87" s="6"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+    </row>
+    <row r="88" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A88" s="1">
+        <v>181</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C88" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>DanhHieuVinhDuGiaiThuongController</v>
+      </c>
+      <c r="D88" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>DanhHieuVinhDuGiaiThuong</v>
+      </c>
+      <c r="E88" s="2">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G88" s="6"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+    </row>
+    <row r="89" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A89" s="1">
+        <v>182</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C89" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>NganhDaoTaoController</v>
+      </c>
+      <c r="D89" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>NganhDaoTao</v>
+      </c>
+      <c r="E89" s="2">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="6"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+    </row>
+    <row r="90" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A90" s="1">
+        <v>183</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C90" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>DanTocController</v>
+      </c>
+      <c r="D90" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>DanToc</v>
+      </c>
+      <c r="E90" s="2">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G90" s="6"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+    </row>
+    <row r="91" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A91" s="1">
+        <v>184</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C91" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>NganhKinhTeController</v>
+      </c>
+      <c r="D91" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>NganhKinhTe</v>
+      </c>
+      <c r="E91" s="2">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="6"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+    </row>
+    <row r="92" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A92" s="1">
+        <v>185</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C92" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>DaoTaoGDQPANController</v>
+      </c>
+      <c r="D92" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>DaoTaoGDQPAN</v>
+      </c>
+      <c r="E92" s="2">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G92" s="6"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+    </row>
+    <row r="93" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A93" s="1">
+        <v>186</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C93" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>NgoaiNguController</v>
+      </c>
+      <c r="D93" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>NgoaiNgu</v>
+      </c>
+      <c r="E93" s="2">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G93" s="6"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+    </row>
+    <row r="94" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A94" s="1">
+        <v>187</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C94" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>DauMoiLienHeController</v>
+      </c>
+      <c r="D94" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>DauMoiLienHe</v>
+      </c>
+      <c r="E94" s="2">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="6"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+    </row>
+    <row r="95" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A95" s="1">
+        <v>188</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C95" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>NguonKinhPhiController</v>
+      </c>
+      <c r="D95" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>NguonKinhPhi</v>
+      </c>
+      <c r="E95" s="2">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G95" s="6"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+    </row>
+    <row r="96" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A96" s="1">
+        <v>189</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C96" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>DoiTuongChinhSachController</v>
+      </c>
+      <c r="D96" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>DoiTuongChinhSach</v>
+      </c>
+      <c r="E96" s="2">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G96" s="6"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+    </row>
+    <row r="97" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A97" s="1">
+        <v>190</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C97" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>NguonKinhPhiChoDeAnController</v>
+      </c>
+      <c r="D97" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>NguonKinhPhiChoDeAn</v>
+      </c>
+      <c r="E97" s="2">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G97" s="6"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+    </row>
+    <row r="98" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A98" s="1">
+        <v>191</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C98" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>DoiTuongDauVaoController</v>
+      </c>
+      <c r="D98" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>DoiTuongDauVao</v>
+      </c>
+      <c r="E98" s="2">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G98" s="6"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+    </row>
+    <row r="99" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A99" s="1">
+        <v>192</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C99" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>NguonKinhPhiChoLuuHocSinhController</v>
+      </c>
+      <c r="D99" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>NguonKinhPhiChoLuuHocSinh</v>
+      </c>
+      <c r="E99" s="2">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G99" s="6"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+    </row>
+    <row r="100" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A100" s="1">
+        <v>193</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C100" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>DoiTuongUuTienController</v>
+      </c>
+      <c r="D100" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>DoiTuongUuTien</v>
+      </c>
+      <c r="E100" s="2">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="6"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+    </row>
+    <row r="101" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A101" s="1">
+        <v>194</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C101" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>NguonKinhPhiCuaGVDuocCuDiDaoTaoController</v>
+      </c>
+      <c r="D101" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>NguonKinhPhiCuaGVDuocCuDiDaoTao</v>
+      </c>
+      <c r="E101" s="2">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="6"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+    </row>
+    <row r="102" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A102" s="1">
+        <v>195</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C102" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>DonViCapBangController</v>
+      </c>
+      <c r="D102" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>DonViCapBang</v>
+      </c>
+      <c r="E102" s="2">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" s="6"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+    </row>
+    <row r="103" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A103" s="1">
+        <v>196</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C103" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>NhomNganhController</v>
+      </c>
+      <c r="D103" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>NhomNganh</v>
+      </c>
+      <c r="E103" s="2">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G103" s="6"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+    </row>
+    <row r="104" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A104" s="1">
+        <v>197</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C104" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>GioiTinhController</v>
+      </c>
+      <c r="D104" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>GioiTinh</v>
+      </c>
+      <c r="E104" s="2">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G104" s="6"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
+    </row>
+    <row r="105" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A105" s="1">
+        <v>198</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C105" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>NoiDungHoatDongController</v>
+      </c>
+      <c r="D105" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>NoiDungHoatDong</v>
+      </c>
+      <c r="E105" s="2">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G105" s="6"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+    </row>
+    <row r="106" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A106" s="1">
+        <v>199</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C106" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>HangThuongBinhController</v>
+      </c>
+      <c r="D106" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>HangThuongBinh</v>
+      </c>
+      <c r="E106" s="2">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G106" s="6"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+    </row>
+    <row r="107" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A107" s="1">
+        <v>200</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C107" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>NoiDungHoatDongTaiVietNamController</v>
+      </c>
+      <c r="D107" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>NoiDungHoatDongTaiVietNam</v>
+      </c>
+      <c r="E107" s="2">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G107" s="6"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+    </row>
+    <row r="108" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A108" s="1">
+        <v>201</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C108" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>HeSoLuongController</v>
+      </c>
+      <c r="D108" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>HeSoLuong</v>
+      </c>
+      <c r="E108" s="2">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G108" s="6"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+    </row>
+    <row r="109" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A109" s="1">
+        <v>202</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C109" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>PhanCapNhiemVuController</v>
+      </c>
+      <c r="D109" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>PhanCapNhiemVu</v>
+      </c>
+      <c r="E109" s="2">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G109" s="6"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+    </row>
+    <row r="110" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A110" s="1">
+        <v>203</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C110" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>HinhThucBoNhiemController</v>
+      </c>
+      <c r="D110" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>HinhThucBoNhiem</v>
+      </c>
+      <c r="E110" s="2">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G110" s="6"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+    </row>
+    <row r="111" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A111" s="1">
+        <v>204</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C111" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>PhanLoaiCoSoController</v>
+      </c>
+      <c r="D111" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>PhanLoaiCoSo</v>
+      </c>
+      <c r="E111" s="2">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G111" s="6"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+    </row>
+    <row r="112" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A112" s="1">
+        <v>205</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C112" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>HinhThucChuyenGiaoCongNgheController</v>
+      </c>
+      <c r="D112" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>HinhThucChuyenGiaoCongNghe</v>
+      </c>
+      <c r="E112" s="2">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G112" s="6"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+    </row>
+    <row r="113" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A113" s="1">
+        <v>206</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C113" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>PhanLoaiCSVCController</v>
+      </c>
+      <c r="D113" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>PhanLoaiCSVC</v>
+      </c>
+      <c r="E113" s="2">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G113" s="6"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+    </row>
+    <row r="114" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A114" s="1">
+        <v>207</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C114" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>HinhThucDaoTaoController</v>
+      </c>
+      <c r="D114" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>HinhThucDaoTao</v>
+      </c>
+      <c r="E114" s="2">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G114" s="6"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
+    </row>
+    <row r="115" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A115" s="1">
+        <v>208</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C115" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>PhanLoaiDoanRaDoanVaoController</v>
+      </c>
+      <c r="D115" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>PhanLoaiDoanRaDoanVao</v>
+      </c>
+      <c r="E115" s="2">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G115" s="6"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
+    </row>
+    <row r="116" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A116" s="1">
+        <v>209</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C116" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>HinhThucDaoTaoTheoChuyenNguController</v>
+      </c>
+      <c r="D116" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>HinhThucDaoTaoTheoChuyenNgu</v>
+      </c>
+      <c r="E116" s="2">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G116" s="6"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+    </row>
+    <row r="117" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A117" s="1">
+        <v>210</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C117" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>PhanLoaiDoiNguNguoiHocController</v>
+      </c>
+      <c r="D117" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>PhanLoaiDoiNguNguoiHoc</v>
+      </c>
+      <c r="E117" s="2">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G117" s="6"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+    </row>
+    <row r="118" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A118" s="1">
+        <v>211</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C118" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>HinhThucDoanhNghiepKHCNController</v>
+      </c>
+      <c r="D118" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>HinhThucDoanhNghiepKHCN</v>
+      </c>
+      <c r="E118" s="2">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G118" s="6"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
+    </row>
+    <row r="119" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A119" s="1">
+        <v>212</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C119" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>PhanLoaiDoiTuongController</v>
+      </c>
+      <c r="D119" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>PhanLoaiDoiTuong</v>
+      </c>
+      <c r="E119" s="2">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G119" s="6"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
+    </row>
+    <row r="120" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A120" s="1">
+        <v>213</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C120" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>HinhThucHopTacController</v>
+      </c>
+      <c r="D120" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>HinhThucHopTac</v>
+      </c>
+      <c r="E120" s="2">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G120" s="6"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
+    </row>
+    <row r="121" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A121" s="1">
+        <v>214</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C121" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>PhanLoaiHoiNghiHoiThaoController</v>
+      </c>
+      <c r="D121" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>PhanLoaiHoiNghiHoiThao</v>
+      </c>
+      <c r="E121" s="2">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G121" s="6"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="L121" s="2"/>
+      <c r="M121" s="2"/>
+    </row>
+    <row r="122" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A122" s="1">
+        <v>215</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C122" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>HinhThucSoHuuController</v>
+      </c>
+      <c r="D122" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>HinhThucSoHuu</v>
+      </c>
+      <c r="E122" s="2">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G122" s="6"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="L122" s="2"/>
+      <c r="M122" s="2"/>
+    </row>
+    <row r="123" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A123" s="1">
+        <v>216</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C123" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>PhanLoaiThuChiController</v>
+      </c>
+      <c r="D123" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>PhanLoaiThuChi</v>
+      </c>
+      <c r="E123" s="2">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G123" s="6"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="L123" s="2"/>
+      <c r="M123" s="2"/>
+    </row>
+    <row r="124" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A124" s="1">
+        <v>217</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C124" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>HinhThucThamGiaGVDuocCuDiDaoTaoController</v>
+      </c>
+      <c r="D124" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>HinhThucThamGiaGVDuocCuDiDaoTao</v>
+      </c>
+      <c r="E124" s="2">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G124" s="6"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="L124" s="2"/>
+      <c r="M124" s="2"/>
+    </row>
+    <row r="125" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A125" s="1">
+        <v>218</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C125" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>PhuongThucKhenThuongController</v>
+      </c>
+      <c r="D125" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>PhuongThucKhenThuong</v>
+      </c>
+      <c r="E125" s="2">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G125" s="6"/>
+      <c r="H125" s="9"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
+    </row>
+    <row r="126" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A126" s="1">
+        <v>219</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C126" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>HinhThucThanhLapController</v>
+      </c>
+      <c r="D126" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>HinhThucThanhLap</v>
+      </c>
+      <c r="E126" s="2">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G126" s="6"/>
+      <c r="H126" s="9"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="L126" s="2"/>
+      <c r="M126" s="2"/>
+    </row>
+    <row r="127" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A127" s="1">
+        <v>220</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C127" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>QuanHamController</v>
+      </c>
+      <c r="D127" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>QuanHam</v>
+      </c>
+      <c r="E127" s="2">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G127" s="6"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="L127" s="2"/>
+      <c r="M127" s="2"/>
+    </row>
+    <row r="128" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A128" s="1">
+        <v>221</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C128" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>HinhThucTuyenDungController</v>
+      </c>
+      <c r="D128" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>HinhThucTuyenDung</v>
+      </c>
+      <c r="E128" s="2">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G128" s="6"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="L128" s="2"/>
+      <c r="M128" s="2"/>
+    </row>
+    <row r="129" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A129" s="1">
+        <v>222</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C129" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>QuocTichController</v>
+      </c>
+      <c r="D129" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>QuocTich</v>
+      </c>
+      <c r="E129" s="2">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G129" s="6"/>
+      <c r="H129" s="9"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
+    </row>
+    <row r="130" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A130" s="1">
+        <v>223</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C130" s="2" t="str">
+        <f t="shared" ref="C130:C139" si="6">CONCATENATE(D130,"Controller")</f>
+        <v>HinhThucTuyenSinhController</v>
+      </c>
+      <c r="D130" s="2" t="str">
+        <f t="shared" ref="D130:D139" si="7">RIGHT(B130,E130-2)</f>
+        <v>HinhThucTuyenSinh</v>
+      </c>
+      <c r="E130" s="2">
+        <f t="shared" ref="E130:E139" si="8">LEN(B130)</f>
+        <v>19</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G130" s="6"/>
+      <c r="H130" s="9"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="2"/>
+    </row>
+    <row r="131" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A131" s="1">
+        <v>224</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C131" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>QuyetDinhTuChuController</v>
+      </c>
+      <c r="D131" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>QuyetDinhTuChu</v>
+      </c>
+      <c r="E131" s="2">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G131" s="6"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="L131" s="2"/>
+      <c r="M131" s="2"/>
+    </row>
+    <row r="132" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A132" s="1">
+        <v>225</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C132" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>HoatDongTaiChinhController</v>
+      </c>
+      <c r="D132" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>HoatDongTaiChinh</v>
+      </c>
+      <c r="E132" s="2">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G132" s="6"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="L132" s="2"/>
+      <c r="M132" s="2"/>
+    </row>
+    <row r="133" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A133" s="1">
+        <v>226</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C133" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>SangCheGiaiPhapController</v>
+      </c>
+      <c r="D133" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>SangCheGiaiPhap</v>
+      </c>
+      <c r="E133" s="2">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G133" s="6"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="L133" s="2"/>
+      <c r="M133" s="2"/>
+    </row>
+    <row r="134" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A134" s="1">
+        <v>227</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C134" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>HocCheDaoTaoController</v>
+      </c>
+      <c r="D134" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>HocCheDaoTao</v>
+      </c>
+      <c r="E134" s="2">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G134" s="6"/>
+      <c r="H134" s="9"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="L134" s="2"/>
+      <c r="M134" s="2"/>
+    </row>
+    <row r="135" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A135" s="1">
+        <v>228</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C135" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>SinhVienNamController</v>
+      </c>
+      <c r="D135" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>SinhVienNam</v>
+      </c>
+      <c r="E135" s="2">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G135" s="6"/>
+      <c r="H135" s="9"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="L135" s="2"/>
+      <c r="M135" s="2"/>
+    </row>
+    <row r="136" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A136" s="1">
+        <v>229</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C136" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>HoGiaDinhChinhSachController</v>
+      </c>
+      <c r="D136" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>HoGiaDinhChinhSach</v>
+      </c>
+      <c r="E136" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G136" s="6"/>
+      <c r="H136" s="9"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="L136" s="2"/>
+      <c r="M136" s="2"/>
+    </row>
+    <row r="137" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A137" s="1">
+        <v>230</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C137" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>TapChiKhoaHocQuocTeController</v>
+      </c>
+      <c r="D137" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>TapChiKhoaHocQuocTe</v>
+      </c>
+      <c r="E137" s="2">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G137" s="6"/>
+      <c r="H137" s="9"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="L137" s="2"/>
+      <c r="M137" s="2"/>
+    </row>
+    <row r="138" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A138" s="1">
+        <v>231</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C138" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>HuyenController</v>
+      </c>
+      <c r="D138" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Huyen</v>
+      </c>
+      <c r="E138" s="2">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G138" s="6"/>
+      <c r="H138" s="9"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="L138" s="2"/>
+      <c r="M138" s="2"/>
+    </row>
+    <row r="139" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A139" s="1">
+        <v>232</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C139" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>BacLuongController</v>
+      </c>
+      <c r="D139" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>BacLuong</v>
+      </c>
+      <c r="E139" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G139" s="6"/>
+      <c r="H139" s="9"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="L139" s="2"/>
+      <c r="M139" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/C500Hemis/TaiLieu/BangHemis.xlsx
+++ b/C500Hemis/TaiLieu/BangHemis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lap trinh may tinh\Code\C500Hemis\C500Hemis\TaiLieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C5D0EE-9E4D-4DF3-BCA5-04D964773748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA35E70-7098-4D3F-A743-A1E8AD3A5517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="98" yWindow="68" windowWidth="8399" windowHeight="12382" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tạo controller-B9" sheetId="2" r:id="rId1"/>
@@ -20,10 +20,12 @@
     <sheet name="DemTruong" sheetId="4" r:id="rId5"/>
     <sheet name="View" sheetId="6" r:id="rId6"/>
     <sheet name="DM" sheetId="7" r:id="rId7"/>
+    <sheet name="LanAnh" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Đăng ký thi giữa phần'!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">DemTruong!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">LanAnh!$A$2:$E$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Triển khai các controller'!$A$2:$C$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">View!$A$1:$F$1</definedName>
   </definedNames>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="458">
   <si>
     <t>tbHoatDongTaiChinh</t>
   </si>
@@ -1516,7 +1518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1584,11 +1586,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2014,10 +2025,10 @@
       <c r="B9" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="28">
         <v>8</v>
       </c>
     </row>
@@ -2028,8 +2039,8 @@
       <c r="B10" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A11" s="21">
@@ -2068,7 +2079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J234"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
@@ -2088,31 +2099,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>375</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="15" t="s">
         <v>293</v>
       </c>
@@ -11295,8 +11306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C87645-A414-4C17-8A6C-82C75FCFAF15}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12124,8 +12135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC7CEC7-B6AF-4CC3-BFC3-94657CAAD66A}">
   <dimension ref="A1:M139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.5"/>
@@ -16178,4 +16189,1824 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4A2D16-A3A0-47BE-B691-95D6AE66D8F8}">
+  <dimension ref="A1:E95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93:B95"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="6.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="62.796875" style="26" customWidth="1"/>
+    <col min="3" max="3" width="30.86328125" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="60.59765625" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.06640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="3" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="17">
+        <v>1</v>
+      </c>
+      <c r="B3" s="30" t="str">
+        <f>CONCATENATE(C3,"Controller")</f>
+        <v>QuaTrinhCongTacCuaCanBoController</v>
+      </c>
+      <c r="C3" s="30" t="str">
+        <f>RIGHT(D3,LEN(D3)-2)</f>
+        <v>QuaTrinhCongTacCuaCanBo</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="17">
+        <v>2</v>
+      </c>
+      <c r="B4" s="30" t="str">
+        <f t="shared" ref="B4:B67" si="0">CONCATENATE(C4,"Controller")</f>
+        <v>QuaTrinhDaoTaoCuaCanBoController</v>
+      </c>
+      <c r="C4" s="30" t="str">
+        <f t="shared" ref="C4:C67" si="1">RIGHT(D4,LEN(D4)-2)</f>
+        <v>QuaTrinhDaoTaoCuaCanBo</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="17">
+        <v>3</v>
+      </c>
+      <c r="B5" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>TrinhDoTiengDanTocController</v>
+      </c>
+      <c r="C5" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>TrinhDoTiengDanToc</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="17">
+        <v>4</v>
+      </c>
+      <c r="B6" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>CanBoController</v>
+      </c>
+      <c r="C6" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>CanBo</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="17">
+        <v>5</v>
+      </c>
+      <c r="B7" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>CanBoHuongDanThanhCongSinhVienController</v>
+      </c>
+      <c r="C7" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>CanBoHuongDanThanhCongSinhVien</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="17">
+        <v>6</v>
+      </c>
+      <c r="B8" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>ChucDanhKhoaHocCuaCanBoController</v>
+      </c>
+      <c r="C8" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>ChucDanhKhoaHocCuaCanBo</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="17">
+        <v>7</v>
+      </c>
+      <c r="B9" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>DanhGiaXepLoaiCanBoController</v>
+      </c>
+      <c r="C9" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>DanhGiaXepLoaiCanBo</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="17">
+        <v>8</v>
+      </c>
+      <c r="B10" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>DanhHieuThiDuaGiaiThuongKhenThuongCanBoController</v>
+      </c>
+      <c r="C10" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>DanhHieuThiDuaGiaiThuongKhenThuongCanBo</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="17">
+        <v>9</v>
+      </c>
+      <c r="B11" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>DienBienLuongController</v>
+      </c>
+      <c r="C11" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>DienBienLuong</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="17">
+        <v>10</v>
+      </c>
+      <c r="B12" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>DoiTuongChinhSachCanBoController</v>
+      </c>
+      <c r="C12" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>DoiTuongChinhSachCanBo</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="17">
+        <v>11</v>
+      </c>
+      <c r="B13" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>DonViCongTacCuaCanBoController</v>
+      </c>
+      <c r="C13" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>DonViCongTacCuaCanBo</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="17">
+        <v>12</v>
+      </c>
+      <c r="B14" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>DonViThinhGiangCuaCanBoController</v>
+      </c>
+      <c r="C14" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>DonViThinhGiangCuaCanBo</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="11">
+        <v>13</v>
+      </c>
+      <c r="B15" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>GiangVienNNController</v>
+      </c>
+      <c r="C15" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>GiangVienNN</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="11">
+        <v>14</v>
+      </c>
+      <c r="B16" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>GiaoVienQPANController</v>
+      </c>
+      <c r="C16" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>GiaoVienQPAN</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="11">
+        <v>15</v>
+      </c>
+      <c r="B17" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>HopDongController</v>
+      </c>
+      <c r="C17" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>HopDong</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="11">
+        <v>16</v>
+      </c>
+      <c r="B18" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>HopDongThinhGiangController</v>
+      </c>
+      <c r="C18" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>HopDongThinhGiang</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="11">
+        <v>17</v>
+      </c>
+      <c r="B19" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>KhoaBoiDuongTapHuanThamGiaCuaCanBoController</v>
+      </c>
+      <c r="C19" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>KhoaBoiDuongTapHuanThamGiaCuaCanBo</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="11">
+        <v>18</v>
+      </c>
+      <c r="B20" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>KyLuatCanBoController</v>
+      </c>
+      <c r="C20" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>KyLuatCanBo</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="11">
+        <v>19</v>
+      </c>
+      <c r="B21" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>LinhVucNghienCuuCuaCanBoController</v>
+      </c>
+      <c r="C21" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>LinhVucNghienCuuCuaCanBo</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="11">
+        <v>20</v>
+      </c>
+      <c r="B22" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>NganhDungTenGiangDayController</v>
+      </c>
+      <c r="C22" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>NganhDungTenGiangDay</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="11">
+        <v>21</v>
+      </c>
+      <c r="B23" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>NganhGiangDayCuaCanBoController</v>
+      </c>
+      <c r="C23" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>NganhGiangDayCuaCanBo</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="13">
+        <v>22</v>
+      </c>
+      <c r="B24" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>PhuCapController</v>
+      </c>
+      <c r="C24" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>PhuCap</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="13">
+        <v>23</v>
+      </c>
+      <c r="B25" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>CoCauToChucController</v>
+      </c>
+      <c r="C25" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>CoCauToChuc</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="13">
+        <v>24</v>
+      </c>
+      <c r="B26" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>CoSoGiaoDucController</v>
+      </c>
+      <c r="C26" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>CoSoGiaoDuc</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="9">
+        <v>25</v>
+      </c>
+      <c r="B27" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>DanhHieuThiDuaGiaiThuongKhenThuongCuaCoSoGDController</v>
+      </c>
+      <c r="C27" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>DanhHieuThiDuaGiaiThuongKhenThuongCuaCoSoGD</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="9">
+        <v>26</v>
+      </c>
+      <c r="B28" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>DauMoiLienHeController</v>
+      </c>
+      <c r="C28" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>DauMoiLienHe</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="9">
+        <v>27</v>
+      </c>
+      <c r="B29" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>DonViLienKetDaoTaoGiaoDucController</v>
+      </c>
+      <c r="C29" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>DonViLienKetDaoTaoGiaoDuc</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="9">
+        <v>28</v>
+      </c>
+      <c r="B30" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>KhoaHocController</v>
+      </c>
+      <c r="C30" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>KhoaHoc</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="9">
+        <v>29</v>
+      </c>
+      <c r="B31" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>LichSuDoiTenTruongController</v>
+      </c>
+      <c r="C31" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>LichSuDoiTenTruong</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="9">
+        <v>30</v>
+      </c>
+      <c r="B32" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>ToChucKiemDinhController</v>
+      </c>
+      <c r="C32" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>ToChucKiemDinh</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="9">
+        <v>31</v>
+      </c>
+      <c r="B33" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>VanBanTuChuController</v>
+      </c>
+      <c r="C33" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>VanBanTuChu</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="9">
+        <v>32</v>
+      </c>
+      <c r="B34" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>CongTrinhCoSoVatChatController</v>
+      </c>
+      <c r="C34" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>CongTrinhCoSoVatChat</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="9">
+        <v>33</v>
+      </c>
+      <c r="B35" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>DatDaiController</v>
+      </c>
+      <c r="C35" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>DatDai</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="9">
+        <v>34</v>
+      </c>
+      <c r="B36" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>KiTucXaController</v>
+      </c>
+      <c r="C36" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>KiTucXa</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="9">
+        <v>35</v>
+      </c>
+      <c r="B37" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>PhongHocGiangDuongHoiTruongController</v>
+      </c>
+      <c r="C37" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>PhongHocGiangDuongHoiTruong</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="9">
+        <v>36</v>
+      </c>
+      <c r="B38" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>PhongThiNghiemController</v>
+      </c>
+      <c r="C38" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>PhongThiNghiem</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="9">
+        <v>37</v>
+      </c>
+      <c r="B39" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>PhongThucHanhController</v>
+      </c>
+      <c r="C39" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>PhongThucHanh</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="9">
+        <v>38</v>
+      </c>
+      <c r="B40" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>ThietBiPTN_THTren500TrController</v>
+      </c>
+      <c r="C40" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>ThietBiPTN_THTren500Tr</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="9">
+        <v>39</v>
+      </c>
+      <c r="B41" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>ThuVienTrungTamHocLieuController</v>
+      </c>
+      <c r="C41" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>ThuVienTrungTamHocLieu</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A42" s="9">
+        <v>40</v>
+      </c>
+      <c r="B42" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>ChuongTrinhDaoTaoController</v>
+      </c>
+      <c r="C42" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>ChuongTrinhDaoTao</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="9">
+        <v>41</v>
+      </c>
+      <c r="B43" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>GiaHanChuongTrinhDaoTaoController</v>
+      </c>
+      <c r="C43" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>GiaHanChuongTrinhDaoTao</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="9">
+        <v>42</v>
+      </c>
+      <c r="B44" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>NamApDungChuongTrinhController</v>
+      </c>
+      <c r="C44" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>NamApDungChuongTrinh</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A45" s="9">
+        <v>43</v>
+      </c>
+      <c r="B45" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>NgonNguGiangDayController</v>
+      </c>
+      <c r="C45" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>NgonNguGiangDay</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A46" s="9">
+        <v>44</v>
+      </c>
+      <c r="B46" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>QuyetDinhCapPhepChuongTrinhDungChoChuongTrinhNuocNgoaiController</v>
+      </c>
+      <c r="C46" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>QuyetDinhCapPhepChuongTrinhDungChoChuongTrinhNuocNgoai</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A47" s="9">
+        <v>45</v>
+      </c>
+      <c r="B47" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>ThongTinKiemDinhCuaChuongTrinhController</v>
+      </c>
+      <c r="C47" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>ThongTinKiemDinhCuaChuongTrinh</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="9">
+        <v>46</v>
+      </c>
+      <c r="B48" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>NguoiController</v>
+      </c>
+      <c r="C48" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Nguoi</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="9">
+        <v>47</v>
+      </c>
+      <c r="B49" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>ToChucHopTacDoanhNghiepController</v>
+      </c>
+      <c r="C49" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>ToChucHopTacDoanhNghiep</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A50" s="9">
+        <v>48</v>
+      </c>
+      <c r="B50" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>DeAnDuAnChuongTrinhController</v>
+      </c>
+      <c r="C50" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>DeAnDuAnChuongTrinh</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A51" s="9">
+        <v>49</v>
+      </c>
+      <c r="B51" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>DoanCongTacController</v>
+      </c>
+      <c r="C51" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>DoanCongTac</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A52" s="9">
+        <v>50</v>
+      </c>
+      <c r="B52" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>GVDuocCuDiDaoTaoController</v>
+      </c>
+      <c r="C52" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>GVDuocCuDiDaoTao</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A53" s="9">
+        <v>51</v>
+      </c>
+      <c r="B53" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>HoiThaoHoiNghiController</v>
+      </c>
+      <c r="C53" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>HoiThaoHoiNghi</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A54" s="9">
+        <v>52</v>
+      </c>
+      <c r="B54" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>LuuHocSinhSinhVienNNController</v>
+      </c>
+      <c r="C54" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>LuuHocSinhSinhVienNN</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A55" s="9">
+        <v>53</v>
+      </c>
+      <c r="B55" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>ThanhPhanThamGiaDoanCongTacController</v>
+      </c>
+      <c r="C55" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>ThanhPhanThamGiaDoanCongTac</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="9">
+        <v>54</v>
+      </c>
+      <c r="B56" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>ThoaThuanHopTacQuocTeController</v>
+      </c>
+      <c r="C56" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>ThoaThuanHopTacQuocTe</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="9">
+        <v>55</v>
+      </c>
+      <c r="B57" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>ThongTinHopTacController</v>
+      </c>
+      <c r="C57" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>ThongTinHopTac</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="9">
+        <v>56</v>
+      </c>
+      <c r="B58" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>ToChucHopTacQuocTeController</v>
+      </c>
+      <c r="C58" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>ToChucHopTacQuocTe</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="9">
+        <v>57</v>
+      </c>
+      <c r="B59" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>BaiBaoKHDaCongBoController</v>
+      </c>
+      <c r="C59" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>BaiBaoKHDaCongBo</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="9">
+        <v>58</v>
+      </c>
+      <c r="B60" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>ChuyenGiaoCongNgheVaDaoTaoController</v>
+      </c>
+      <c r="C60" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>ChuyenGiaoCongNgheVaDaoTao</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="9">
+        <v>59</v>
+      </c>
+      <c r="B61" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>DoanhNghiepKHCNController</v>
+      </c>
+      <c r="C61" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>DoanhNghiepKHCN</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A62" s="9">
+        <v>60</v>
+      </c>
+      <c r="B62" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>DoiTuongThamGiaController</v>
+      </c>
+      <c r="C62" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>DoiTuongThamGia</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A63" s="9">
+        <v>61</v>
+      </c>
+      <c r="B63" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>GiaiThuongKhoaHocController</v>
+      </c>
+      <c r="C63" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>GiaiThuongKhoaHoc</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A64" s="9">
+        <v>62</v>
+      </c>
+      <c r="B64" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>HoatDongBaoVeMoiTruongController</v>
+      </c>
+      <c r="C64" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>HoatDongBaoVeMoiTruong</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A65" s="9">
+        <v>63</v>
+      </c>
+      <c r="B65" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>NhiemVuKHCNController</v>
+      </c>
+      <c r="C65" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>NhiemVuKHCN</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A66" s="9">
+        <v>64</v>
+      </c>
+      <c r="B66" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>NhomNghienCuuManhController</v>
+      </c>
+      <c r="C66" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>NhomNghienCuuManh</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A67" s="9">
+        <v>65</v>
+      </c>
+      <c r="B67" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>SachDaXuatBanController</v>
+      </c>
+      <c r="C67" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>SachDaXuatBan</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A68" s="9">
+        <v>66</v>
+      </c>
+      <c r="B68" s="30" t="str">
+        <f t="shared" ref="B68:B95" si="2">CONCATENATE(C68,"Controller")</f>
+        <v>TaiSanTriTueController</v>
+      </c>
+      <c r="C68" s="30" t="str">
+        <f t="shared" ref="C68:C95" si="3">RIGHT(D68,LEN(D68)-2)</f>
+        <v>TaiSanTriTue</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A69" s="9">
+        <v>67</v>
+      </c>
+      <c r="B69" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>TapChiKhoaHocController</v>
+      </c>
+      <c r="C69" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>TapChiKhoaHoc</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A70" s="9">
+        <v>68</v>
+      </c>
+      <c r="B70" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>DanhSachNganhDaoTaoController</v>
+      </c>
+      <c r="C70" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>DanhSachNganhDaoTao</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A71" s="9">
+        <v>69</v>
+      </c>
+      <c r="B71" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>HinhThucDaoTaoCuaNganhController</v>
+      </c>
+      <c r="C71" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>HinhThucDaoTaoCuaNganh</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A72" s="9">
+        <v>70</v>
+      </c>
+      <c r="B72" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>KhoiNganhDaoTaoController</v>
+      </c>
+      <c r="C72" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>KhoiNganhDaoTao</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A73" s="9">
+        <v>71</v>
+      </c>
+      <c r="B73" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>LoaiHinhDaoTaoKhacDuocChoPhepMoNganhController</v>
+      </c>
+      <c r="C73" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>LoaiHinhDaoTaoKhacDuocChoPhepMoNganh</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A74" s="9">
+        <v>72</v>
+      </c>
+      <c r="B74" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>NhomNganhDaoTaoController</v>
+      </c>
+      <c r="C74" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>NhomNganhDaoTao</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A75" s="9">
+        <v>73</v>
+      </c>
+      <c r="B75" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>ThongTinLinhVucDaoTaoController</v>
+      </c>
+      <c r="C75" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>ThongTinLinhVucDaoTao</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A76" s="9">
+        <v>74</v>
+      </c>
+      <c r="B76" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>DanhHieuThiDuaGiaiThuongKhenThuongNguoiHocController</v>
+      </c>
+      <c r="C76" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>DanhHieuThiDuaGiaiThuongKhenThuongNguoiHoc</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A77" s="9">
+        <v>75</v>
+      </c>
+      <c r="B77" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>HocVienController</v>
+      </c>
+      <c r="C77" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>HocVien</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A78" s="9">
+        <v>76</v>
+      </c>
+      <c r="B78" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>KyLuatNguoiHocController</v>
+      </c>
+      <c r="C78" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>KyLuatNguoiHoc</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A79" s="9">
+        <v>77</v>
+      </c>
+      <c r="B79" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>NguoiHocVayTinDungController</v>
+      </c>
+      <c r="C79" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>NguoiHocVayTinDung</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A80" s="9">
+        <v>78</v>
+      </c>
+      <c r="B80" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>ThongTinHocBongController</v>
+      </c>
+      <c r="C80" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>ThongTinHocBong</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A81" s="9">
+        <v>79</v>
+      </c>
+      <c r="B81" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>ThongTinHocTapNghienCuuSinhController</v>
+      </c>
+      <c r="C81" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>ThongTinHocTapNghienCuuSinh</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A82" s="9">
+        <v>80</v>
+      </c>
+      <c r="B82" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>ThongTinHocTapSinhVienController</v>
+      </c>
+      <c r="C82" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>ThongTinHocTapSinhVien</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A83" s="9">
+        <v>81</v>
+      </c>
+      <c r="B83" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>ThongTinNguoiHocGDTCController</v>
+      </c>
+      <c r="C83" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>ThongTinNguoiHocGDTC</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A84" s="9">
+        <v>82</v>
+      </c>
+      <c r="B84" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>ThongTinViecLamSauTotNghiepController</v>
+      </c>
+      <c r="C84" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>ThongTinViecLamSauTotNghiep</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A85" s="9">
+        <v>83</v>
+      </c>
+      <c r="B85" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>ThongTinViPhamController</v>
+      </c>
+      <c r="C85" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>ThongTinViPham</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A86" s="9">
+        <v>84</v>
+      </c>
+      <c r="B86" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>HoatDongTaiChinhController</v>
+      </c>
+      <c r="C86" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>HoatDongTaiChinh</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A87" s="9">
+        <v>85</v>
+      </c>
+      <c r="B87" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>KhoanNopNganSachController</v>
+      </c>
+      <c r="C87" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>KhoanNopNganSach</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A88" s="9">
+        <v>86</v>
+      </c>
+      <c r="B88" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>KhoanTrichLapQuyController</v>
+      </c>
+      <c r="C88" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>KhoanTrichLapQuy</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A89" s="9">
+        <v>87</v>
+      </c>
+      <c r="B89" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>LoaiThuChiController</v>
+      </c>
+      <c r="C89" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>LoaiThuChi</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A90" s="9">
+        <v>88</v>
+      </c>
+      <c r="B90" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>TaiSanDonViController</v>
+      </c>
+      <c r="C90" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>TaiSanDonVi</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A91" s="9">
+        <v>89</v>
+      </c>
+      <c r="B91" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>ChiTietTaiSanDonViController</v>
+      </c>
+      <c r="C91" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>ChiTietTaiSanDonVi</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A92" s="9">
+        <v>90</v>
+      </c>
+      <c r="B92" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>ChiTietThuChiController</v>
+      </c>
+      <c r="C92" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>ChiTietThuChi</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A93" s="9">
+        <v>91</v>
+      </c>
+      <c r="B93" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>ChiTieuTuyenSinhTheoNganhController</v>
+      </c>
+      <c r="C93" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>ChiTieuTuyenSinhTheoNganh</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A94" s="9">
+        <v>92</v>
+      </c>
+      <c r="B94" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>DuLieuTrungTuyenController</v>
+      </c>
+      <c r="C94" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>DuLieuTrungTuyen</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A95" s="9">
+        <v>93</v>
+      </c>
+      <c r="B95" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>DanhSachVanBangChungChiController</v>
+      </c>
+      <c r="C95" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>DanhSachVanBangChungChi</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:E2" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E235">
+      <sortCondition ref="E2"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/C500Hemis/TaiLieu/BangHemis.xlsx
+++ b/C500Hemis/TaiLieu/BangHemis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lap trinh may tinh\Code\C500Hemis\C500Hemis\TaiLieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA35E70-7098-4D3F-A743-A1E8AD3A5517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCF696B-CFCA-4C08-970D-0E6629EC0B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="98" yWindow="68" windowWidth="8399" windowHeight="12382" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tạo controller-B9" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">DemTruong!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">LanAnh!$A$2:$E$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Triển khai các controller'!$A$2:$C$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">View!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">View!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1586,6 +1586,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1594,12 +1600,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2025,10 +2025,10 @@
       <c r="B9" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="30">
         <v>8</v>
       </c>
     </row>
@@ -2039,8 +2039,8 @@
       <c r="B10" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
     </row>
     <row r="11" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A11" s="21">
@@ -2099,31 +2099,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="31" t="s">
         <v>375</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="15" t="s">
         <v>293</v>
       </c>
@@ -11304,826 +11304,1115 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C87645-A414-4C17-8A6C-82C75FCFAF15}">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.06640625" customWidth="1"/>
-    <col min="2" max="2" width="56.796875" customWidth="1"/>
-    <col min="3" max="3" width="28.796875" customWidth="1"/>
-    <col min="4" max="4" width="95.3984375" customWidth="1"/>
+    <col min="2" max="2" width="20.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.796875" customWidth="1"/>
+    <col min="4" max="4" width="28.796875" customWidth="1"/>
+    <col min="5" max="5" width="95.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="25" t="s">
         <v>455</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="C1" s="25" t="s">
         <v>456</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="25" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="str">
+        <f>CONCATENATE(C2, "Controller")</f>
+        <v>vCoCauToChucController</v>
+      </c>
+      <c r="C2" t="s">
         <v>334</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B66" si="0">CONCATENATE(C3, "Controller")</f>
+        <v>vCoSoGiaoDucController</v>
+      </c>
+      <c r="C3" t="s">
         <v>370</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>vDanhHieuThiDuaGiaiThuongKhenThuongCuaCoSoGDController</v>
+      </c>
+      <c r="C4" t="s">
         <v>328</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>vDauMoiLienHeController</v>
+      </c>
+      <c r="C5" t="s">
         <v>308</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>vDonViLienKetDaoTaoGiaoDucController</v>
+      </c>
+      <c r="C6" t="s">
         <v>325</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>vKhoaHocController</v>
+      </c>
+      <c r="C7" t="s">
         <v>301</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>vLichSuDoiTenTruongController</v>
+      </c>
+      <c r="C8" t="s">
         <v>317</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>vToChucKiemDinhController</v>
+      </c>
+      <c r="C9" t="s">
         <v>321</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>vVanBanTuChuController</v>
+      </c>
+      <c r="C10" t="s">
         <v>320</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>53</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>vCongTrinhCoSoVatChatController</v>
+      </c>
+      <c r="C11" t="s">
         <v>357</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>53</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>vDatDaiController</v>
+      </c>
+      <c r="C12" t="s">
         <v>348</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>53</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>vKiTucXaController</v>
+      </c>
+      <c r="C13" t="s">
         <v>332</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>53</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>vPhongHocGiangDuongHoiTruongController</v>
+      </c>
+      <c r="C14" t="s">
         <v>353</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>53</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>vPhongThiNghiemController</v>
+      </c>
+      <c r="C15" t="s">
         <v>323</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>53</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>vPhongThucHanhController</v>
+      </c>
+      <c r="C16" t="s">
         <v>311</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>53</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>vThietBiPTN_THTren500TrController</v>
+      </c>
+      <c r="C17" t="s">
         <v>343</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>53</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>vThuVienTrungTamHocLieuController</v>
+      </c>
+      <c r="C18" t="s">
         <v>363</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>76</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>vChuongTrinhDaoTaoController</v>
+      </c>
+      <c r="C19" t="s">
         <v>366</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>76</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>vGiaHanChuongTrinhDaoTaoController</v>
+      </c>
+      <c r="C20" t="s">
         <v>326</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>76</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>vNamApdungChuongTrinhController</v>
+      </c>
+      <c r="C21" t="s">
         <v>329</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>76</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>vNgonNguGiangDayController</v>
+      </c>
+      <c r="C22" t="s">
         <v>313</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>76</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>vQuyetDinhCapPhepChuongTrinhDungChoChuongTrinhNuocNgoaiController</v>
+      </c>
+      <c r="C23" t="s">
         <v>330</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>76</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>vThongTinKiemDinhCuaChuongTrinhController</v>
+      </c>
+      <c r="C24" t="s">
         <v>337</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>165</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>vNguoiController</v>
+      </c>
+      <c r="C25" t="s">
         <v>371</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>105</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>vToChucHopTacDoanhNghiepController</v>
+      </c>
+      <c r="C26" t="s">
         <v>338</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>109</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>vDeAnDuAnChuongTrinhController</v>
+      </c>
+      <c r="C27" t="s">
         <v>340</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>109</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>vDoanCongTacController</v>
+      </c>
+      <c r="C28" t="s">
         <v>352</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>109</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>vGVDuocCuDiDaoTaoController</v>
+      </c>
+      <c r="C29" t="s">
         <v>342</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>109</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>vHoiThaoHoiNghiController</v>
+      </c>
+      <c r="C30" t="s">
         <v>355</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>109</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>vLuuHocSinhSinhVienNNController</v>
+      </c>
+      <c r="C31" t="s">
         <v>304</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>109</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>vThanhPhanThamGiaDoanCongTacController</v>
+      </c>
+      <c r="C32" t="s">
         <v>306</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>109</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>vThoaThuanHopTacQuocTeController</v>
+      </c>
+      <c r="C33" t="s">
         <v>344</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>109</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>vThongTinHopTacController</v>
+      </c>
+      <c r="C34" t="s">
         <v>351</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>109</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>vToChucHopTacQuocTeController</v>
+      </c>
+      <c r="C35" t="s">
         <v>339</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>137</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>vBaiBaoKHDaCongBoController</v>
+      </c>
+      <c r="C36" t="s">
         <v>356</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>137</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>vChuyenGiaoCongNgheVaDaoTaoController</v>
+      </c>
+      <c r="C37" t="s">
         <v>361</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>137</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>vDoanhNghiepKHCNController</v>
+      </c>
+      <c r="C38" t="s">
         <v>333</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>137</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>vDoiTuongThamGiaController</v>
+      </c>
+      <c r="C39" t="s">
         <v>324</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>137</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>vGiaiThuongKhoaHocController</v>
+      </c>
+      <c r="C40" t="s">
         <v>341</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>137</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>vHoatDongBaoVeMoiTruongController</v>
+      </c>
+      <c r="C41" t="s">
         <v>358</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>137</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>vNhiemVuKHCNController</v>
+      </c>
+      <c r="C42" t="s">
         <v>360</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>137</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>vNhomNghienCuuManhController</v>
+      </c>
+      <c r="C43" t="s">
         <v>331</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>137</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>vSachDaXuatBanController</v>
+      </c>
+      <c r="C44" t="s">
         <v>354</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>137</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>vTaiSanTriTueController</v>
+      </c>
+      <c r="C45" t="s">
         <v>362</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>137</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>vTapChiKhoaHocController</v>
+      </c>
+      <c r="C46" t="s">
         <v>335</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>175</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>vDanhSachNganhDaoTaoController</v>
+      </c>
+      <c r="C47" t="s">
         <v>367</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>175</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>vHinhThucDaoTaoCuaNganhController</v>
+      </c>
+      <c r="C48" t="s">
         <v>303</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>175</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>vKhoiNganhDaoTaoController</v>
+      </c>
+      <c r="C49" t="s">
         <v>300</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>175</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>vLoaiHinhDaoTaoKhacDuocChoPhepMoNganhController</v>
+      </c>
+      <c r="C50" t="s">
         <v>318</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>175</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>vNhomNganhDaoTaoController</v>
+      </c>
+      <c r="C51" t="s">
         <v>305</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>175</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>vThongTinLinhVucDaoTaoController</v>
+      </c>
+      <c r="C52" t="s">
         <v>302</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>200</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>vDanhHieuThiDuaGiaiThuongKhenThuongNguoiHocController</v>
+      </c>
+      <c r="C53" t="s">
         <v>349</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>200</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>vHocVienController</v>
+      </c>
+      <c r="C54" t="s">
         <v>364</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>200</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>vKyLuatNguoiHocController</v>
+      </c>
+      <c r="C55" t="s">
         <v>347</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>200</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>vNguoiHocVayTinDungController</v>
+      </c>
+      <c r="C56" t="s">
         <v>346</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>200</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>vThongTinHocBongController</v>
+      </c>
+      <c r="C57" t="s">
         <v>345</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>200</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>vThongTinHocTapNghienCuuSinhController</v>
+      </c>
+      <c r="C58" t="s">
         <v>369</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>200</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>vThongTinHocTapSinhVienController</v>
+      </c>
+      <c r="C59" t="s">
         <v>368</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>200</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>vThongTinNguoiHocGDTCController</v>
+      </c>
+      <c r="C60" t="s">
         <v>322</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>200</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>vThongTinViecLamSauTotNghiepController</v>
+      </c>
+      <c r="C61" t="s">
         <v>350</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>200</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>vThongTinViPhamController</v>
+      </c>
+      <c r="C62" t="s">
         <v>336</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>411</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>database_firewall_rulesController</v>
+      </c>
+      <c r="C63" t="s">
         <v>412</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>1</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>vChiTietTaiSanDonViController</v>
+      </c>
+      <c r="C64" t="s">
         <v>327</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>1</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
+        <v>vChiTietThuChiController</v>
+      </c>
+      <c r="C65" t="s">
         <v>309</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>1</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" t="str">
+        <f t="shared" si="0"/>
+        <v>vHoatDongTaiChinhController</v>
+      </c>
+      <c r="C66" t="s">
         <v>314</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>1</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" t="str">
+        <f t="shared" ref="B67:B73" si="1">CONCATENATE(C67, "Controller")</f>
+        <v>vKhoanNopNganSachController</v>
+      </c>
+      <c r="C67" t="s">
         <v>315</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>1</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" t="str">
+        <f t="shared" si="1"/>
+        <v>vKhoanTrichLapQuyController</v>
+      </c>
+      <c r="C68" t="s">
         <v>316</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>1</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" t="str">
+        <f t="shared" si="1"/>
+        <v>vLoaiThuChiController</v>
+      </c>
+      <c r="C69" t="s">
         <v>319</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>1</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" t="str">
+        <f t="shared" si="1"/>
+        <v>vTaiSanDonViController</v>
+      </c>
+      <c r="C70" t="s">
         <v>312</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>25</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" t="str">
+        <f t="shared" si="1"/>
+        <v>vChiTieuTuyenSinhTheoNganhController</v>
+      </c>
+      <c r="C71" t="s">
         <v>310</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>25</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" t="str">
+        <f t="shared" si="1"/>
+        <v>vDuLieuTrungTuyenController</v>
+      </c>
+      <c r="C72" t="s">
         <v>365</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>34</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" t="str">
+        <f t="shared" si="1"/>
+        <v>vDanhSachVanBangChungChiController</v>
+      </c>
+      <c r="C73" t="s">
         <v>359</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>454</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{A0C87645-A414-4C17-8A6C-82C75FCFAF15}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F73">
+  <autoFilter ref="A1:G1" xr:uid="{A0C87645-A414-4C17-8A6C-82C75FCFAF15}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G73">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -16195,7 +16484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4A2D16-A3A0-47BE-B691-95D6AE66D8F8}">
   <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B93" sqref="B93:B95"/>
     </sheetView>
   </sheetViews>
@@ -16210,33 +16499,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="7"/>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="31" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
-      <c r="A2" s="29"/>
-      <c r="B2" s="31"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="28"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="str">
+      <c r="B3" s="27" t="str">
         <f>CONCATENATE(C3,"Controller")</f>
         <v>QuaTrinhCongTacCuaCanBoController</v>
       </c>
-      <c r="C3" s="30" t="str">
+      <c r="C3" s="27" t="str">
         <f>RIGHT(D3,LEN(D3)-2)</f>
         <v>QuaTrinhCongTacCuaCanBo</v>
       </c>
@@ -16251,11 +16540,11 @@
       <c r="A4" s="17">
         <v>2</v>
       </c>
-      <c r="B4" s="30" t="str">
+      <c r="B4" s="27" t="str">
         <f t="shared" ref="B4:B67" si="0">CONCATENATE(C4,"Controller")</f>
         <v>QuaTrinhDaoTaoCuaCanBoController</v>
       </c>
-      <c r="C4" s="30" t="str">
+      <c r="C4" s="27" t="str">
         <f t="shared" ref="C4:C67" si="1">RIGHT(D4,LEN(D4)-2)</f>
         <v>QuaTrinhDaoTaoCuaCanBo</v>
       </c>
@@ -16270,11 +16559,11 @@
       <c r="A5" s="17">
         <v>3</v>
       </c>
-      <c r="B5" s="30" t="str">
+      <c r="B5" s="27" t="str">
         <f t="shared" si="0"/>
         <v>TrinhDoTiengDanTocController</v>
       </c>
-      <c r="C5" s="30" t="str">
+      <c r="C5" s="27" t="str">
         <f t="shared" si="1"/>
         <v>TrinhDoTiengDanToc</v>
       </c>
@@ -16289,11 +16578,11 @@
       <c r="A6" s="17">
         <v>4</v>
       </c>
-      <c r="B6" s="30" t="str">
+      <c r="B6" s="27" t="str">
         <f t="shared" si="0"/>
         <v>CanBoController</v>
       </c>
-      <c r="C6" s="30" t="str">
+      <c r="C6" s="27" t="str">
         <f t="shared" si="1"/>
         <v>CanBo</v>
       </c>
@@ -16308,11 +16597,11 @@
       <c r="A7" s="17">
         <v>5</v>
       </c>
-      <c r="B7" s="30" t="str">
+      <c r="B7" s="27" t="str">
         <f t="shared" si="0"/>
         <v>CanBoHuongDanThanhCongSinhVienController</v>
       </c>
-      <c r="C7" s="30" t="str">
+      <c r="C7" s="27" t="str">
         <f t="shared" si="1"/>
         <v>CanBoHuongDanThanhCongSinhVien</v>
       </c>
@@ -16327,11 +16616,11 @@
       <c r="A8" s="17">
         <v>6</v>
       </c>
-      <c r="B8" s="30" t="str">
+      <c r="B8" s="27" t="str">
         <f t="shared" si="0"/>
         <v>ChucDanhKhoaHocCuaCanBoController</v>
       </c>
-      <c r="C8" s="30" t="str">
+      <c r="C8" s="27" t="str">
         <f t="shared" si="1"/>
         <v>ChucDanhKhoaHocCuaCanBo</v>
       </c>
@@ -16346,11 +16635,11 @@
       <c r="A9" s="17">
         <v>7</v>
       </c>
-      <c r="B9" s="30" t="str">
+      <c r="B9" s="27" t="str">
         <f t="shared" si="0"/>
         <v>DanhGiaXepLoaiCanBoController</v>
       </c>
-      <c r="C9" s="30" t="str">
+      <c r="C9" s="27" t="str">
         <f t="shared" si="1"/>
         <v>DanhGiaXepLoaiCanBo</v>
       </c>
@@ -16365,11 +16654,11 @@
       <c r="A10" s="17">
         <v>8</v>
       </c>
-      <c r="B10" s="30" t="str">
+      <c r="B10" s="27" t="str">
         <f t="shared" si="0"/>
         <v>DanhHieuThiDuaGiaiThuongKhenThuongCanBoController</v>
       </c>
-      <c r="C10" s="30" t="str">
+      <c r="C10" s="27" t="str">
         <f t="shared" si="1"/>
         <v>DanhHieuThiDuaGiaiThuongKhenThuongCanBo</v>
       </c>
@@ -16384,11 +16673,11 @@
       <c r="A11" s="17">
         <v>9</v>
       </c>
-      <c r="B11" s="30" t="str">
+      <c r="B11" s="27" t="str">
         <f t="shared" si="0"/>
         <v>DienBienLuongController</v>
       </c>
-      <c r="C11" s="30" t="str">
+      <c r="C11" s="27" t="str">
         <f t="shared" si="1"/>
         <v>DienBienLuong</v>
       </c>
@@ -16403,11 +16692,11 @@
       <c r="A12" s="17">
         <v>10</v>
       </c>
-      <c r="B12" s="30" t="str">
+      <c r="B12" s="27" t="str">
         <f t="shared" si="0"/>
         <v>DoiTuongChinhSachCanBoController</v>
       </c>
-      <c r="C12" s="30" t="str">
+      <c r="C12" s="27" t="str">
         <f t="shared" si="1"/>
         <v>DoiTuongChinhSachCanBo</v>
       </c>
@@ -16422,11 +16711,11 @@
       <c r="A13" s="17">
         <v>11</v>
       </c>
-      <c r="B13" s="30" t="str">
+      <c r="B13" s="27" t="str">
         <f t="shared" si="0"/>
         <v>DonViCongTacCuaCanBoController</v>
       </c>
-      <c r="C13" s="30" t="str">
+      <c r="C13" s="27" t="str">
         <f t="shared" si="1"/>
         <v>DonViCongTacCuaCanBo</v>
       </c>
@@ -16441,11 +16730,11 @@
       <c r="A14" s="17">
         <v>12</v>
       </c>
-      <c r="B14" s="30" t="str">
+      <c r="B14" s="27" t="str">
         <f t="shared" si="0"/>
         <v>DonViThinhGiangCuaCanBoController</v>
       </c>
-      <c r="C14" s="30" t="str">
+      <c r="C14" s="27" t="str">
         <f t="shared" si="1"/>
         <v>DonViThinhGiangCuaCanBo</v>
       </c>
@@ -16460,11 +16749,11 @@
       <c r="A15" s="11">
         <v>13</v>
       </c>
-      <c r="B15" s="30" t="str">
+      <c r="B15" s="27" t="str">
         <f t="shared" si="0"/>
         <v>GiangVienNNController</v>
       </c>
-      <c r="C15" s="30" t="str">
+      <c r="C15" s="27" t="str">
         <f t="shared" si="1"/>
         <v>GiangVienNN</v>
       </c>
@@ -16479,11 +16768,11 @@
       <c r="A16" s="11">
         <v>14</v>
       </c>
-      <c r="B16" s="30" t="str">
+      <c r="B16" s="27" t="str">
         <f t="shared" si="0"/>
         <v>GiaoVienQPANController</v>
       </c>
-      <c r="C16" s="30" t="str">
+      <c r="C16" s="27" t="str">
         <f t="shared" si="1"/>
         <v>GiaoVienQPAN</v>
       </c>
@@ -16498,11 +16787,11 @@
       <c r="A17" s="11">
         <v>15</v>
       </c>
-      <c r="B17" s="30" t="str">
+      <c r="B17" s="27" t="str">
         <f t="shared" si="0"/>
         <v>HopDongController</v>
       </c>
-      <c r="C17" s="30" t="str">
+      <c r="C17" s="27" t="str">
         <f t="shared" si="1"/>
         <v>HopDong</v>
       </c>
@@ -16517,11 +16806,11 @@
       <c r="A18" s="11">
         <v>16</v>
       </c>
-      <c r="B18" s="30" t="str">
+      <c r="B18" s="27" t="str">
         <f t="shared" si="0"/>
         <v>HopDongThinhGiangController</v>
       </c>
-      <c r="C18" s="30" t="str">
+      <c r="C18" s="27" t="str">
         <f t="shared" si="1"/>
         <v>HopDongThinhGiang</v>
       </c>
@@ -16536,11 +16825,11 @@
       <c r="A19" s="11">
         <v>17</v>
       </c>
-      <c r="B19" s="30" t="str">
+      <c r="B19" s="27" t="str">
         <f t="shared" si="0"/>
         <v>KhoaBoiDuongTapHuanThamGiaCuaCanBoController</v>
       </c>
-      <c r="C19" s="30" t="str">
+      <c r="C19" s="27" t="str">
         <f t="shared" si="1"/>
         <v>KhoaBoiDuongTapHuanThamGiaCuaCanBo</v>
       </c>
@@ -16555,11 +16844,11 @@
       <c r="A20" s="11">
         <v>18</v>
       </c>
-      <c r="B20" s="30" t="str">
+      <c r="B20" s="27" t="str">
         <f t="shared" si="0"/>
         <v>KyLuatCanBoController</v>
       </c>
-      <c r="C20" s="30" t="str">
+      <c r="C20" s="27" t="str">
         <f t="shared" si="1"/>
         <v>KyLuatCanBo</v>
       </c>
@@ -16574,11 +16863,11 @@
       <c r="A21" s="11">
         <v>19</v>
       </c>
-      <c r="B21" s="30" t="str">
+      <c r="B21" s="27" t="str">
         <f t="shared" si="0"/>
         <v>LinhVucNghienCuuCuaCanBoController</v>
       </c>
-      <c r="C21" s="30" t="str">
+      <c r="C21" s="27" t="str">
         <f t="shared" si="1"/>
         <v>LinhVucNghienCuuCuaCanBo</v>
       </c>
@@ -16593,11 +16882,11 @@
       <c r="A22" s="11">
         <v>20</v>
       </c>
-      <c r="B22" s="30" t="str">
+      <c r="B22" s="27" t="str">
         <f t="shared" si="0"/>
         <v>NganhDungTenGiangDayController</v>
       </c>
-      <c r="C22" s="30" t="str">
+      <c r="C22" s="27" t="str">
         <f t="shared" si="1"/>
         <v>NganhDungTenGiangDay</v>
       </c>
@@ -16612,11 +16901,11 @@
       <c r="A23" s="11">
         <v>21</v>
       </c>
-      <c r="B23" s="30" t="str">
+      <c r="B23" s="27" t="str">
         <f t="shared" si="0"/>
         <v>NganhGiangDayCuaCanBoController</v>
       </c>
-      <c r="C23" s="30" t="str">
+      <c r="C23" s="27" t="str">
         <f t="shared" si="1"/>
         <v>NganhGiangDayCuaCanBo</v>
       </c>
@@ -16631,11 +16920,11 @@
       <c r="A24" s="13">
         <v>22</v>
       </c>
-      <c r="B24" s="30" t="str">
+      <c r="B24" s="27" t="str">
         <f t="shared" si="0"/>
         <v>PhuCapController</v>
       </c>
-      <c r="C24" s="30" t="str">
+      <c r="C24" s="27" t="str">
         <f t="shared" si="1"/>
         <v>PhuCap</v>
       </c>
@@ -16650,11 +16939,11 @@
       <c r="A25" s="13">
         <v>23</v>
       </c>
-      <c r="B25" s="30" t="str">
+      <c r="B25" s="27" t="str">
         <f t="shared" si="0"/>
         <v>CoCauToChucController</v>
       </c>
-      <c r="C25" s="30" t="str">
+      <c r="C25" s="27" t="str">
         <f t="shared" si="1"/>
         <v>CoCauToChuc</v>
       </c>
@@ -16669,11 +16958,11 @@
       <c r="A26" s="13">
         <v>24</v>
       </c>
-      <c r="B26" s="30" t="str">
+      <c r="B26" s="27" t="str">
         <f t="shared" si="0"/>
         <v>CoSoGiaoDucController</v>
       </c>
-      <c r="C26" s="30" t="str">
+      <c r="C26" s="27" t="str">
         <f t="shared" si="1"/>
         <v>CoSoGiaoDuc</v>
       </c>
@@ -16688,11 +16977,11 @@
       <c r="A27" s="9">
         <v>25</v>
       </c>
-      <c r="B27" s="30" t="str">
+      <c r="B27" s="27" t="str">
         <f t="shared" si="0"/>
         <v>DanhHieuThiDuaGiaiThuongKhenThuongCuaCoSoGDController</v>
       </c>
-      <c r="C27" s="30" t="str">
+      <c r="C27" s="27" t="str">
         <f t="shared" si="1"/>
         <v>DanhHieuThiDuaGiaiThuongKhenThuongCuaCoSoGD</v>
       </c>
@@ -16707,11 +16996,11 @@
       <c r="A28" s="9">
         <v>26</v>
       </c>
-      <c r="B28" s="30" t="str">
+      <c r="B28" s="27" t="str">
         <f t="shared" si="0"/>
         <v>DauMoiLienHeController</v>
       </c>
-      <c r="C28" s="30" t="str">
+      <c r="C28" s="27" t="str">
         <f t="shared" si="1"/>
         <v>DauMoiLienHe</v>
       </c>
@@ -16726,11 +17015,11 @@
       <c r="A29" s="9">
         <v>27</v>
       </c>
-      <c r="B29" s="30" t="str">
+      <c r="B29" s="27" t="str">
         <f t="shared" si="0"/>
         <v>DonViLienKetDaoTaoGiaoDucController</v>
       </c>
-      <c r="C29" s="30" t="str">
+      <c r="C29" s="27" t="str">
         <f t="shared" si="1"/>
         <v>DonViLienKetDaoTaoGiaoDuc</v>
       </c>
@@ -16745,11 +17034,11 @@
       <c r="A30" s="9">
         <v>28</v>
       </c>
-      <c r="B30" s="30" t="str">
+      <c r="B30" s="27" t="str">
         <f t="shared" si="0"/>
         <v>KhoaHocController</v>
       </c>
-      <c r="C30" s="30" t="str">
+      <c r="C30" s="27" t="str">
         <f t="shared" si="1"/>
         <v>KhoaHoc</v>
       </c>
@@ -16764,11 +17053,11 @@
       <c r="A31" s="9">
         <v>29</v>
       </c>
-      <c r="B31" s="30" t="str">
+      <c r="B31" s="27" t="str">
         <f t="shared" si="0"/>
         <v>LichSuDoiTenTruongController</v>
       </c>
-      <c r="C31" s="30" t="str">
+      <c r="C31" s="27" t="str">
         <f t="shared" si="1"/>
         <v>LichSuDoiTenTruong</v>
       </c>
@@ -16783,11 +17072,11 @@
       <c r="A32" s="9">
         <v>30</v>
       </c>
-      <c r="B32" s="30" t="str">
+      <c r="B32" s="27" t="str">
         <f t="shared" si="0"/>
         <v>ToChucKiemDinhController</v>
       </c>
-      <c r="C32" s="30" t="str">
+      <c r="C32" s="27" t="str">
         <f t="shared" si="1"/>
         <v>ToChucKiemDinh</v>
       </c>
@@ -16802,11 +17091,11 @@
       <c r="A33" s="9">
         <v>31</v>
       </c>
-      <c r="B33" s="30" t="str">
+      <c r="B33" s="27" t="str">
         <f t="shared" si="0"/>
         <v>VanBanTuChuController</v>
       </c>
-      <c r="C33" s="30" t="str">
+      <c r="C33" s="27" t="str">
         <f t="shared" si="1"/>
         <v>VanBanTuChu</v>
       </c>
@@ -16821,11 +17110,11 @@
       <c r="A34" s="9">
         <v>32</v>
       </c>
-      <c r="B34" s="30" t="str">
+      <c r="B34" s="27" t="str">
         <f t="shared" si="0"/>
         <v>CongTrinhCoSoVatChatController</v>
       </c>
-      <c r="C34" s="30" t="str">
+      <c r="C34" s="27" t="str">
         <f t="shared" si="1"/>
         <v>CongTrinhCoSoVatChat</v>
       </c>
@@ -16840,11 +17129,11 @@
       <c r="A35" s="9">
         <v>33</v>
       </c>
-      <c r="B35" s="30" t="str">
+      <c r="B35" s="27" t="str">
         <f t="shared" si="0"/>
         <v>DatDaiController</v>
       </c>
-      <c r="C35" s="30" t="str">
+      <c r="C35" s="27" t="str">
         <f t="shared" si="1"/>
         <v>DatDai</v>
       </c>
@@ -16859,11 +17148,11 @@
       <c r="A36" s="9">
         <v>34</v>
       </c>
-      <c r="B36" s="30" t="str">
+      <c r="B36" s="27" t="str">
         <f t="shared" si="0"/>
         <v>KiTucXaController</v>
       </c>
-      <c r="C36" s="30" t="str">
+      <c r="C36" s="27" t="str">
         <f t="shared" si="1"/>
         <v>KiTucXa</v>
       </c>
@@ -16878,11 +17167,11 @@
       <c r="A37" s="9">
         <v>35</v>
       </c>
-      <c r="B37" s="30" t="str">
+      <c r="B37" s="27" t="str">
         <f t="shared" si="0"/>
         <v>PhongHocGiangDuongHoiTruongController</v>
       </c>
-      <c r="C37" s="30" t="str">
+      <c r="C37" s="27" t="str">
         <f t="shared" si="1"/>
         <v>PhongHocGiangDuongHoiTruong</v>
       </c>
@@ -16897,11 +17186,11 @@
       <c r="A38" s="9">
         <v>36</v>
       </c>
-      <c r="B38" s="30" t="str">
+      <c r="B38" s="27" t="str">
         <f t="shared" si="0"/>
         <v>PhongThiNghiemController</v>
       </c>
-      <c r="C38" s="30" t="str">
+      <c r="C38" s="27" t="str">
         <f t="shared" si="1"/>
         <v>PhongThiNghiem</v>
       </c>
@@ -16916,11 +17205,11 @@
       <c r="A39" s="9">
         <v>37</v>
       </c>
-      <c r="B39" s="30" t="str">
+      <c r="B39" s="27" t="str">
         <f t="shared" si="0"/>
         <v>PhongThucHanhController</v>
       </c>
-      <c r="C39" s="30" t="str">
+      <c r="C39" s="27" t="str">
         <f t="shared" si="1"/>
         <v>PhongThucHanh</v>
       </c>
@@ -16935,11 +17224,11 @@
       <c r="A40" s="9">
         <v>38</v>
       </c>
-      <c r="B40" s="30" t="str">
+      <c r="B40" s="27" t="str">
         <f t="shared" si="0"/>
         <v>ThietBiPTN_THTren500TrController</v>
       </c>
-      <c r="C40" s="30" t="str">
+      <c r="C40" s="27" t="str">
         <f t="shared" si="1"/>
         <v>ThietBiPTN_THTren500Tr</v>
       </c>
@@ -16954,11 +17243,11 @@
       <c r="A41" s="9">
         <v>39</v>
       </c>
-      <c r="B41" s="30" t="str">
+      <c r="B41" s="27" t="str">
         <f t="shared" si="0"/>
         <v>ThuVienTrungTamHocLieuController</v>
       </c>
-      <c r="C41" s="30" t="str">
+      <c r="C41" s="27" t="str">
         <f t="shared" si="1"/>
         <v>ThuVienTrungTamHocLieu</v>
       </c>
@@ -16973,11 +17262,11 @@
       <c r="A42" s="9">
         <v>40</v>
       </c>
-      <c r="B42" s="30" t="str">
+      <c r="B42" s="27" t="str">
         <f t="shared" si="0"/>
         <v>ChuongTrinhDaoTaoController</v>
       </c>
-      <c r="C42" s="30" t="str">
+      <c r="C42" s="27" t="str">
         <f t="shared" si="1"/>
         <v>ChuongTrinhDaoTao</v>
       </c>
@@ -16992,11 +17281,11 @@
       <c r="A43" s="9">
         <v>41</v>
       </c>
-      <c r="B43" s="30" t="str">
+      <c r="B43" s="27" t="str">
         <f t="shared" si="0"/>
         <v>GiaHanChuongTrinhDaoTaoController</v>
       </c>
-      <c r="C43" s="30" t="str">
+      <c r="C43" s="27" t="str">
         <f t="shared" si="1"/>
         <v>GiaHanChuongTrinhDaoTao</v>
       </c>
@@ -17011,11 +17300,11 @@
       <c r="A44" s="9">
         <v>42</v>
       </c>
-      <c r="B44" s="30" t="str">
+      <c r="B44" s="27" t="str">
         <f t="shared" si="0"/>
         <v>NamApDungChuongTrinhController</v>
       </c>
-      <c r="C44" s="30" t="str">
+      <c r="C44" s="27" t="str">
         <f t="shared" si="1"/>
         <v>NamApDungChuongTrinh</v>
       </c>
@@ -17030,11 +17319,11 @@
       <c r="A45" s="9">
         <v>43</v>
       </c>
-      <c r="B45" s="30" t="str">
+      <c r="B45" s="27" t="str">
         <f t="shared" si="0"/>
         <v>NgonNguGiangDayController</v>
       </c>
-      <c r="C45" s="30" t="str">
+      <c r="C45" s="27" t="str">
         <f t="shared" si="1"/>
         <v>NgonNguGiangDay</v>
       </c>
@@ -17049,11 +17338,11 @@
       <c r="A46" s="9">
         <v>44</v>
       </c>
-      <c r="B46" s="30" t="str">
+      <c r="B46" s="27" t="str">
         <f t="shared" si="0"/>
         <v>QuyetDinhCapPhepChuongTrinhDungChoChuongTrinhNuocNgoaiController</v>
       </c>
-      <c r="C46" s="30" t="str">
+      <c r="C46" s="27" t="str">
         <f t="shared" si="1"/>
         <v>QuyetDinhCapPhepChuongTrinhDungChoChuongTrinhNuocNgoai</v>
       </c>
@@ -17068,11 +17357,11 @@
       <c r="A47" s="9">
         <v>45</v>
       </c>
-      <c r="B47" s="30" t="str">
+      <c r="B47" s="27" t="str">
         <f t="shared" si="0"/>
         <v>ThongTinKiemDinhCuaChuongTrinhController</v>
       </c>
-      <c r="C47" s="30" t="str">
+      <c r="C47" s="27" t="str">
         <f t="shared" si="1"/>
         <v>ThongTinKiemDinhCuaChuongTrinh</v>
       </c>
@@ -17087,11 +17376,11 @@
       <c r="A48" s="9">
         <v>46</v>
       </c>
-      <c r="B48" s="30" t="str">
+      <c r="B48" s="27" t="str">
         <f t="shared" si="0"/>
         <v>NguoiController</v>
       </c>
-      <c r="C48" s="30" t="str">
+      <c r="C48" s="27" t="str">
         <f t="shared" si="1"/>
         <v>Nguoi</v>
       </c>
@@ -17106,11 +17395,11 @@
       <c r="A49" s="9">
         <v>47</v>
       </c>
-      <c r="B49" s="30" t="str">
+      <c r="B49" s="27" t="str">
         <f t="shared" si="0"/>
         <v>ToChucHopTacDoanhNghiepController</v>
       </c>
-      <c r="C49" s="30" t="str">
+      <c r="C49" s="27" t="str">
         <f t="shared" si="1"/>
         <v>ToChucHopTacDoanhNghiep</v>
       </c>
@@ -17125,11 +17414,11 @@
       <c r="A50" s="9">
         <v>48</v>
       </c>
-      <c r="B50" s="30" t="str">
+      <c r="B50" s="27" t="str">
         <f t="shared" si="0"/>
         <v>DeAnDuAnChuongTrinhController</v>
       </c>
-      <c r="C50" s="30" t="str">
+      <c r="C50" s="27" t="str">
         <f t="shared" si="1"/>
         <v>DeAnDuAnChuongTrinh</v>
       </c>
@@ -17144,11 +17433,11 @@
       <c r="A51" s="9">
         <v>49</v>
       </c>
-      <c r="B51" s="30" t="str">
+      <c r="B51" s="27" t="str">
         <f t="shared" si="0"/>
         <v>DoanCongTacController</v>
       </c>
-      <c r="C51" s="30" t="str">
+      <c r="C51" s="27" t="str">
         <f t="shared" si="1"/>
         <v>DoanCongTac</v>
       </c>
@@ -17163,11 +17452,11 @@
       <c r="A52" s="9">
         <v>50</v>
       </c>
-      <c r="B52" s="30" t="str">
+      <c r="B52" s="27" t="str">
         <f t="shared" si="0"/>
         <v>GVDuocCuDiDaoTaoController</v>
       </c>
-      <c r="C52" s="30" t="str">
+      <c r="C52" s="27" t="str">
         <f t="shared" si="1"/>
         <v>GVDuocCuDiDaoTao</v>
       </c>
@@ -17182,11 +17471,11 @@
       <c r="A53" s="9">
         <v>51</v>
       </c>
-      <c r="B53" s="30" t="str">
+      <c r="B53" s="27" t="str">
         <f t="shared" si="0"/>
         <v>HoiThaoHoiNghiController</v>
       </c>
-      <c r="C53" s="30" t="str">
+      <c r="C53" s="27" t="str">
         <f t="shared" si="1"/>
         <v>HoiThaoHoiNghi</v>
       </c>
@@ -17201,11 +17490,11 @@
       <c r="A54" s="9">
         <v>52</v>
       </c>
-      <c r="B54" s="30" t="str">
+      <c r="B54" s="27" t="str">
         <f t="shared" si="0"/>
         <v>LuuHocSinhSinhVienNNController</v>
       </c>
-      <c r="C54" s="30" t="str">
+      <c r="C54" s="27" t="str">
         <f t="shared" si="1"/>
         <v>LuuHocSinhSinhVienNN</v>
       </c>
@@ -17220,11 +17509,11 @@
       <c r="A55" s="9">
         <v>53</v>
       </c>
-      <c r="B55" s="30" t="str">
+      <c r="B55" s="27" t="str">
         <f t="shared" si="0"/>
         <v>ThanhPhanThamGiaDoanCongTacController</v>
       </c>
-      <c r="C55" s="30" t="str">
+      <c r="C55" s="27" t="str">
         <f t="shared" si="1"/>
         <v>ThanhPhanThamGiaDoanCongTac</v>
       </c>
@@ -17239,11 +17528,11 @@
       <c r="A56" s="9">
         <v>54</v>
       </c>
-      <c r="B56" s="30" t="str">
+      <c r="B56" s="27" t="str">
         <f t="shared" si="0"/>
         <v>ThoaThuanHopTacQuocTeController</v>
       </c>
-      <c r="C56" s="30" t="str">
+      <c r="C56" s="27" t="str">
         <f t="shared" si="1"/>
         <v>ThoaThuanHopTacQuocTe</v>
       </c>
@@ -17258,11 +17547,11 @@
       <c r="A57" s="9">
         <v>55</v>
       </c>
-      <c r="B57" s="30" t="str">
+      <c r="B57" s="27" t="str">
         <f t="shared" si="0"/>
         <v>ThongTinHopTacController</v>
       </c>
-      <c r="C57" s="30" t="str">
+      <c r="C57" s="27" t="str">
         <f t="shared" si="1"/>
         <v>ThongTinHopTac</v>
       </c>
@@ -17277,11 +17566,11 @@
       <c r="A58" s="9">
         <v>56</v>
       </c>
-      <c r="B58" s="30" t="str">
+      <c r="B58" s="27" t="str">
         <f t="shared" si="0"/>
         <v>ToChucHopTacQuocTeController</v>
       </c>
-      <c r="C58" s="30" t="str">
+      <c r="C58" s="27" t="str">
         <f t="shared" si="1"/>
         <v>ToChucHopTacQuocTe</v>
       </c>
@@ -17296,11 +17585,11 @@
       <c r="A59" s="9">
         <v>57</v>
       </c>
-      <c r="B59" s="30" t="str">
+      <c r="B59" s="27" t="str">
         <f t="shared" si="0"/>
         <v>BaiBaoKHDaCongBoController</v>
       </c>
-      <c r="C59" s="30" t="str">
+      <c r="C59" s="27" t="str">
         <f t="shared" si="1"/>
         <v>BaiBaoKHDaCongBo</v>
       </c>
@@ -17315,11 +17604,11 @@
       <c r="A60" s="9">
         <v>58</v>
       </c>
-      <c r="B60" s="30" t="str">
+      <c r="B60" s="27" t="str">
         <f t="shared" si="0"/>
         <v>ChuyenGiaoCongNgheVaDaoTaoController</v>
       </c>
-      <c r="C60" s="30" t="str">
+      <c r="C60" s="27" t="str">
         <f t="shared" si="1"/>
         <v>ChuyenGiaoCongNgheVaDaoTao</v>
       </c>
@@ -17334,11 +17623,11 @@
       <c r="A61" s="9">
         <v>59</v>
       </c>
-      <c r="B61" s="30" t="str">
+      <c r="B61" s="27" t="str">
         <f t="shared" si="0"/>
         <v>DoanhNghiepKHCNController</v>
       </c>
-      <c r="C61" s="30" t="str">
+      <c r="C61" s="27" t="str">
         <f t="shared" si="1"/>
         <v>DoanhNghiepKHCN</v>
       </c>
@@ -17353,11 +17642,11 @@
       <c r="A62" s="9">
         <v>60</v>
       </c>
-      <c r="B62" s="30" t="str">
+      <c r="B62" s="27" t="str">
         <f t="shared" si="0"/>
         <v>DoiTuongThamGiaController</v>
       </c>
-      <c r="C62" s="30" t="str">
+      <c r="C62" s="27" t="str">
         <f t="shared" si="1"/>
         <v>DoiTuongThamGia</v>
       </c>
@@ -17372,11 +17661,11 @@
       <c r="A63" s="9">
         <v>61</v>
       </c>
-      <c r="B63" s="30" t="str">
+      <c r="B63" s="27" t="str">
         <f t="shared" si="0"/>
         <v>GiaiThuongKhoaHocController</v>
       </c>
-      <c r="C63" s="30" t="str">
+      <c r="C63" s="27" t="str">
         <f t="shared" si="1"/>
         <v>GiaiThuongKhoaHoc</v>
       </c>
@@ -17391,11 +17680,11 @@
       <c r="A64" s="9">
         <v>62</v>
       </c>
-      <c r="B64" s="30" t="str">
+      <c r="B64" s="27" t="str">
         <f t="shared" si="0"/>
         <v>HoatDongBaoVeMoiTruongController</v>
       </c>
-      <c r="C64" s="30" t="str">
+      <c r="C64" s="27" t="str">
         <f t="shared" si="1"/>
         <v>HoatDongBaoVeMoiTruong</v>
       </c>
@@ -17410,11 +17699,11 @@
       <c r="A65" s="9">
         <v>63</v>
       </c>
-      <c r="B65" s="30" t="str">
+      <c r="B65" s="27" t="str">
         <f t="shared" si="0"/>
         <v>NhiemVuKHCNController</v>
       </c>
-      <c r="C65" s="30" t="str">
+      <c r="C65" s="27" t="str">
         <f t="shared" si="1"/>
         <v>NhiemVuKHCN</v>
       </c>
@@ -17429,11 +17718,11 @@
       <c r="A66" s="9">
         <v>64</v>
       </c>
-      <c r="B66" s="30" t="str">
+      <c r="B66" s="27" t="str">
         <f t="shared" si="0"/>
         <v>NhomNghienCuuManhController</v>
       </c>
-      <c r="C66" s="30" t="str">
+      <c r="C66" s="27" t="str">
         <f t="shared" si="1"/>
         <v>NhomNghienCuuManh</v>
       </c>
@@ -17448,11 +17737,11 @@
       <c r="A67" s="9">
         <v>65</v>
       </c>
-      <c r="B67" s="30" t="str">
+      <c r="B67" s="27" t="str">
         <f t="shared" si="0"/>
         <v>SachDaXuatBanController</v>
       </c>
-      <c r="C67" s="30" t="str">
+      <c r="C67" s="27" t="str">
         <f t="shared" si="1"/>
         <v>SachDaXuatBan</v>
       </c>
@@ -17467,11 +17756,11 @@
       <c r="A68" s="9">
         <v>66</v>
       </c>
-      <c r="B68" s="30" t="str">
+      <c r="B68" s="27" t="str">
         <f t="shared" ref="B68:B95" si="2">CONCATENATE(C68,"Controller")</f>
         <v>TaiSanTriTueController</v>
       </c>
-      <c r="C68" s="30" t="str">
+      <c r="C68" s="27" t="str">
         <f t="shared" ref="C68:C95" si="3">RIGHT(D68,LEN(D68)-2)</f>
         <v>TaiSanTriTue</v>
       </c>
@@ -17486,11 +17775,11 @@
       <c r="A69" s="9">
         <v>67</v>
       </c>
-      <c r="B69" s="30" t="str">
+      <c r="B69" s="27" t="str">
         <f t="shared" si="2"/>
         <v>TapChiKhoaHocController</v>
       </c>
-      <c r="C69" s="30" t="str">
+      <c r="C69" s="27" t="str">
         <f t="shared" si="3"/>
         <v>TapChiKhoaHoc</v>
       </c>
@@ -17505,11 +17794,11 @@
       <c r="A70" s="9">
         <v>68</v>
       </c>
-      <c r="B70" s="30" t="str">
+      <c r="B70" s="27" t="str">
         <f t="shared" si="2"/>
         <v>DanhSachNganhDaoTaoController</v>
       </c>
-      <c r="C70" s="30" t="str">
+      <c r="C70" s="27" t="str">
         <f t="shared" si="3"/>
         <v>DanhSachNganhDaoTao</v>
       </c>
@@ -17524,11 +17813,11 @@
       <c r="A71" s="9">
         <v>69</v>
       </c>
-      <c r="B71" s="30" t="str">
+      <c r="B71" s="27" t="str">
         <f t="shared" si="2"/>
         <v>HinhThucDaoTaoCuaNganhController</v>
       </c>
-      <c r="C71" s="30" t="str">
+      <c r="C71" s="27" t="str">
         <f t="shared" si="3"/>
         <v>HinhThucDaoTaoCuaNganh</v>
       </c>
@@ -17543,11 +17832,11 @@
       <c r="A72" s="9">
         <v>70</v>
       </c>
-      <c r="B72" s="30" t="str">
+      <c r="B72" s="27" t="str">
         <f t="shared" si="2"/>
         <v>KhoiNganhDaoTaoController</v>
       </c>
-      <c r="C72" s="30" t="str">
+      <c r="C72" s="27" t="str">
         <f t="shared" si="3"/>
         <v>KhoiNganhDaoTao</v>
       </c>
@@ -17562,11 +17851,11 @@
       <c r="A73" s="9">
         <v>71</v>
       </c>
-      <c r="B73" s="30" t="str">
+      <c r="B73" s="27" t="str">
         <f t="shared" si="2"/>
         <v>LoaiHinhDaoTaoKhacDuocChoPhepMoNganhController</v>
       </c>
-      <c r="C73" s="30" t="str">
+      <c r="C73" s="27" t="str">
         <f t="shared" si="3"/>
         <v>LoaiHinhDaoTaoKhacDuocChoPhepMoNganh</v>
       </c>
@@ -17581,11 +17870,11 @@
       <c r="A74" s="9">
         <v>72</v>
       </c>
-      <c r="B74" s="30" t="str">
+      <c r="B74" s="27" t="str">
         <f t="shared" si="2"/>
         <v>NhomNganhDaoTaoController</v>
       </c>
-      <c r="C74" s="30" t="str">
+      <c r="C74" s="27" t="str">
         <f t="shared" si="3"/>
         <v>NhomNganhDaoTao</v>
       </c>
@@ -17600,11 +17889,11 @@
       <c r="A75" s="9">
         <v>73</v>
       </c>
-      <c r="B75" s="30" t="str">
+      <c r="B75" s="27" t="str">
         <f t="shared" si="2"/>
         <v>ThongTinLinhVucDaoTaoController</v>
       </c>
-      <c r="C75" s="30" t="str">
+      <c r="C75" s="27" t="str">
         <f t="shared" si="3"/>
         <v>ThongTinLinhVucDaoTao</v>
       </c>
@@ -17619,11 +17908,11 @@
       <c r="A76" s="9">
         <v>74</v>
       </c>
-      <c r="B76" s="30" t="str">
+      <c r="B76" s="27" t="str">
         <f t="shared" si="2"/>
         <v>DanhHieuThiDuaGiaiThuongKhenThuongNguoiHocController</v>
       </c>
-      <c r="C76" s="30" t="str">
+      <c r="C76" s="27" t="str">
         <f t="shared" si="3"/>
         <v>DanhHieuThiDuaGiaiThuongKhenThuongNguoiHoc</v>
       </c>
@@ -17638,11 +17927,11 @@
       <c r="A77" s="9">
         <v>75</v>
       </c>
-      <c r="B77" s="30" t="str">
+      <c r="B77" s="27" t="str">
         <f t="shared" si="2"/>
         <v>HocVienController</v>
       </c>
-      <c r="C77" s="30" t="str">
+      <c r="C77" s="27" t="str">
         <f t="shared" si="3"/>
         <v>HocVien</v>
       </c>
@@ -17657,11 +17946,11 @@
       <c r="A78" s="9">
         <v>76</v>
       </c>
-      <c r="B78" s="30" t="str">
+      <c r="B78" s="27" t="str">
         <f t="shared" si="2"/>
         <v>KyLuatNguoiHocController</v>
       </c>
-      <c r="C78" s="30" t="str">
+      <c r="C78" s="27" t="str">
         <f t="shared" si="3"/>
         <v>KyLuatNguoiHoc</v>
       </c>
@@ -17676,11 +17965,11 @@
       <c r="A79" s="9">
         <v>77</v>
       </c>
-      <c r="B79" s="30" t="str">
+      <c r="B79" s="27" t="str">
         <f t="shared" si="2"/>
         <v>NguoiHocVayTinDungController</v>
       </c>
-      <c r="C79" s="30" t="str">
+      <c r="C79" s="27" t="str">
         <f t="shared" si="3"/>
         <v>NguoiHocVayTinDung</v>
       </c>
@@ -17695,11 +17984,11 @@
       <c r="A80" s="9">
         <v>78</v>
       </c>
-      <c r="B80" s="30" t="str">
+      <c r="B80" s="27" t="str">
         <f t="shared" si="2"/>
         <v>ThongTinHocBongController</v>
       </c>
-      <c r="C80" s="30" t="str">
+      <c r="C80" s="27" t="str">
         <f t="shared" si="3"/>
         <v>ThongTinHocBong</v>
       </c>
@@ -17714,11 +18003,11 @@
       <c r="A81" s="9">
         <v>79</v>
       </c>
-      <c r="B81" s="30" t="str">
+      <c r="B81" s="27" t="str">
         <f t="shared" si="2"/>
         <v>ThongTinHocTapNghienCuuSinhController</v>
       </c>
-      <c r="C81" s="30" t="str">
+      <c r="C81" s="27" t="str">
         <f t="shared" si="3"/>
         <v>ThongTinHocTapNghienCuuSinh</v>
       </c>
@@ -17733,11 +18022,11 @@
       <c r="A82" s="9">
         <v>80</v>
       </c>
-      <c r="B82" s="30" t="str">
+      <c r="B82" s="27" t="str">
         <f t="shared" si="2"/>
         <v>ThongTinHocTapSinhVienController</v>
       </c>
-      <c r="C82" s="30" t="str">
+      <c r="C82" s="27" t="str">
         <f t="shared" si="3"/>
         <v>ThongTinHocTapSinhVien</v>
       </c>
@@ -17752,11 +18041,11 @@
       <c r="A83" s="9">
         <v>81</v>
       </c>
-      <c r="B83" s="30" t="str">
+      <c r="B83" s="27" t="str">
         <f t="shared" si="2"/>
         <v>ThongTinNguoiHocGDTCController</v>
       </c>
-      <c r="C83" s="30" t="str">
+      <c r="C83" s="27" t="str">
         <f t="shared" si="3"/>
         <v>ThongTinNguoiHocGDTC</v>
       </c>
@@ -17771,11 +18060,11 @@
       <c r="A84" s="9">
         <v>82</v>
       </c>
-      <c r="B84" s="30" t="str">
+      <c r="B84" s="27" t="str">
         <f t="shared" si="2"/>
         <v>ThongTinViecLamSauTotNghiepController</v>
       </c>
-      <c r="C84" s="30" t="str">
+      <c r="C84" s="27" t="str">
         <f t="shared" si="3"/>
         <v>ThongTinViecLamSauTotNghiep</v>
       </c>
@@ -17790,11 +18079,11 @@
       <c r="A85" s="9">
         <v>83</v>
       </c>
-      <c r="B85" s="30" t="str">
+      <c r="B85" s="27" t="str">
         <f t="shared" si="2"/>
         <v>ThongTinViPhamController</v>
       </c>
-      <c r="C85" s="30" t="str">
+      <c r="C85" s="27" t="str">
         <f t="shared" si="3"/>
         <v>ThongTinViPham</v>
       </c>
@@ -17809,11 +18098,11 @@
       <c r="A86" s="9">
         <v>84</v>
       </c>
-      <c r="B86" s="30" t="str">
+      <c r="B86" s="27" t="str">
         <f t="shared" si="2"/>
         <v>HoatDongTaiChinhController</v>
       </c>
-      <c r="C86" s="30" t="str">
+      <c r="C86" s="27" t="str">
         <f t="shared" si="3"/>
         <v>HoatDongTaiChinh</v>
       </c>
@@ -17828,11 +18117,11 @@
       <c r="A87" s="9">
         <v>85</v>
       </c>
-      <c r="B87" s="30" t="str">
+      <c r="B87" s="27" t="str">
         <f t="shared" si="2"/>
         <v>KhoanNopNganSachController</v>
       </c>
-      <c r="C87" s="30" t="str">
+      <c r="C87" s="27" t="str">
         <f t="shared" si="3"/>
         <v>KhoanNopNganSach</v>
       </c>
@@ -17847,11 +18136,11 @@
       <c r="A88" s="9">
         <v>86</v>
       </c>
-      <c r="B88" s="30" t="str">
+      <c r="B88" s="27" t="str">
         <f t="shared" si="2"/>
         <v>KhoanTrichLapQuyController</v>
       </c>
-      <c r="C88" s="30" t="str">
+      <c r="C88" s="27" t="str">
         <f t="shared" si="3"/>
         <v>KhoanTrichLapQuy</v>
       </c>
@@ -17866,11 +18155,11 @@
       <c r="A89" s="9">
         <v>87</v>
       </c>
-      <c r="B89" s="30" t="str">
+      <c r="B89" s="27" t="str">
         <f t="shared" si="2"/>
         <v>LoaiThuChiController</v>
       </c>
-      <c r="C89" s="30" t="str">
+      <c r="C89" s="27" t="str">
         <f t="shared" si="3"/>
         <v>LoaiThuChi</v>
       </c>
@@ -17885,11 +18174,11 @@
       <c r="A90" s="9">
         <v>88</v>
       </c>
-      <c r="B90" s="30" t="str">
+      <c r="B90" s="27" t="str">
         <f t="shared" si="2"/>
         <v>TaiSanDonViController</v>
       </c>
-      <c r="C90" s="30" t="str">
+      <c r="C90" s="27" t="str">
         <f t="shared" si="3"/>
         <v>TaiSanDonVi</v>
       </c>
@@ -17904,11 +18193,11 @@
       <c r="A91" s="9">
         <v>89</v>
       </c>
-      <c r="B91" s="30" t="str">
+      <c r="B91" s="27" t="str">
         <f t="shared" si="2"/>
         <v>ChiTietTaiSanDonViController</v>
       </c>
-      <c r="C91" s="30" t="str">
+      <c r="C91" s="27" t="str">
         <f t="shared" si="3"/>
         <v>ChiTietTaiSanDonVi</v>
       </c>
@@ -17923,11 +18212,11 @@
       <c r="A92" s="9">
         <v>90</v>
       </c>
-      <c r="B92" s="30" t="str">
+      <c r="B92" s="27" t="str">
         <f t="shared" si="2"/>
         <v>ChiTietThuChiController</v>
       </c>
-      <c r="C92" s="30" t="str">
+      <c r="C92" s="27" t="str">
         <f t="shared" si="3"/>
         <v>ChiTietThuChi</v>
       </c>
@@ -17942,11 +18231,11 @@
       <c r="A93" s="9">
         <v>91</v>
       </c>
-      <c r="B93" s="30" t="str">
+      <c r="B93" s="27" t="str">
         <f t="shared" si="2"/>
         <v>ChiTieuTuyenSinhTheoNganhController</v>
       </c>
-      <c r="C93" s="30" t="str">
+      <c r="C93" s="27" t="str">
         <f t="shared" si="3"/>
         <v>ChiTieuTuyenSinhTheoNganh</v>
       </c>
@@ -17961,11 +18250,11 @@
       <c r="A94" s="9">
         <v>92</v>
       </c>
-      <c r="B94" s="30" t="str">
+      <c r="B94" s="27" t="str">
         <f t="shared" si="2"/>
         <v>DuLieuTrungTuyenController</v>
       </c>
-      <c r="C94" s="30" t="str">
+      <c r="C94" s="27" t="str">
         <f t="shared" si="3"/>
         <v>DuLieuTrungTuyen</v>
       </c>
@@ -17980,11 +18269,11 @@
       <c r="A95" s="9">
         <v>93</v>
       </c>
-      <c r="B95" s="30" t="str">
+      <c r="B95" s="27" t="str">
         <f t="shared" si="2"/>
         <v>DanhSachVanBangChungChiController</v>
       </c>
-      <c r="C95" s="30" t="str">
+      <c r="C95" s="27" t="str">
         <f t="shared" si="3"/>
         <v>DanhSachVanBangChungChi</v>
       </c>
